--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="491">
   <si>
     <t>ID</t>
   </si>
@@ -828,6 +828,12 @@
   </si>
   <si>
     <t xml:space="preserve">Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori </t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>Caso d uso di servizio (trascrizioni nascita)</t>
   </si>
   <si>
     <t>2101</t>
@@ -1560,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:F247"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5318,7 +5324,7 @@
         <v>446</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>7</v>
@@ -5332,10 +5338,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>7</v>
@@ -5349,7 +5355,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>411</v>
@@ -5366,7 +5372,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>413</v>
@@ -5383,10 +5389,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
@@ -5488,7 +5494,7 @@
         <v>462</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>7</v>
@@ -5502,7 +5508,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>425</v>
@@ -5519,10 +5525,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
@@ -5658,7 +5664,7 @@
         <v>480</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>7</v>
@@ -5672,7 +5678,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>435</v>
@@ -5689,7 +5695,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>437</v>
@@ -5706,10 +5712,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>7</v>
@@ -5752,6 +5758,23 @@
         <v>8</v>
       </c>
       <c r="E246" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="587">
   <si>
     <t>ID</t>
   </si>
@@ -29,25 +29,31 @@
     <t>ORDINAMENTO</t>
   </si>
   <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>Annotazione automatica</t>
+  </si>
+  <si>
+    <t>2022-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>9999-12-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>11111000</t>
   </si>
   <si>
     <t xml:space="preserve">Dichiarazione entro i 10 giorni - resa dal padre </t>
   </si>
   <si>
-    <t>2022-01-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>9999-12-31 00:00:00.0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>11111100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni – resa dal padre – bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre - bambino nato morto</t>
   </si>
   <si>
     <t>11111200</t>
@@ -59,13 +65,13 @@
     <t>11112000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni – resa dalla madre</t>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre</t>
   </si>
   <si>
     <t>11112100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni – resa dalla madre – bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre - bambino nato morto</t>
   </si>
   <si>
     <t>11112200</t>
@@ -77,49 +83,49 @@
     <t>11113000</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione entro i 10 giorni - resa da entrambi i genitori </t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre con presenza madre</t>
   </si>
   <si>
     <t>11113100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa da entrambi i genitori – bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre con presenza madre - bambino nato morto</t>
   </si>
   <si>
     <t>11113200</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione nel matrimonio resa da entrambi i genitori all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal padre con presenza madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11114000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni – resa dal procuratore</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore del padre</t>
   </si>
   <si>
     <t>11114100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni – resa dal procuratore – bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore del padre - bambino nato morto</t>
   </si>
   <si>
     <t>11114200</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione nel matrimonio resa da procuratore speciale all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal procuratore del padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11115000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni – resa dall’ostetrica o sanitario o altra persona che ha assistito al parto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dall'ostetrica o sanitario o altra persona che ha assistito al parto</t>
   </si>
   <si>
     <t>11115100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni – resa dall’ostetrica o sanitario o altra persona che ha assistito al parto – bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dall'ostetrica o sanitario o altra persona che ha assistito al parto - bambino nato morto</t>
   </si>
   <si>
     <t>11115200</t>
@@ -131,7 +137,37 @@
     <t>11116000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dalla madre con presenza padre	Nascita	Dichiarazione	Dic_Nasc_089</t>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre con presenza padre</t>
+  </si>
+  <si>
+    <t>11116100</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre con presenza padre - bambino nato morto</t>
+  </si>
+  <si>
+    <t>11116200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>11117000</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore della madre</t>
+  </si>
+  <si>
+    <t>11117100</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore della madre - bambino nato morto</t>
+  </si>
+  <si>
+    <t>11117200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal procuratore della madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11121000</t>
@@ -173,37 +209,37 @@
     <t>11123000</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione tardiva di filiazione nel matrimonio resa all'USC da entrambi i genitori </t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal padre con presenza madre</t>
   </si>
   <si>
     <t>11123100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa da entrambi i genitori all'USC di filiazione di bimbo nato morto</t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre con presenza madre all'USC di filiazione di bimbo nato morto</t>
   </si>
   <si>
     <t>11123200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa da entrambi i genitori all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre con presenza madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11124000</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione tardiva di filiazione nel matrimonio resa all'USC da un procuratore speciale </t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal procuratore del padre</t>
   </si>
   <si>
     <t>11124100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore speciale all'USC di filiazione di bimbo nato morto</t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore del padre all'USC di filiazione di bimbo nato morto</t>
   </si>
   <si>
     <t>11124200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa da procuratore speciale all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore del padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11125000</t>
@@ -215,7 +251,7 @@
     <t>11125100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre all'USC di filiazione di bimbo nato morto</t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC da ostetrica o altro sanitario di bimbo nato morto</t>
   </si>
   <si>
     <t>11125200</t>
@@ -224,22 +260,58 @@
     <t>Dichiarazione tardiva di filiazione nel matrimonio resa da sanitario all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
+    <t>11126000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dalla madre con presenza padre</t>
+  </si>
+  <si>
+    <t>11126100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di filiazione di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11126200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>11127000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal procuratore della madre</t>
+  </si>
+  <si>
+    <t>11127100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore della madre all'USC di filiazione di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11127200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore della madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
     <t>11211001</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre – filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11211004</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione entro i 10 giorni - resa dal padre con il consenso della madre reso mediante atto notarile – filiazione fuori dal matrimonio </t>
+    <t xml:space="preserve">Dichiarazione entro i 10 giorni - resa dal padre con il consenso della madre reso mediante atto notarile - filiazione fuori dal matrimonio </t>
   </si>
   <si>
     <t>11211101</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre – bambino nato morto – filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato morto - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11211104</t>
@@ -251,19 +323,19 @@
     <t>11211201</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre – bambino nato vivo e morto prima della dichiarazione di nascita – filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato vivo e morto prima della dichiarazione di nascita - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11212002</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dalla madre senza il consenso del padre – filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre senza il consenso del padre - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11212003</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dalla madre con il consenso del padre reso mediante atto notarile – filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre con il consenso del padre reso mediante atto notarile - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11212102</t>
@@ -293,43 +365,73 @@
     <t>11213000</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC da entrambi i genitori</t>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre</t>
+  </si>
+  <si>
+    <t>11213100</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato morto</t>
   </si>
   <si>
     <t>11213200</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC da entrambi i genitori di bimbo nato vivo ma morto prima della denuncia di nascita </t>
+    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
   </si>
   <si>
     <t>11214000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni – resa dal procuratore del padre - Filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore del padre - Filiazione fuori dal matrimonio con consenso della madre a essere nominata</t>
   </si>
   <si>
     <t>11214100</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC da un procuratore speciale di bimbo nato morto</t>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato morto</t>
   </si>
   <si>
     <t>11214200</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC da un procuratore speciale di bimbo nato vivo ma morto prima della denuncia di nascita </t>
+    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
   </si>
   <si>
     <t>11216000</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all USC dal padre con presenza madre</t>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre</t>
   </si>
   <si>
     <t>11216100</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all USC dalla madre con presenza padre	Nascita	Dichiarazione	Dic_Nasc_100</t>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11216200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
+  </si>
+  <si>
+    <t>11217000</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore della madre - Filiazione fuori dal matrimonio con consenso del padre ad essere nominato</t>
+  </si>
+  <si>
+    <t>11217100</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11217200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
   </si>
   <si>
     <t>11221001</t>
@@ -356,18 +458,12 @@
     <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con consenso materno espresso con atto notarile di bimbo nato morto</t>
   </si>
   <si>
-    <t>11221200</t>
+    <t>11221201</t>
   </si>
   <si>
     <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre senza consenso materno di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
-    <t>11221201</t>
-  </si>
-  <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all USC dal padre senza consenso materno di bimbo nato vivo ma morto prima della denuncia di nascita	Nascita	Dichiarazione	Dic_Nasc_040</t>
-  </si>
-  <si>
     <t>11221204</t>
   </si>
   <si>
@@ -383,7 +479,7 @@
     <t>11222003</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il conseno paterno espresso con atto notarile</t>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il consenso paterno espresso con atto notarile</t>
   </si>
   <si>
     <t>11222102</t>
@@ -395,13 +491,13 @@
     <t>11222103</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il conseno paterno di bimbo nato morto</t>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il consenso paterno di bimbo nato morto</t>
   </si>
   <si>
     <t>11222202</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre senza il conseno paterno di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre senza il consenso paterno di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11222203</t>
@@ -413,121 +509,151 @@
     <t>11223000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da entrambi i genitori</t>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre</t>
   </si>
   <si>
     <t>11223100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da entrambi i genitori di bimbo nato morto</t>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato morto</t>
   </si>
   <si>
     <t>11223200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da entrambi i genitori di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11224000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da procuratore speciale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11224100 </t>
-  </si>
-  <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da procuratore speciale di bimbo nato morto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11224200 </t>
-  </si>
-  <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da procuratore speciale di bimbo nato vivo ma morto prima dell</t>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre</t>
+  </si>
+  <si>
+    <t>11224100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11224200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato vivo ma morto prima della dichiarazione</t>
   </si>
   <si>
     <t>11226000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all USC dalla madre con presenza padre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11315000 </t>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre</t>
+  </si>
+  <si>
+    <t>11226100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11226200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>11227000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre con consenso del padre ad essere nominato</t>
+  </si>
+  <si>
+    <t>11227100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11227200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>11315000</t>
   </si>
   <si>
     <t>Dichiarazione resa da ostetrica o altro - fuori matrimonio</t>
   </si>
   <si>
-    <t xml:space="preserve">11315100 </t>
+    <t>11315100</t>
   </si>
   <si>
     <t>Dichiarazione nei temini di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato morto</t>
   </si>
   <si>
-    <t xml:space="preserve">11315200 </t>
+    <t>11315200</t>
   </si>
   <si>
     <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo ma morto prima della dichiarazione</t>
   </si>
   <si>
-    <t xml:space="preserve">11325000 </t>
+    <t>11325000</t>
   </si>
   <si>
     <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo</t>
   </si>
   <si>
-    <t xml:space="preserve">11325100 </t>
+    <t>11325100</t>
   </si>
   <si>
     <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato morto</t>
   </si>
   <si>
-    <t xml:space="preserve">11325200 </t>
+    <t>11325200</t>
   </si>
   <si>
     <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo ma morto prima della dichiarazione</t>
   </si>
   <si>
-    <t xml:space="preserve">11411010 </t>
-  </si>
-  <si>
-    <t>Dichiarazione fuori del matrimonio nei termini di legge resa dal padre, di bimbo riconosciuto da entrambi i genitori prima della nas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11411024 </t>
-  </si>
-  <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal padre con atto pubblico di consenso della madre, di</t>
+    <t>11411010</t>
+  </si>
+  <si>
+    <t>Dichiarazione fuori del matrimonio nei termini di legge resa dal padre, di bimbo riconosciuto da entrambi i genitori prima della nascita</t>
+  </si>
+  <si>
+    <t>11411024</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal padre con atto pubblico di consenso della madre, di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
     <t>11412010</t>
   </si>
   <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dalla madre di bimbo riconosciuto prima della nascita da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11412020 </t>
+    <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dalla madre di bimbo riconosciuto prima della nascita da parte di entrambi i genitori</t>
+  </si>
+  <si>
+    <t>11412020</t>
   </si>
   <si>
     <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dalla madre di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
-    <t xml:space="preserve">11413020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichiarazione di filiazione fuori del matrimonio nei termini di legge resa da entrambi i genitori di bimbo riconosciuto dalla madre prima della nascita </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11414010 </t>
-  </si>
-  <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa da procuratore speciale, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11414020 </t>
-  </si>
-  <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa da procuratore speciale, di bimbo riconosciuto da parte della madre prima della nascita</t>
+    <t>11413020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichiarazione di filiazione fuori del matrimonio nei termini di legge resa dal padre con presenza madre di bimbo riconosciuto dalla madre prima della nascita </t>
+  </si>
+  <si>
+    <t>11414010</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore del padre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+  </si>
+  <si>
+    <t>11414020</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore del padre, di bimbo riconosciuto da parte della madre prima della nascita</t>
   </si>
   <si>
     <t>11415010</t>
@@ -536,13 +662,31 @@
     <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
   </si>
   <si>
-    <t xml:space="preserve">11415020 </t>
-  </si>
-  <si>
-    <t>Dichiarazione di filiaizone fuori del matrimonio nei termini di legge resa dall'ostetrica o da sanitario o da altra persona che ha assistito al parto, di bimbo che è stato riconosciuto dalla madre prima della nascita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11421010 </t>
+    <t>11415020</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiiazione fuori del matrimonio nei termini di legge resa dall'ostetrica o da sanitario o da altra persona che ha assistito al parto, di bimbo che e' stato riconosciuto dalla madre prima della nascita</t>
+  </si>
+  <si>
+    <t>11416020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichiarazione di filiazione fuori del matrimonio nei termini di legge resa dalla madre con presenza padre di bimbo riconosciuto dalla madre prima della nascita </t>
+  </si>
+  <si>
+    <t>11417010</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa da procuratore speciale della madre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+  </si>
+  <si>
+    <t>11417020</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore della madre, di bimbo riconosciuto da parte della madre prima della nascita</t>
+  </si>
+  <si>
+    <t>11421010</t>
   </si>
   <si>
     <t>Dichiarazione tardiva di filiazione fuori del matrimonio,  resa dal padre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
@@ -554,13 +698,13 @@
     <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal padre mediante atto pubblico di consenso della madre, di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
-    <t xml:space="preserve">11422010 </t>
+    <t>11422010</t>
   </si>
   <si>
     <t>Dichiarazione tardiva, di filiazione fuori del matrimonio, resa dalla madre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
   </si>
   <si>
-    <t xml:space="preserve">11422020 </t>
+    <t>11422020</t>
   </si>
   <si>
     <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dalla madre di bimbo riconosciuto dalla madre prima della nascita</t>
@@ -569,175 +713,223 @@
     <t>11423020</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa da entrambi i genitori di bimbo riconosciuto dalla madre prima della nascita</t>
+    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal padre con presenza madre di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
     <t>11424020</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal procuratore speciale di bimbo riconosciuto dalla madre prima della nascita </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11425010 </t>
+    <t xml:space="preserve">Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal procuratore del padre di bimbo riconosciuto dalla madre prima della nascita </t>
+  </si>
+  <si>
+    <t>11425010</t>
   </si>
   <si>
     <t xml:space="preserve">Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto da parte di entrambi i genitori prima della nascita </t>
   </si>
   <si>
-    <t xml:space="preserve">11425020 </t>
+    <t>11425020</t>
   </si>
   <si>
     <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
+    <t>11426020</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall madre con presenza padre di bimbo riconosciuto dalla madre prima della nascita</t>
+  </si>
+  <si>
+    <t>11427020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal procuratore della madre di bimbo riconosciuto dalla madre prima della nascita </t>
+  </si>
+  <si>
     <t>11999999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (dichiarazioni nascita)</t>
+    <t>Caso d'uso di servizio (dichiarazioni nascita)</t>
   </si>
   <si>
     <t>12211312</t>
   </si>
   <si>
-    <t>RICONOSCIMENTO PATERNO DI NASCITURO GIA' RICONOSCIUTO DALLA MADRE</t>
+    <t>Riconoscimento paterno di nascituro gia' riconosciuto dalla madre</t>
   </si>
   <si>
     <t>12212300</t>
   </si>
   <si>
-    <t>RICONOSCIMENTO MATERNO DI NASCITURO</t>
+    <t>Riconoscimento materno di nascituro</t>
   </si>
   <si>
     <t>12214300</t>
   </si>
   <si>
-    <t>RICONOSCIMENTO DI NASCITURO DA PARTE DI ENTRAMBI I GENITORI</t>
+    <t>Riconoscimento di nascituro da parte del padre con presenza della madre</t>
   </si>
   <si>
     <t>12216300</t>
   </si>
   <si>
-    <t>Riconoscimento di nascituro da parte di entrambi i genitori	Nascita	Riconoscimento	Rico_016</t>
+    <t>Riconoscimento di nascituro da parte della madre con presenza del padre</t>
   </si>
   <si>
     <t>12221122</t>
   </si>
   <si>
-    <t>RICONOSCIMENTO PATERNO DI FIGLIO ULTRASEDICENNE GIA' RICONOSCIUTO DALLA MADRE</t>
+    <t>Riconoscimento paterno di figlio ultraquattordicenne gia' riconosciuto dalla madre</t>
   </si>
   <si>
     <t>12221123</t>
   </si>
   <si>
-    <t>RICONOSCIMENTO PATERNO DI FIGLIO DI IGNOTI</t>
+    <t>Riconoscimento paterno di figlio di ignoti ultra14enne</t>
+  </si>
+  <si>
+    <t>12221203</t>
+  </si>
+  <si>
+    <t>Riconoscimento paterno di figlio di ignoti infra14enne</t>
   </si>
   <si>
     <t>12221212</t>
   </si>
   <si>
-    <t>RICONOSCIMENTO PATERNO DI FIGLIO INFRASEDICENNE GIA' RICONOSCIUTO DALLA MADRE</t>
+    <t>Riconoscimento paterno di figlio infraquattordicenne gia' riconosciuto dalla madre</t>
+  </si>
+  <si>
+    <t>12221422</t>
+  </si>
+  <si>
+    <t>Riconoscimento paterno di figlio maggiorenne gia' riconosciuto dalla madre</t>
   </si>
   <si>
     <t>12222121</t>
   </si>
   <si>
-    <t>Riconoscimento materno di figlio ultraSEDICENNE già riconsciuto dal padre</t>
+    <t>Riconoscimento materno di figlio ultraquattordicenne gia' riconsciuto dal padre</t>
   </si>
   <si>
     <t>12222123</t>
   </si>
   <si>
-    <t xml:space="preserve">Riconscimento materno di figlio di ignoti ultraSEDICENNE </t>
+    <t>Riconoscimento materno di figlio di ignoti ultraquattordicenne</t>
   </si>
   <si>
     <t>12222203</t>
   </si>
   <si>
-    <t>RICONOSCIMENTO MATERNO DI FIGLIO DI IGNOTI INFRASEDICENNE</t>
+    <t>Riconoscimento materno di figlio di ignoti infraquattordicenne</t>
   </si>
   <si>
     <t>12222231</t>
   </si>
   <si>
-    <t>RICONOSCIMENTO MATERNO DI FIGLIO INFRASEDICENNE GIA' RICONOSCIUTO DAL PADRE</t>
+    <t>Riconoscimento materno di figlio infraquattordicenne gia' riconosciuto dal padre</t>
   </si>
   <si>
     <t>12224123</t>
   </si>
   <si>
-    <t>RICONOSCIMENTO DI FIGLIO DI IGNOTI ULTRASEDICENNE DA PARTE DI ENTRAMBI I GENITORI</t>
+    <t>Riconoscimento di figlio di ignoti ultraquattordicenne da parte del padre con presenza della madre</t>
   </si>
   <si>
     <t>12224203</t>
   </si>
   <si>
-    <t>RICONOSCIMENTO DI FIGLIO DI IGNOTI INFRASEDICENNE DA PARTE DI ENTRAMBI I GENITORI</t>
+    <t>Riconoscimento di figlio di ignoti infraquattordicenne da parte del padre con presenza madre</t>
+  </si>
+  <si>
+    <t>12226123</t>
+  </si>
+  <si>
+    <t>Riconoscimento di figlio di ignoti ultraquattordicenne da parte della madre con presenza padre</t>
+  </si>
+  <si>
+    <t>12226203</t>
+  </si>
+  <si>
+    <t>Riconoscimento di figlio di ignoti infraquattordicenne da parte della madre con presenza padre</t>
   </si>
   <si>
     <t>12323100</t>
   </si>
   <si>
-    <t>ASSENSO AL RICONOSCIMENTO DA PARTE DEL FIGLIO ULTRASEDICENNE</t>
+    <t>Assenso al riconoscimento da parte del figlio ultraquattordicenne</t>
   </si>
   <si>
     <t>12421200</t>
   </si>
   <si>
-    <t>CONSENSO PATERNO AL RICONOSCIMENTO MATERNO DEL FIGLIO INFRASEDICENNE</t>
+    <t>Consenso paterno al riconoscimento materno del figlio infraquattordicenne</t>
   </si>
   <si>
     <t>12422200</t>
   </si>
   <si>
-    <t>Consenso materno al riconoscimento paterno del figlio infraSEDICENNE</t>
+    <t>Consenso materno al riconoscimento paterno del figlio infraquattordicenne</t>
+  </si>
+  <si>
+    <t>12999999</t>
+  </si>
+  <si>
+    <t>Caso d'uso di servizio (riconoscimenti)</t>
   </si>
   <si>
     <t>1311</t>
   </si>
   <si>
-    <t>Trascrizione di atto di nascita avvenuta all’estero su richiesta dell’autorità diplomatica o consolare</t>
+    <t>Trascrizione di atto di nascita avvenuta all'estero su richiesta dell'autorita' diplomatica o consolare</t>
   </si>
   <si>
     <t>1312</t>
   </si>
   <si>
-    <t>TRASCRIZIONE DI ATTO DI NASCITA AVVENUTA ALL ESTERO SU RICHIESTA DI CHI HA INTERESSE ALLA TRASCRIZIONE</t>
+    <t>Trascrizione di atto di nascita avvenuta all estero su richiesta di chi ha interesse alla trascrizione</t>
   </si>
   <si>
     <t>1313</t>
   </si>
   <si>
-    <t>Trascrizione dichiarazione di nascita avvenuta durante un viaggio in mare _aereo_treno</t>
+    <t>Trascrizione dichiarazione di nascita avvenuta durante un viaggio in mare, aereo, treno</t>
   </si>
   <si>
     <t>1314</t>
   </si>
   <si>
-    <t>TRASCRIZIONE ATTO DI NASCITA resa alla DIREZIONE SANITARIA</t>
+    <t>Trascrizione atto di nascita resa alla direzione sanitaria</t>
   </si>
   <si>
     <t>1321</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di paternità o maternità richiesta dall’interessato</t>
+    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di maternita' richiesta dall'interessato</t>
   </si>
   <si>
     <t>1322</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di paternità o maternità su richiesta dell’autorità diplomatica o consolare</t>
+    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di paternita' richiesta dall'interessato</t>
   </si>
   <si>
     <t>1323</t>
   </si>
   <si>
-    <t>Trascrizione richiesta dall’interessato della sentenza straniera di disconoscimento di paternità</t>
+    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di paternita' o maternita' su richiesta dell'autorita' diplomatica o consolare</t>
   </si>
   <si>
     <t>1324</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza straniera di disconoscimento di paternità su richiesta dell’autorità diplomatica o consolare</t>
+    <t>Trascrizione richiesta dall'interessato della sentenza straniera di disconoscimento di paternita'</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>Trascrizione della sentenza straniera di disconoscimento di paternita' su richiesta dell'autorita' diplomatica o consolare</t>
   </si>
   <si>
     <t>1331</t>
@@ -779,7 +971,7 @@
     <t>1351</t>
   </si>
   <si>
-    <t>TRASCRIZIONE PROVVEDIMENTO STRANIERO DI ADOZIONE richiesta da un privato</t>
+    <t>Trascrizione provvedimento straniero di adozione richiesta da un privato</t>
   </si>
   <si>
     <t>1352</t>
@@ -791,49 +983,88 @@
     <t>1353</t>
   </si>
   <si>
-    <t>TRASCRIZIONE DI PROVVEDIMENTO STRANIERO ADOZIONE DI MINORENNE O MAGGIORENNE IN CASI PARTICOLARI RICHIESTA DA UN PRIVATO</t>
+    <t>Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta da un privato</t>
   </si>
   <si>
     <t>1354</t>
   </si>
   <si>
-    <t>TRASCRIZIONE DI PROVVEDIMENTO STRANIERO ADOZIONE DI MINORENNE O MAGGIORENNE IN CASI PARTICOLARI RICHIESTA DALL'AUTORITA' DIPL O CONSOL PRIVATO</t>
+    <t>Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta dall'autorita' diplomatica o consolare</t>
   </si>
   <si>
     <t>1361</t>
   </si>
   <si>
-    <t>FORMAZIONE DELL'ATTO DI NASCITA SU AUTORIZZAZIONE TRIBUNALE IN CASO DI OMESSA DENUNCIA</t>
+    <t>Formazione dell'atto di nascita su autorizzazione tribunale in caso di omessa denuncia</t>
   </si>
   <si>
     <t>1362</t>
   </si>
   <si>
-    <t>Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome</t>
+    <t>Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di parte</t>
   </si>
   <si>
     <t>1363</t>
   </si>
   <si>
-    <t xml:space="preserve">Scelta del cognome del figlio maggiorenne a seguito di accertamento o riconoscimento della paternità successivamente al riconoscimento materno </t>
+    <t>Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di ufficio</t>
   </si>
   <si>
     <t>1364</t>
   </si>
   <si>
+    <t xml:space="preserve">Scelta del cognome del figlio maggiorenne a seguito di accertamento o riconoscimento della paternita' successivamente al riconoscimento materno </t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
     <t>Trascrizione della comunicazione scritta trasmessa dal direttore dell'istituto che accoglie un minore abbandonato</t>
   </si>
   <si>
-    <t>1365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori </t>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di parte</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di ufficio</t>
   </si>
   <si>
     <t>1399</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (trascrizioni nascita)</t>
+    <t>Caso d'uso di servizio (trascrizioni nascita)</t>
+  </si>
+  <si>
+    <t>14400000</t>
+  </si>
+  <si>
+    <t>Caso d'uso di servizio annotazione (comunicazione da altri comuni)</t>
+  </si>
+  <si>
+    <t>14500000</t>
+  </si>
+  <si>
+    <t>Caso d'uso di servizio  annotazione (comunicazione da altre amministrazioni)</t>
+  </si>
+  <si>
+    <t>14630000</t>
+  </si>
+  <si>
+    <t>Annotazione per rettifica</t>
+  </si>
+  <si>
+    <t>14640000</t>
+  </si>
+  <si>
+    <t>Annotazione per errore materiale</t>
+  </si>
+  <si>
+    <t>20000000</t>
   </si>
   <si>
     <t>2101</t>
@@ -860,22 +1091,10 @@
     <t>Decesso relativo a cadavere rinvenuto non identificato</t>
   </si>
   <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>Richiesta trascrizione atto di morte all estero richiesto da privati	Morte	Trascrizione (atto)	Morte_006</t>
-  </si>
-  <si>
-    <t>2113</t>
-  </si>
-  <si>
-    <t>Richiesta trascrizione atto di morte all estero richiesto da pubblica autorità	Morte	Trascrizione (atto)	Morte_007</t>
-  </si>
-  <si>
     <t>2199</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (dichiarazioni di morte)</t>
+    <t>Caso d'uso di servizio (dichiarazioni di morte)</t>
   </si>
   <si>
     <t>2211</t>
@@ -887,13 +1106,13 @@
     <t>2212</t>
   </si>
   <si>
-    <t>Richiesta trascrizione atto di morte all'estero richiesto da privati</t>
+    <t>Richiesta trascrizione atto di morte all'estero richiesto da privati con istanza scritta</t>
   </si>
   <si>
     <t>2213</t>
   </si>
   <si>
-    <t>Richiesta trascrizione atto di morte all'estero richiesto da pubblica autorità</t>
+    <t>Richiesta trascrizione atto di morte all'estero richiesto da pubblica autorita'</t>
   </si>
   <si>
     <t>2221</t>
@@ -905,7 +1124,7 @@
     <t>2222</t>
   </si>
   <si>
-    <t>Trascrizioni di sentenze estera di morte presunta o scomparsa o assenza richiesta da pubblica autorità</t>
+    <t>Trascrizioni di sentenze estera di morte presunta o scomparsa o assenza richiesta da pubblica autorita'</t>
   </si>
   <si>
     <t>2223</t>
@@ -917,13 +1136,31 @@
     <t>2224</t>
   </si>
   <si>
-    <t>Trascrizioni di sentenze di accertamento morte già dichiarata presunta</t>
+    <t>Trascrizioni di sentenze di accertamento morte gia' dichiarata presunta</t>
   </si>
   <si>
     <t>2299</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (trascrizioni di morte)</t>
+    <t>Caso d'uso di servizio (trascrizioni di morte)</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2320</t>
+  </si>
+  <si>
+    <t>Caso d'uso di servizio annotazione (comunicazione da altre amministrazioni)</t>
+  </si>
+  <si>
+    <t>2341</t>
+  </si>
+  <si>
+    <t>2342</t>
+  </si>
+  <si>
+    <t>30000000</t>
   </si>
   <si>
     <t>311111</t>
@@ -935,7 +1172,7 @@
     <t>311121</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile nella casa comunale con Riconoscimento di uno o più figli</t>
+    <t>Matrimonio con Rito Civile nella casa comunale con riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>311211</t>
@@ -953,55 +1190,55 @@
     <t>311221</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile fuori dalla casa comunale con Riconoscimento di uno o più figli</t>
+    <t>Matrimonio con Rito Civile fuori dalla casa comunale con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>311222</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile fuori dalla casa comunale in Imminente Pericolo di Vita con Riconoscimento di uno o più figli</t>
+    <t>Matrimonio con Rito Civile fuori dalla casa comunale in Imminente Pericolo di Vita con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>312111</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con Delega di altro Comune nella casa comunale</t>
+    <t>Matrimonio con Rito Civile con delega di altro Comune nella casa comunale</t>
   </si>
   <si>
     <t>312121</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con Delega di altro Comune nella casa comunale con Riconoscimento di uno o più figli</t>
+    <t>Matrimonio con Rito Civile con Delega di altro Comune nella casa comunale con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>312211</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale</t>
+    <t>Matrimonio con Rito Civile con delega di altro Comune fuori dalla casa comunale</t>
   </si>
   <si>
     <t>312212</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con Delega di altro fuori dalla casa comunale in Imminente Pericolo di Vita</t>
+    <t>Matrimonio con Rito Civile con delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita</t>
   </si>
   <si>
     <t>312221</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale con Riconoscimento di uno o più figli</t>
+    <t>Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>312222</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita con Riconoscimento di uno o più figli</t>
+    <t>Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>319999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (riti civili)</t>
+    <t>Caso d'uso di servizio (matrimoni con rito civile)</t>
   </si>
   <si>
     <t>321311</t>
@@ -1013,7 +1250,7 @@
     <t>321321</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Religioso Cattolico con Riconoscimento di uno o più figli</t>
+    <t>Matrimonio con Rito Religioso Cattolico con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>321411</t>
@@ -1025,37 +1262,37 @@
     <t>321421</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Religioso Acattolico con Riconoscimento di uno o più figli</t>
+    <t>Matrimonio con Rito Religioso Acattolico con riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>329999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (riti religiosi)</t>
+    <t>Caso d'uso di servizio (matrimoni con rito religioso)</t>
   </si>
   <si>
     <t>331000</t>
   </si>
   <si>
-    <t xml:space="preserve">Trascrizione matrimoni dall'estero - Richiesta di trascrizione da parte dell'interessato       </t>
+    <t xml:space="preserve">Trascrizione matrimoni dall'estero - richiesta di trascrizione da parte dell'interessato       </t>
   </si>
   <si>
     <t>332000</t>
   </si>
   <si>
-    <t>Trascrizione matrimoni dall'estero - Richiesta di trascrizione da parte del Consolato/Ambasciata</t>
+    <t>Trascrizione matrimoni dall'estero - richiesta di trascrizione da parte del Consolato/Ambasciata</t>
   </si>
   <si>
     <t>333000</t>
   </si>
   <si>
-    <t>Trascrizione sentenze di Tribunali stranieri - Richiesta di trascrizione da parte del Consolato/Ambasciata</t>
+    <t>Trascrizione sentenze di Tribunali stranieri - richiesta di trascrizione da parte del Consolato/Ambasciata</t>
   </si>
   <si>
     <t>334000</t>
   </si>
   <si>
-    <t xml:space="preserve">Trascrizione sentenze di Tribunali stranieri - Richiesta di trascrizione da parte dell'interessato       </t>
+    <t xml:space="preserve">Trascrizione sentenze di Tribunali stranieri - richiesta di trascrizione da parte dell'interessato       </t>
   </si>
   <si>
     <t>335003</t>
@@ -1067,7 +1304,7 @@
     <t>339999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (trascrizioni matrimonio)</t>
+    <t>Caso d'uso di servizio (trascrizioni matrimonio)</t>
   </si>
   <si>
     <t>341000</t>
@@ -1097,13 +1334,13 @@
     <t>345000</t>
   </si>
   <si>
-    <t>Trascrizione della convenzione di negoziazione assistita ai sensi dell’art.6 Decreto-legge n.132/2014 convertito con Legge 10.11.2014 n.162</t>
+    <t>Trascrizione della convenzione di negoziazione assistita ai sensi dell'art.6 Decreto-legge n.132/2014 convertito con Legge 10.11.2014 n.162</t>
   </si>
   <si>
     <t>346000</t>
   </si>
   <si>
-    <t>Trascrizione delle sentenze di deliberazione, da parte della Corte d’Appello, delle sentenze di nullità del matrimonio pronunciate dai Tribunali Ecclesiastici</t>
+    <t>Trascrizione delle sentenze di deliberazione, da parte della Corte d'Appello, delle sentenze di nullita' del matrimonio pronunciate dai Tribunali Ecclesiastici</t>
   </si>
   <si>
     <t>347000</t>
@@ -1115,7 +1352,7 @@
     <t>349999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (separazioni e divorzi)</t>
+    <t>Caso d'uso di servizio (separazioni e divorzi)</t>
   </si>
   <si>
     <t>350000</t>
@@ -1127,91 +1364,106 @@
     <t>359999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (riconciliazioni)</t>
+    <t>Caso d'uso di servizio (riconciliazioni)</t>
+  </si>
+  <si>
+    <t>366999</t>
+  </si>
+  <si>
+    <t>367999</t>
+  </si>
+  <si>
+    <t>368699</t>
+  </si>
+  <si>
+    <t>368799</t>
+  </si>
+  <si>
+    <t>40000000</t>
   </si>
   <si>
     <t>411111</t>
   </si>
   <si>
-    <t>Unione Civile nella casa comunale</t>
+    <t>Unione civile nella casa comunale</t>
   </si>
   <si>
     <t>411211</t>
   </si>
   <si>
-    <t>Unione Civile fuori dalla casa comunale</t>
+    <t>Unione civile fuori dalla casa comunale</t>
   </si>
   <si>
     <t>411212</t>
   </si>
   <si>
-    <t>Unione Civile fuori dalla casa comunale in Imminente Pericolo di Vita</t>
+    <t>Unione civile fuori dalla casa comunale in imminente pericolo di vita</t>
   </si>
   <si>
     <t>412111</t>
   </si>
   <si>
-    <t>Unione Civile con Delega di altro Comune nella casa comunale</t>
+    <t>Unione civile con delega di altro Comune nella casa comunale</t>
   </si>
   <si>
     <t>412211</t>
   </si>
   <si>
-    <t>Unione Civile con Delega di altro Comune fuori dalla casa comunale</t>
+    <t>Unione civile con delega di altro Comune fuori dalla casa comunale</t>
   </si>
   <si>
     <t>412212</t>
   </si>
   <si>
-    <t>Unione Civile con Delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita</t>
+    <t>Unione civile con delega di altro Comune fuori dalla casa comunale in imminente pericolo di vita</t>
   </si>
   <si>
     <t>419999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (unioni civili)</t>
+    <t>Caso d'uso di servizio (unioni civili)</t>
   </si>
   <si>
     <t>431000</t>
   </si>
   <si>
-    <t xml:space="preserve">Trascrizione Unione Civile dall'estero - Richiesta di trascrizione da parte dell'interessato       </t>
+    <t xml:space="preserve">Trascrizione unione civile dall'estero - richiesta di trascrizione da parte dell'interessato       </t>
   </si>
   <si>
     <t>432000</t>
   </si>
   <si>
-    <t>Trascrizione Unione Civile dall'estero - Richiesta di trascrizione da parte del Consolato/Ambasciata</t>
+    <t>Trascrizione unione civile dall'estero - richiesta di trascrizione da parte del Consolato/Ambasciata</t>
   </si>
   <si>
     <t>433000</t>
   </si>
   <si>
-    <t>Trascrizione di Unione Civile di sentenze di Tribunali stranieri - Richiesta di trascrizione da parte del Consolato/Ambasciata</t>
+    <t>Trascrizione di unione civile di sentenze di Tribunali stranieri - richiesta di trascrizione da parte dell'interessato</t>
   </si>
   <si>
     <t>434000</t>
   </si>
   <si>
-    <t>Trascrizione di Unione Civile di sentenze di Tribunali stranieri - Richiesta di trascrizione da parte dell'interessato</t>
+    <t>Trascrizione di unione civile di sentenze di Tribunali stranieri - richiesta di trascrizione da parte del Consolato/Ambasciata</t>
   </si>
   <si>
     <t>439999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (trascrizioni unioni civili)</t>
+    <t>Caso d'uso di servizio (trascrizioni unioni civili)</t>
   </si>
   <si>
     <t>441000</t>
   </si>
   <si>
-    <t>Manifestazione congiunta di volontà di scioglimento dell'unione civile tra persone dello stesso sesso</t>
+    <t>Manifestazione congiunta di volonta' di scioglimento dell'unione civile tra persone dello stesso sesso</t>
   </si>
   <si>
     <t>442000</t>
   </si>
   <si>
-    <t>Manifestazione di volontà di scioglimento dell'unione civile tra persone dello stesso sesso di una sola parte</t>
+    <t>Manifestazione di volonta' di scioglimento dell'unione civile tra persone dello stesso sesso di una sola parte</t>
   </si>
   <si>
     <t>443000</t>
@@ -1235,43 +1487,52 @@
     <t>449999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (scioglimenti)</t>
+    <t>Caso d'uso di servizio (scioglimenti)</t>
+  </si>
+  <si>
+    <t>456999</t>
+  </si>
+  <si>
+    <t>457999</t>
+  </si>
+  <si>
+    <t>458699</t>
+  </si>
+  <si>
+    <t>458799</t>
+  </si>
+  <si>
+    <t>50000000</t>
   </si>
   <si>
     <t>51101</t>
   </si>
   <si>
-    <t>straniero o apolide, del quale il padre o la madre
-o uno dei ascendenti in linea retta di secondo grado sono stati cittadini
-per nascita: acquisto mediante
-prestazione del servizio militare per lo Stato italiano</t>
+    <t>Straniero o apolide, del quale il padre o la madre o uno dei ascendenti in linea retta di secondo grado sono stati cittadini per nascita: acquisto mediante prestazione del servizio militare per lo Stato italiano</t>
   </si>
   <si>
     <t>51102</t>
   </si>
   <si>
-    <t>straniero o dall'apolide, del quale il padre o la madre o uno degli
-ascendenti in linea retta di secondo grado sono stati cittadini per
-nascita, il quale, al raggiungimento della maggiore età, risiede
-legalmente da almeno due anni nel territorio della Repubblica</t>
+    <t>Straniero o dall'apolide, del quale il padre o la madre o uno degli ascendenti in linea retta di secondo grado sono stati cittadini per nascita, il quale, al raggiungimento della maggiore eta', risiede legalmente da almeno due anni nel territorio della Repubblica</t>
   </si>
   <si>
     <t>51103</t>
   </si>
   <si>
-    <t xml:space="preserve">straniero nato in Italia che vi abbia risieduto legalmente senza interruzioni fino alla maggiore età </t>
+    <t xml:space="preserve">Straniero nato in Italia che vi abbia risieduto legalmente senza interruzioni fino alla maggiore eta' </t>
   </si>
   <si>
     <t>51104</t>
   </si>
   <si>
-    <t>straniero riconosciuto durante la maggiore età da cittadino italiano</t>
+    <t>Straniero riconosciuto durante la maggiore eta' da cittadino italiano</t>
   </si>
   <si>
     <t>51105</t>
   </si>
   <si>
-    <t>acquisto automatico di cittadina straniera che si sposa con cittadino italiano fino al 27 aprile 1983</t>
+    <t>Acquisto automatico di cittadina straniera che si sposa con cittadino italiano fino al 27 aprile 1983</t>
   </si>
   <si>
     <t>51106</t>
@@ -1289,19 +1550,19 @@
     <t>51108</t>
   </si>
   <si>
-    <t>straniero o dell apolide, del quale il padre o la madre</t>
+    <t>Straniero o dell'apolide, del quale il padre o la madre o uno degli ascendenti in linea retta di secondo grado sono stati cittadini per nascita: acquisto assunzione di pubblico impiego alle dipendenze dello Stato</t>
   </si>
   <si>
     <t>51201</t>
   </si>
   <si>
-    <t>rinuncia del maggiorenne che aveva acquistato la cittadinanza per convivenza con il genitore art. 14</t>
+    <t>Rinuncia del maggiorenne che aveva acquistato la cittadinanza per convivenza con il genitore art. 14</t>
   </si>
   <si>
     <t>51202</t>
   </si>
   <si>
-    <t>revoca dell'adozione per il fatto dell'adottante, rinuncia espressa cittadinanza entro un anno dalla revoca adozione</t>
+    <t>Revoca dell'adozione per il fatto dell'adottante, rinuncia espressa cittadinanza entro un anno dalla revoca adozione</t>
   </si>
   <si>
     <t>51301</t>
@@ -1313,68 +1574,48 @@
     <t>51302</t>
   </si>
   <si>
-    <t>Dichiarazione fatta da chi, avendo perduto la cittadinanza italiana,
-intende riacquistarla per l'assunzione di pubblico impiego alle
-dipendenze dello Stato italiano</t>
+    <t>Dichiarazione fatta da chi, avendo perduto la cittadinanza italiana, intende riacquistarla per l'assunzione di pubblico impiego alle dipendenze dello Stato italiano</t>
   </si>
   <si>
     <t>51303</t>
   </si>
   <si>
-    <t>riacquisto per residenza in Italia</t>
+    <t>Riacquisto per residenza in Italia</t>
   </si>
   <si>
     <t>51304</t>
   </si>
   <si>
-    <t>riacquisto per abbandono dei servigi allo stato estero</t>
+    <t>Riacquisto per abbandono dei servigi allo stato estero</t>
   </si>
   <si>
     <t>51305</t>
   </si>
   <si>
-    <t>rinuncia al riacquisto della cittadinaza entro un anno dalla richiesta di residenza</t>
+    <t>Rinuncia al riacquisto della cittadinaza entro un anno dalla richiesta di residenza</t>
   </si>
   <si>
     <t>51306</t>
   </si>
   <si>
-    <t xml:space="preserve"> donna che, avendo perduto, anteriormente al 1°
-gennaio 1948, la cittadinanza italiana per effetto di matrimonio con uno
-straniero o di mutamento di cittadinanza da parte del marito, intende
-riacquistarla</t>
+    <t>Donna che, avendo perduto, anteriormente al 1 gennaio 1948, la cittadinanza italiana per effetto di matrimonio con uno straniero o di mutamento di cittadinanza da parte del marito, intende riacquistarla</t>
   </si>
   <si>
     <t>51999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (dichiarazioni di cittadinanza)</t>
+    <t>Caso d'uso di servizio (dichiarazioni di cittadinanza)</t>
   </si>
   <si>
     <t>52111</t>
   </si>
   <si>
-    <t>acquisto alla nascita per iure soli: figlio di genitori che non trasmettono la cittadinanza italiana</t>
+    <t>Acquisto alla nascita per iure soli: figlio di genitori che non trasmettono la cittadinanza italiana</t>
   </si>
   <si>
     <t>52112</t>
   </si>
   <si>
-    <t>"straniero o apolide, del quale il padre o la madre
-o uno dei ascendenti in linea retta di secondo grado sono stati cittadini
-per nascita: acquisto mediante
-prestazione del servizio militare per lo Stato italiano"</t>
-  </si>
-  <si>
-    <t>52113</t>
-  </si>
-  <si>
-    <t>straniero o dell'apolide, del quale il padre o la madre
-o uno degli ascendenti in linea retta di secondo grado sono stati cittadini
-per nascita: acquisto assunzione di
-pubblico impiego alle dipendenze dello Stato</t>
-  </si>
-  <si>
     <t>52114</t>
   </si>
   <si>
@@ -1390,19 +1631,31 @@
     <t>52141</t>
   </si>
   <si>
-    <t>figlio minore riconosciuto da cittadino italiano</t>
+    <t>Figlio minore riconosciuto da cittadino italiano</t>
   </si>
   <si>
     <t>52142</t>
   </si>
   <si>
-    <t>adozione di minore in casi particolari art. 44 l. 184/1983 o adozione nazionale art 25 l. 184/1983 e art. 35 comma 4</t>
+    <t>Adozione di minore in casi particolari art. 44 l. 184/1983 o adozione nazionale art 25 l. 184/1983 e art. 35 comma 4</t>
   </si>
   <si>
     <t>52143</t>
   </si>
   <si>
-    <t>figlio minore di chi ha acquista la cittadinanza italiana</t>
+    <t>Figlio minore di chi ha acquista la cittadinanza italiana</t>
+  </si>
+  <si>
+    <t>52151</t>
+  </si>
+  <si>
+    <t>Straniero coniugato o unito civilmente con cittadino italiano</t>
+  </si>
+  <si>
+    <t>52152</t>
+  </si>
+  <si>
+    <t>Straniero che acquista per naturalizzazione</t>
   </si>
   <si>
     <t>52153</t>
@@ -1420,7 +1673,7 @@
     <t>52211</t>
   </si>
   <si>
-    <t>reso servigi ad uno Stato estero</t>
+    <t>Reso servigi ad uno Stato estero</t>
   </si>
   <si>
     <t>52221</t>
@@ -1432,55 +1685,49 @@
     <t>52241</t>
   </si>
   <si>
-    <t>disconoscimento da parte del genitore italiano</t>
+    <t>Disconoscimento da parte del genitore italiano</t>
   </si>
   <si>
     <t>52242</t>
   </si>
   <si>
-    <t>perdita per naturalizzazione straniera</t>
+    <t>Perdita per naturalizzazione straniera</t>
   </si>
   <si>
     <t>52251</t>
   </si>
   <si>
-    <t>revoca: cittadinanza italiana acquisita ai sensi degli articoli  4,
-comma 2, 5 e 9, e' revocata in caso  di  condanna  definitiva  per  i
-reati previsti dall'articolo 407, comma 2, lettera  a),  n.  4),  del
-codice di procedura penale, nonche' per i reati di cui agli  articoli
-270-ter  e  270-quinqu</t>
+    <t>Revoca: cittadinanza italiana acquisita ai sensi degli articoli  4, comma 2, 5 e 9, e' revocata in caso  di  condanna  definitiva  per  i reati previsti dall'articolo 407, comma 2, lettera  a),  n.  4),  del codice di procedura penale</t>
   </si>
   <si>
     <t>52261</t>
   </si>
   <si>
-    <t>rinuncia espressa</t>
+    <t>Rinuncia espressa</t>
   </si>
   <si>
     <t>52271</t>
   </si>
   <si>
-    <t>revoca dell'adozione per il fatto dell'adottatto</t>
+    <t>Revoca dell'adozione per il fatto dell'adottato</t>
   </si>
   <si>
     <t>52311</t>
   </si>
   <si>
-    <t>esito dell'accertamento per chi avendo perduto la cittadinanza intende riacquistarla mediante prestazione del servizio militare per lo stato italiano</t>
+    <t>Esito dell'accertamento per chi avendo perduto la cittadinanza intende riacquistarla mediante prestazione del servizio militare per lo stato italiano</t>
   </si>
   <si>
     <t>52312</t>
   </si>
   <si>
-    <t>esito dell'accertamento per chi, avendo perduto la cittadinanza italiana,
-intende riacquistarla per l'assunzione di pubblico impiego alle
-dipendenze dello Stato italiano</t>
+    <t>Esito dell'accertamento per chi, avendo perduto la cittadinanza italiana, intende riacquistarla per l'assunzione di pubblico impiego alle dipendenze dello Stato italiano</t>
   </si>
   <si>
     <t>52321</t>
   </si>
   <si>
-    <t>riacquisto per residenza in Italia esito dell'acertamento</t>
+    <t>Riacquisto per residenza in Italia esito dell'acertamento</t>
   </si>
   <si>
     <t>52322</t>
@@ -1495,19 +1742,37 @@
     <t>52331</t>
   </si>
   <si>
-    <t>riacquisto per residenza in Italia, dichiarazione resa in Consolato italiano</t>
+    <t>Riacquisto per residenza in Italia, dichiarazione resa in Consolato italiano</t>
   </si>
   <si>
     <t>52341</t>
   </si>
   <si>
-    <t>riacquisto per un anno di residenza in Italia</t>
+    <t>Riacquisto per un anno di residenza in Italia</t>
+  </si>
+  <si>
+    <t>52481</t>
+  </si>
+  <si>
+    <t>Cittadino straniero discendente da avo italiano iure sanguinis</t>
   </si>
   <si>
     <t>52999</t>
   </si>
   <si>
-    <t>Caso d uso di servizio (trascrizioni di cittadinanza)</t>
+    <t>Caso d'uso di servizio (trascrizioni di cittadinanza)</t>
+  </si>
+  <si>
+    <t>53599</t>
+  </si>
+  <si>
+    <t>53699</t>
+  </si>
+  <si>
+    <t>53719</t>
+  </si>
+  <si>
+    <t>53729</t>
   </si>
 </sst>
 </file>
@@ -1566,14 +1831,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F247"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="187.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="229.2734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
@@ -4508,7 +4773,7 @@
         <v>350</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>351</v>
+        <v>6</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>7</v>
@@ -4522,10 +4787,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>7</v>
@@ -4539,10 +4804,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>7</v>
@@ -4556,10 +4821,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>7</v>
@@ -4573,10 +4838,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>7</v>
@@ -4590,10 +4855,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>7</v>
@@ -4607,10 +4872,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>7</v>
@@ -4624,10 +4889,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>7</v>
@@ -4641,10 +4906,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>7</v>
@@ -4658,10 +4923,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>7</v>
@@ -4675,10 +4940,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>7</v>
@@ -4692,10 +4957,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>7</v>
@@ -4709,10 +4974,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>7</v>
@@ -4726,10 +4991,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>7</v>
@@ -4743,10 +5008,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>7</v>
@@ -4760,10 +5025,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>7</v>
@@ -4777,10 +5042,10 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>7</v>
@@ -4794,10 +5059,10 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>7</v>
@@ -4811,10 +5076,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>387</v>
+        <v>6</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>7</v>
@@ -4828,10 +5093,10 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>7</v>
@@ -4845,10 +5110,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>7</v>
@@ -4862,10 +5127,10 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>7</v>
@@ -4879,10 +5144,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>7</v>
@@ -4896,10 +5161,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>7</v>
@@ -4913,10 +5178,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>7</v>
@@ -4930,10 +5195,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>7</v>
@@ -4947,10 +5212,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>7</v>
@@ -4964,10 +5229,10 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>7</v>
@@ -4981,10 +5246,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>7</v>
@@ -4998,10 +5263,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>7</v>
@@ -5015,10 +5280,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>7</v>
@@ -5032,10 +5297,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>7</v>
@@ -5049,10 +5314,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>7</v>
@@ -5066,10 +5331,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>7</v>
@@ -5083,10 +5348,10 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>7</v>
@@ -5100,10 +5365,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>7</v>
@@ -5117,10 +5382,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>7</v>
@@ -5134,10 +5399,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>7</v>
@@ -5151,10 +5416,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>7</v>
@@ -5168,10 +5433,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>7</v>
@@ -5185,10 +5450,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>7</v>
@@ -5202,10 +5467,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>7</v>
@@ -5219,10 +5484,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>7</v>
@@ -5236,10 +5501,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>7</v>
@@ -5253,10 +5518,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>7</v>
@@ -5270,10 +5535,10 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>7</v>
@@ -5287,10 +5552,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>7</v>
@@ -5304,10 +5569,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>7</v>
@@ -5321,10 +5586,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>7</v>
@@ -5338,10 +5603,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>7</v>
@@ -5355,10 +5620,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>7</v>
@@ -5372,10 +5637,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>7</v>
@@ -5389,10 +5654,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
@@ -5406,10 +5671,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
@@ -5423,10 +5688,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>455</v>
+        <v>379</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>7</v>
@@ -5440,10 +5705,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>457</v>
+        <v>347</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>7</v>
@@ -5457,10 +5722,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>459</v>
+        <v>349</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
@@ -5474,10 +5739,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>461</v>
+        <v>6</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>7</v>
@@ -5491,10 +5756,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>7</v>
@@ -5508,10 +5773,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>7</v>
@@ -5525,10 +5790,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
@@ -5542,10 +5807,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>7</v>
@@ -5559,10 +5824,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>7</v>
@@ -5576,10 +5841,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>7</v>
@@ -5593,10 +5858,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>7</v>
@@ -5610,10 +5875,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>7</v>
@@ -5627,10 +5892,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>7</v>
@@ -5644,10 +5909,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>7</v>
@@ -5661,10 +5926,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>7</v>
@@ -5678,10 +5943,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>7</v>
@@ -5695,10 +5960,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>7</v>
@@ -5712,10 +5977,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>7</v>
@@ -5729,10 +5994,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>7</v>
@@ -5746,10 +6011,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>7</v>
@@ -5763,18 +6028,1004 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="C247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E247" s="2" t="s">
+      <c r="B248" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -179,13 +179,13 @@
     <t>11121100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC di filiazione di bimbo nato morto</t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre all'USC di bimbo nato morto</t>
   </si>
   <si>
     <t>11121200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11122000</t>
@@ -1727,7 +1727,7 @@
     <t>52321</t>
   </si>
   <si>
-    <t>Riacquisto per residenza in Italia esito dell'acertamento</t>
+    <t>Riacquisto per residenza in Italia esito dell'accertamento</t>
   </si>
   <si>
     <t>52322</t>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="591">
   <si>
     <t>ID</t>
   </si>
@@ -1322,7 +1322,7 @@
     <t>343000</t>
   </si>
   <si>
-    <t>Conferma o mancata conferma di accordo di separazione o divorzio</t>
+    <t>Conferma di accordo di separazione o divorzio</t>
   </si>
   <si>
     <t>344000</t>
@@ -1347,6 +1347,18 @@
   </si>
   <si>
     <t>Trascrizione provvedimenti esteri in materia matrimoniale.</t>
+  </si>
+  <si>
+    <t>348000</t>
+  </si>
+  <si>
+    <t>Mancata conferma di separazione o divorzio</t>
+  </si>
+  <si>
+    <t>2000-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>9999-12-12 00:00:00.0</t>
   </si>
   <si>
     <t>349999</t>
@@ -1831,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5626,10 +5638,10 @@
         <v>446</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>7</v>
+        <v>447</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>8</v>
+        <v>448</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>9</v>
@@ -5637,10 +5649,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>7</v>
@@ -5654,10 +5666,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
@@ -5671,10 +5683,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>343</v>
+        <v>454</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
@@ -5688,10 +5700,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>7</v>
@@ -5705,10 +5717,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>7</v>
@@ -5722,10 +5734,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
@@ -5739,10 +5751,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>6</v>
+        <v>349</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>7</v>
@@ -5756,10 +5768,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>7</v>
@@ -5773,10 +5785,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>7</v>
@@ -5790,10 +5802,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
@@ -5807,10 +5819,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>7</v>
@@ -5824,10 +5836,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>7</v>
@@ -5841,10 +5853,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>7</v>
@@ -5858,10 +5870,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>7</v>
@@ -5875,10 +5887,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>7</v>
@@ -5892,10 +5904,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>7</v>
@@ -5909,10 +5921,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>7</v>
@@ -5926,10 +5938,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>7</v>
@@ -5943,10 +5955,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>7</v>
@@ -5960,10 +5972,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>7</v>
@@ -5977,10 +5989,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>7</v>
@@ -5994,10 +6006,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>7</v>
@@ -6011,10 +6023,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>7</v>
@@ -6028,10 +6040,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>7</v>
@@ -6045,10 +6057,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>7</v>
@@ -6062,10 +6074,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>343</v>
+        <v>495</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>7</v>
@@ -6079,10 +6091,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>7</v>
@@ -6096,10 +6108,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>7</v>
@@ -6113,10 +6125,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>7</v>
@@ -6130,10 +6142,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>6</v>
+        <v>349</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>7</v>
@@ -6147,10 +6159,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>498</v>
+        <v>6</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>7</v>
@@ -6164,10 +6176,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>7</v>
@@ -6181,10 +6193,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>7</v>
@@ -6198,10 +6210,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>7</v>
@@ -6215,10 +6227,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>7</v>
@@ -6232,10 +6244,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>7</v>
@@ -6249,10 +6261,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>7</v>
@@ -6266,10 +6278,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>7</v>
@@ -6283,10 +6295,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>7</v>
@@ -6300,10 +6312,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>7</v>
@@ -6317,10 +6329,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>7</v>
@@ -6334,10 +6346,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>7</v>
@@ -6351,10 +6363,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>7</v>
@@ -6368,10 +6380,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>7</v>
@@ -6385,10 +6397,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>7</v>
@@ -6402,10 +6414,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>7</v>
@@ -6419,10 +6431,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>7</v>
@@ -6436,10 +6448,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>7</v>
@@ -6453,10 +6465,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>7</v>
@@ -6470,10 +6482,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>7</v>
@@ -6487,10 +6499,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>7</v>
@@ -6504,10 +6516,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>7</v>
@@ -6521,10 +6533,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>7</v>
@@ -6538,10 +6550,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>7</v>
@@ -6555,10 +6567,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>7</v>
@@ -6572,10 +6584,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>7</v>
@@ -6589,10 +6601,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>7</v>
@@ -6606,10 +6618,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>7</v>
@@ -6623,10 +6635,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>7</v>
@@ -6640,10 +6652,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>7</v>
@@ -6657,10 +6669,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>7</v>
@@ -6674,10 +6686,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>7</v>
@@ -6691,10 +6703,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>7</v>
@@ -6708,10 +6720,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>557</v>
+        <v>520</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>7</v>
@@ -6725,10 +6737,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>7</v>
@@ -6742,10 +6754,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>7</v>
@@ -6759,10 +6771,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>7</v>
@@ -6776,10 +6788,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>7</v>
@@ -6793,10 +6805,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>7</v>
@@ -6810,10 +6822,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>7</v>
@@ -6827,10 +6839,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>7</v>
@@ -6844,10 +6856,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>7</v>
@@ -6861,10 +6873,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>7</v>
@@ -6878,10 +6890,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>7</v>
@@ -6895,10 +6907,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>7</v>
@@ -6912,10 +6924,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>7</v>
@@ -6929,10 +6941,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>7</v>
@@ -6946,10 +6958,10 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>7</v>
@@ -6963,10 +6975,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>343</v>
+        <v>586</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>7</v>
@@ -6980,10 +6992,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>7</v>
@@ -6997,10 +7009,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>7</v>
@@ -7014,18 +7026,35 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C305" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E305" s="2" t="s">
+      <c r="C306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="587">
   <si>
     <t>ID</t>
   </si>
@@ -1247,22 +1247,10 @@
     <t>Matrimonio con Rito Religioso Cattolico</t>
   </si>
   <si>
-    <t>321321</t>
-  </si>
-  <si>
-    <t>Matrimonio con Rito Religioso Cattolico con Riconoscimento di uno o piu' figli</t>
-  </si>
-  <si>
     <t>321411</t>
   </si>
   <si>
     <t>Matrimonio con Rito Religioso Acattolico</t>
-  </si>
-  <si>
-    <t>321421</t>
-  </si>
-  <si>
-    <t>Matrimonio con Rito Religioso Acattolico con riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>329999</t>
@@ -1843,7 +1831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5604,10 +5592,10 @@
         <v>442</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>7</v>
+        <v>443</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>8</v>
+        <v>444</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>9</v>
@@ -5615,10 +5603,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>7</v>
@@ -5632,16 +5620,16 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>447</v>
+        <v>7</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>448</v>
+        <v>8</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>9</v>
@@ -5669,7 +5657,7 @@
         <v>451</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>452</v>
+        <v>343</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
@@ -5683,10 +5671,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>454</v>
+        <v>379</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
@@ -5700,10 +5688,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>7</v>
@@ -5717,10 +5705,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>7</v>
@@ -5734,10 +5722,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>347</v>
+        <v>6</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
@@ -5751,10 +5739,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>7</v>
@@ -5768,10 +5756,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>7</v>
@@ -6060,7 +6048,7 @@
         <v>492</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>493</v>
+        <v>343</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>7</v>
@@ -6074,10 +6062,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>495</v>
+        <v>379</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>7</v>
@@ -6091,10 +6079,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>7</v>
@@ -6108,10 +6096,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>7</v>
@@ -6125,10 +6113,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>347</v>
+        <v>6</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>7</v>
@@ -6142,10 +6130,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>7</v>
@@ -6159,10 +6147,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>7</v>
@@ -6451,7 +6439,7 @@
         <v>533</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>7</v>
@@ -6465,10 +6453,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>7</v>
@@ -6482,10 +6470,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>7</v>
@@ -6499,10 +6487,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>7</v>
@@ -6516,7 +6504,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>504</v>
@@ -6533,10 +6521,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>7</v>
@@ -6550,10 +6538,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>7</v>
@@ -6672,7 +6660,7 @@
         <v>554</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>7</v>
@@ -6686,10 +6674,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>557</v>
+        <v>516</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>7</v>
@@ -6703,10 +6691,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>7</v>
@@ -6720,10 +6708,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>7</v>
@@ -6842,7 +6830,7 @@
         <v>572</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>7</v>
@@ -6856,10 +6844,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>7</v>
@@ -6873,7 +6861,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>528</v>
@@ -6890,10 +6878,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>7</v>
@@ -6907,10 +6895,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>7</v>
@@ -6961,7 +6949,7 @@
         <v>583</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>584</v>
+        <v>343</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>7</v>
@@ -6975,10 +6963,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>586</v>
+        <v>379</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>7</v>
@@ -6992,10 +6980,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>7</v>
@@ -7009,10 +6997,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>7</v>
@@ -7021,40 +7009,6 @@
         <v>8</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E306" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="597">
   <si>
     <t>ID</t>
   </si>
@@ -47,709 +47,709 @@
     <t>11111000</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione entro i 10 giorni - resa dal padre </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre </t>
   </si>
   <si>
     <t>11111100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal padre - bambino nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre - bambino nato morto</t>
   </si>
   <si>
     <t>11111200</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione nel matrimonio resa dal padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11112000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dalla madre</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre</t>
   </si>
   <si>
     <t>11112100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dalla madre - bambino nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre - bambino nato morto</t>
   </si>
   <si>
     <t>11112200</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dalla madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione nel matrimonio resa dalla madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11113000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal padre con presenza madre</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre con presenza madre</t>
   </si>
   <si>
     <t>11113100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal padre con presenza madre - bambino nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre con presenza madre - bambino nato morto</t>
   </si>
   <si>
     <t>11113200</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal padre con presenza madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione nel matrimonio resa dal padre con presenza madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11114000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal procuratore del padre</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore del padre</t>
   </si>
   <si>
     <t>11114100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal procuratore del padre - bambino nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore del padre - bambino nato morto</t>
   </si>
   <si>
     <t>11114200</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal procuratore del padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione nel matrimonio resa dal procuratore del padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11115000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dall'ostetrica o sanitario o altra persona che ha assistito al parto</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dall'ostetrica o sanitario o altra persona che ha assistito al parto</t>
   </si>
   <si>
     <t>11115100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dall'ostetrica o sanitario o altra persona che ha assistito al parto - bambino nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dall'ostetrica o sanitario o altra persona che ha assistito al parto - bambino nato morto</t>
   </si>
   <si>
     <t>11115200</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione nel matrimonio resa da sanitario/ostetrica all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione nel matrimonio resa da sanitario/ostetrica all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11116000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dalla madre con presenza padre</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre con presenza padre</t>
   </si>
   <si>
     <t>11116100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dalla madre con presenza padre - bambino nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre con presenza padre - bambino nato morto</t>
   </si>
   <si>
     <t>11116200</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11117000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal procuratore della madre</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore della madre</t>
   </si>
   <si>
     <t>11117100</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal procuratore della madre - bambino nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore della madre - bambino nato morto</t>
   </si>
   <si>
     <t>11117200</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal procuratore della madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione nel matrimonio resa dal procuratore della madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11121000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal padre</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal padre</t>
   </si>
   <si>
     <t>11121100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre all'USC di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dal padre all'USC di bimbo nato morto</t>
   </si>
   <si>
     <t>11121200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dal padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11122000</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dalla madre </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dalla madre </t>
   </si>
   <si>
     <t>11122100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre all'USC di filiazione di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre all'USC di filiazione di bimbo nato morto</t>
   </si>
   <si>
     <t>11122200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11123000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal padre con presenza madre</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal padre con presenza madre</t>
   </si>
   <si>
     <t>11123100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre con presenza madre all'USC di filiazione di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dal padre con presenza madre all'USC di filiazione di bimbo nato morto</t>
   </si>
   <si>
     <t>11123200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre con presenza madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dal padre con presenza madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11124000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal procuratore del padre</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal procuratore del padre</t>
   </si>
   <si>
     <t>11124100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore del padre all'USC di filiazione di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore del padre all'USC di filiazione di bimbo nato morto</t>
   </si>
   <si>
     <t>11124200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore del padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore del padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11125000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto</t>
   </si>
   <si>
     <t>11125100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC da ostetrica o altro sanitario di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa all'USC da ostetrica o altro sanitario di bimbo nato morto</t>
   </si>
   <si>
     <t>11125200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa da sanitario all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa da sanitario all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11126000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dalla madre con presenza padre</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dalla madre con presenza padre</t>
   </si>
   <si>
     <t>11126100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di filiazione di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di filiazione di bimbo nato morto</t>
   </si>
   <si>
     <t>11126200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11127000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal procuratore della madre</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal procuratore della madre</t>
   </si>
   <si>
     <t>11127100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore della madre all'USC di filiazione di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore della madre all'USC di filiazione di bimbo nato morto</t>
   </si>
   <si>
     <t>11127200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore della madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore della madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11211001</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11211004</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione entro i 10 giorni - resa dal padre con il consenso della madre reso mediante atto notarile - filiazione fuori dal matrimonio </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre con il consenso della madre reso mediante atto notarile - filiazione fuori dal matrimonio </t>
   </si>
   <si>
     <t>11211101</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato morto - filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato morto - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11211104</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con consenso materno espresso con atto notarile di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con consenso materno espresso con atto notarile di bimbo nato morto</t>
   </si>
   <si>
     <t>11211201</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato vivo e morto prima della dichiarazione di nascita - filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato vivo e morto prima della dichiarazione di nascita - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11212002</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dalla madre senza il consenso del padre - filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre senza il consenso del padre - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11212003</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dalla madre con il consenso del padre reso mediante atto notarile - filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre con il consenso del padre reso mediante atto notarile - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11212102</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre senza il consenso paterno di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre senza il consenso paterno di bimbo nato morto</t>
   </si>
   <si>
     <t>11212103</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con consenso paterno espresso con atto notarile di bimbo nato morto </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con consenso paterno espresso con atto notarile di bimbo nato morto </t>
   </si>
   <si>
     <t>11212202</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre senza consenso paterno di bimbo nato vivo ma morto prima della denuncia di nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre senza consenso paterno di bimbo nato vivo ma morto prima della denuncia di nascita </t>
   </si>
   <si>
     <t>11212203</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con consenso paterno espresso con atto notarile di bimbo nato vivo ma morto prima della denuncia di nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con consenso paterno espresso con atto notarile di bimbo nato vivo ma morto prima della denuncia di nascita </t>
   </si>
   <si>
     <t>11213000</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre</t>
   </si>
   <si>
     <t>11213100</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato morto</t>
   </si>
   <si>
     <t>11213200</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
   </si>
   <si>
     <t>11214000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal procuratore del padre - Filiazione fuori dal matrimonio con consenso della madre a essere nominata</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore del padre - Filiazione fuori dal matrimonio con consenso della madre a essere nominata</t>
   </si>
   <si>
     <t>11214100</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato morto</t>
   </si>
   <si>
     <t>11214200</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
   </si>
   <si>
     <t>11216000</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre</t>
   </si>
   <si>
     <t>11216100</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato morto</t>
   </si>
   <si>
     <t>11216200</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
   </si>
   <si>
     <t>11217000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni - resa dal procuratore della madre - Filiazione fuori dal matrimonio con consenso del padre ad essere nominato</t>
+    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore della madre - Filiazione fuori dal matrimonio con consenso del padre ad essere nominato</t>
   </si>
   <si>
     <t>11217100</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato morto</t>
   </si>
   <si>
     <t>11217200</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
   </si>
   <si>
     <t>11221001</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre senza il consenso materno </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre senza il consenso materno </t>
   </si>
   <si>
     <t>11221004</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con il consenso materno espresso con atto notarile </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con il consenso materno espresso con atto notarile </t>
   </si>
   <si>
     <t>11221101</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre senza consenso materno di bimbo nato morto </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre senza consenso materno di bimbo nato morto </t>
   </si>
   <si>
     <t>11221104</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con consenso materno espresso con atto notarile di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con consenso materno espresso con atto notarile di bimbo nato morto</t>
   </si>
   <si>
     <t>11221201</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre senza consenso materno di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre senza consenso materno di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11221204</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con consenso materno espresso con atto notarile di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con consenso materno espresso con atto notarile di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11222002</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre senza il consenso paterno</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre senza il consenso paterno</t>
   </si>
   <si>
     <t>11222003</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il consenso paterno espresso con atto notarile</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il consenso paterno espresso con atto notarile</t>
   </si>
   <si>
     <t>11222102</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre senza il consenso paterno di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre senza il consenso paterno di bimbo nato morto</t>
   </si>
   <si>
     <t>11222103</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il consenso paterno di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il consenso paterno di bimbo nato morto</t>
   </si>
   <si>
     <t>11222202</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre senza il consenso paterno di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre senza il consenso paterno di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11222203</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il consenso paterno di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il consenso paterno di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11223000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre</t>
   </si>
   <si>
     <t>11223100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato morto</t>
   </si>
   <si>
     <t>11223200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11224000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre</t>
   </si>
   <si>
     <t>11224100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato morto</t>
   </si>
   <si>
     <t>11224200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato vivo ma morto prima della dichiarazione</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato vivo ma morto prima della dichiarazione</t>
   </si>
   <si>
     <t>11226000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre</t>
   </si>
   <si>
     <t>11226100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato morto</t>
   </si>
   <si>
     <t>11226200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11227000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre con consenso del padre ad essere nominato</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre con consenso del padre ad essere nominato</t>
   </si>
   <si>
     <t>11227100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato morto</t>
   </si>
   <si>
     <t>11227200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>11315000</t>
   </si>
   <si>
-    <t>Dichiarazione resa da ostetrica o altro - fuori matrimonio</t>
+    <t>Dichiarazione nascita: Dichiarazione resa da ostetrica o altro - fuori matrimonio</t>
   </si>
   <si>
     <t>11315100</t>
   </si>
   <si>
-    <t>Dichiarazione nei temini di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione nei temini di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato morto</t>
   </si>
   <si>
     <t>11315200</t>
   </si>
   <si>
-    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo ma morto prima della dichiarazione</t>
+    <t>Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo ma morto prima della dichiarazione</t>
   </si>
   <si>
     <t>11325000</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo</t>
   </si>
   <si>
     <t>11325100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato morto</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato morto</t>
   </si>
   <si>
     <t>11325200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo ma morto prima della dichiarazione</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo ma morto prima della dichiarazione</t>
   </si>
   <si>
     <t>11411010</t>
   </si>
   <si>
-    <t>Dichiarazione fuori del matrimonio nei termini di legge resa dal padre, di bimbo riconosciuto da entrambi i genitori prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione fuori del matrimonio nei termini di legge resa dal padre, di bimbo riconosciuto da entrambi i genitori prima della nascita</t>
   </si>
   <si>
     <t>11411024</t>
   </si>
   <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal padre con atto pubblico di consenso della madre, di bimbo riconosciuto dalla madre prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal padre con atto pubblico di consenso della madre, di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
     <t>11412010</t>
   </si>
   <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dalla madre di bimbo riconosciuto prima della nascita da parte di entrambi i genitori</t>
+    <t>Dichiarazione nascita: Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dalla madre di bimbo riconosciuto prima della nascita da parte di entrambi i genitori</t>
   </si>
   <si>
     <t>11412020</t>
   </si>
   <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dalla madre di bimbo riconosciuto dalla madre prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dalla madre di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
     <t>11413020</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione di filiazione fuori del matrimonio nei termini di legge resa dal padre con presenza madre di bimbo riconosciuto dalla madre prima della nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione di filiazione fuori del matrimonio nei termini di legge resa dal padre con presenza madre di bimbo riconosciuto dalla madre prima della nascita </t>
   </si>
   <si>
     <t>11414010</t>
   </si>
   <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore del padre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore del padre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
   </si>
   <si>
     <t>11414020</t>
   </si>
   <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore del padre, di bimbo riconosciuto da parte della madre prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore del padre, di bimbo riconosciuto da parte della madre prima della nascita</t>
   </si>
   <si>
     <t>11415010</t>
   </si>
   <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
   </si>
   <si>
     <t>11415020</t>
   </si>
   <si>
-    <t>Dichiarazione di filiiazione fuori del matrimonio nei termini di legge resa dall'ostetrica o da sanitario o da altra persona che ha assistito al parto, di bimbo che e' stato riconosciuto dalla madre prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione di filiiazione fuori del matrimonio nei termini di legge resa dall'ostetrica o da sanitario o da altra persona che ha assistito al parto, di bimbo che e' stato riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
     <t>11416020</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione di filiazione fuori del matrimonio nei termini di legge resa dalla madre con presenza padre di bimbo riconosciuto dalla madre prima della nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione di filiazione fuori del matrimonio nei termini di legge resa dalla madre con presenza padre di bimbo riconosciuto dalla madre prima della nascita </t>
   </si>
   <si>
     <t>11417010</t>
   </si>
   <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa da procuratore speciale della madre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa da procuratore speciale della madre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
   </si>
   <si>
     <t>11417020</t>
   </si>
   <si>
-    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore della madre, di bimbo riconosciuto da parte della madre prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore della madre, di bimbo riconosciuto da parte della madre prima della nascita</t>
   </si>
   <si>
     <t>11421010</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori del matrimonio,  resa dal padre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori del matrimonio,  resa dal padre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
   </si>
   <si>
     <t>11421024</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal padre mediante atto pubblico di consenso della madre, di bimbo riconosciuto dalla madre prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal padre mediante atto pubblico di consenso della madre, di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
     <t>11422010</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva, di filiazione fuori del matrimonio, resa dalla madre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva, di filiazione fuori del matrimonio, resa dalla madre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
   </si>
   <si>
     <t>11422020</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dalla madre di bimbo riconosciuto dalla madre prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori del matrimonio, resa dalla madre di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
     <t>11423020</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal padre con presenza madre di bimbo riconosciuto dalla madre prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal padre con presenza madre di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
     <t>11424020</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal procuratore del padre di bimbo riconosciuto dalla madre prima della nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal procuratore del padre di bimbo riconosciuto dalla madre prima della nascita </t>
   </si>
   <si>
     <t>11425010</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto da parte di entrambi i genitori prima della nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto da parte di entrambi i genitori prima della nascita </t>
   </si>
   <si>
     <t>11425020</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto dalla madre prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
     <t>11426020</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall madre con presenza padre di bimbo riconosciuto dalla madre prima della nascita</t>
+    <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall madre con presenza padre di bimbo riconosciuto dalla madre prima della nascita</t>
   </si>
   <si>
     <t>11427020</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal procuratore della madre di bimbo riconosciuto dalla madre prima della nascita </t>
+    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal procuratore della madre di bimbo riconosciuto dalla madre prima della nascita </t>
   </si>
   <si>
     <t>11999999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (dichiarazioni nascita)</t>
+    <t>Caso d'uso di servizio dichiarazioni nascita</t>
   </si>
   <si>
     <t>12211312</t>
@@ -857,199 +857,199 @@
     <t>12323100</t>
   </si>
   <si>
-    <t>Assenso al riconoscimento da parte del figlio ultraquattordicenne</t>
+    <t>Riconoscimento: Assenso al riconoscimento da parte del figlio ultraquattordicenne</t>
   </si>
   <si>
     <t>12421200</t>
   </si>
   <si>
-    <t>Consenso paterno al riconoscimento materno del figlio infraquattordicenne</t>
+    <t>Riconoscimento: Consenso paterno al riconoscimento materno del figlio infraquattordicenne</t>
   </si>
   <si>
     <t>12422200</t>
   </si>
   <si>
-    <t>Consenso materno al riconoscimento paterno del figlio infraquattordicenne</t>
+    <t>Riconoscimento: Consenso materno al riconoscimento paterno del figlio infraquattordicenne</t>
   </si>
   <si>
     <t>12999999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (riconoscimenti)</t>
+    <t>Caso d'uso di servizio riconoscimenti</t>
   </si>
   <si>
     <t>1311</t>
   </si>
   <si>
-    <t>Trascrizione di atto di nascita avvenuta all'estero su richiesta dell'autorita' diplomatica o consolare</t>
+    <t>Trascrizione di nascita: Trascrizione di atto di nascita avvenuta all'estero su richiesta dell'autorita' diplomatica o consolare</t>
   </si>
   <si>
     <t>1312</t>
   </si>
   <si>
-    <t>Trascrizione di atto di nascita avvenuta all estero su richiesta di chi ha interesse alla trascrizione</t>
+    <t>Trascrizione di nascita: Trascrizione di atto di nascita avvenuta all estero su richiesta di chi ha interesse alla trascrizione</t>
   </si>
   <si>
     <t>1313</t>
   </si>
   <si>
-    <t>Trascrizione dichiarazione di nascita avvenuta durante un viaggio in mare, aereo, treno</t>
+    <t>Trascrizione di nascita: Trascrizione dichiarazione di nascita avvenuta durante un viaggio in mare, aereo, treno</t>
   </si>
   <si>
     <t>1314</t>
   </si>
   <si>
-    <t>Trascrizione atto di nascita resa alla direzione sanitaria</t>
+    <t>Trascrizione di nascita: Trascrizione atto di nascita resa alla direzione sanitaria</t>
   </si>
   <si>
     <t>1321</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di maternita' richiesta dall'interessato</t>
+    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di dichiarazione giudiziale di maternita' richiesta dall'interessato</t>
   </si>
   <si>
     <t>1322</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di paternita' richiesta dall'interessato</t>
+    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di dichiarazione giudiziale di paternita' richiesta dall'interessato</t>
   </si>
   <si>
     <t>1323</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di paternita' o maternita' su richiesta dell'autorita' diplomatica o consolare</t>
+    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di dichiarazione giudiziale di paternita' o maternita' su richiesta dell'autorita' diplomatica o consolare</t>
   </si>
   <si>
     <t>1324</t>
   </si>
   <si>
-    <t>Trascrizione richiesta dall'interessato della sentenza straniera di disconoscimento di paternita'</t>
+    <t>Trascrizione di nascita: Trascrizione richiesta dall'interessato della sentenza straniera di disconoscimento di paternita'</t>
   </si>
   <si>
     <t>1325</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza straniera di disconoscimento di paternita' su richiesta dell'autorita' diplomatica o consolare</t>
+    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di disconoscimento di paternita' su richiesta dell'autorita' diplomatica o consolare</t>
   </si>
   <si>
     <t>1331</t>
   </si>
   <si>
-    <t>Trascrizione del decreto prefettizio di cambiamento del nome e cognome</t>
+    <t>Trascrizione di nascita: Trascrizione del decreto prefettizio di cambiamento del nome e cognome</t>
   </si>
   <si>
     <t>1341</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza di adozione di minore emessa dal Tribunale dei minori</t>
+    <t>Trascrizione di nascita: Trascrizione della sentenza di adozione di minore emessa dal Tribunale dei minori</t>
   </si>
   <si>
     <t>1342</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza di adozione di minore in casi particolari emessa dal Tribunale dei minori</t>
+    <t>Trascrizione di nascita: Trascrizione della sentenza di adozione di minore in casi particolari emessa dal Tribunale dei minori</t>
   </si>
   <si>
     <t>1343</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza di revoca della adozione di minore in casi particolari</t>
+    <t>Trascrizione di nascita: Trascrizione della sentenza di revoca della adozione di minore in casi particolari</t>
   </si>
   <si>
     <t>1344</t>
   </si>
   <si>
-    <t>Trascrizione della sentenza di adozione di maggiorenne emessa dal Tribunale</t>
+    <t>Trascrizione di nascita: Trascrizione della sentenza di adozione di maggiorenne emessa dal Tribunale</t>
   </si>
   <si>
     <t>1345</t>
   </si>
   <si>
-    <t xml:space="preserve">Trascrizione della sentenza di revoca della adozione di maggiorenne </t>
+    <t xml:space="preserve">Trascrizione di nascita: Trascrizione della sentenza di revoca della adozione di maggiorenne </t>
   </si>
   <si>
     <t>1351</t>
   </si>
   <si>
-    <t>Trascrizione provvedimento straniero di adozione richiesta da un privato</t>
+    <t>Trascrizione di nascita: Trascrizione provvedimento straniero di adozione richiesta da un privato</t>
   </si>
   <si>
     <t>1352</t>
   </si>
   <si>
-    <t>Trascrizione del provvedimento straniero di adozione di minore riconosciuto valido dal Tribunale dei minori (convenzione Aja 29.5.1993)</t>
+    <t>Trascrizione di nascita: Trascrizione del provvedimento straniero di adozione di minore riconosciuto valido dal Tribunale dei minori convenzione Aja 29.5.1993</t>
   </si>
   <si>
     <t>1353</t>
   </si>
   <si>
-    <t>Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta da un privato</t>
+    <t>Trascrizione di nascita: Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta da un privato</t>
   </si>
   <si>
     <t>1354</t>
   </si>
   <si>
-    <t>Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta dall'autorita' diplomatica o consolare</t>
+    <t>Trascrizione di nascita: Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta dall'autorita' diplomatica o consolare</t>
   </si>
   <si>
     <t>1361</t>
   </si>
   <si>
-    <t>Formazione dell'atto di nascita su autorizzazione tribunale in caso di omessa denuncia</t>
+    <t>Trascrizione di nascita: Formazione dell'atto di nascita su autorizzazione tribunale in caso di omessa denuncia</t>
   </si>
   <si>
     <t>1362</t>
   </si>
   <si>
-    <t>Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di parte</t>
+    <t>Trascrizione di nascita: Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di parte</t>
   </si>
   <si>
     <t>1363</t>
   </si>
   <si>
-    <t>Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di ufficio</t>
+    <t>Trascrizione di nascita: Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di ufficio</t>
   </si>
   <si>
     <t>1364</t>
   </si>
   <si>
-    <t xml:space="preserve">Scelta del cognome del figlio maggiorenne a seguito di accertamento o riconoscimento della paternita' successivamente al riconoscimento materno </t>
+    <t xml:space="preserve">Trascrizione di nascita: Scelta del cognome del figlio maggiorenne a seguito di accertamento o riconoscimento della paternita' successivamente al riconoscimento materno </t>
   </si>
   <si>
     <t>1365</t>
   </si>
   <si>
-    <t>Trascrizione della comunicazione scritta trasmessa dal direttore dell'istituto che accoglie un minore abbandonato</t>
+    <t>Trascrizione di nascita: Trascrizione della comunicazione scritta trasmessa dal direttore dell'istituto che accoglie un minore abbandonato</t>
   </si>
   <si>
     <t>1366</t>
   </si>
   <si>
-    <t>Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di parte</t>
+    <t>Trascrizione di nascita: Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di parte</t>
   </si>
   <si>
     <t>1367</t>
   </si>
   <si>
-    <t>Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di ufficio</t>
+    <t>Trascrizione di nascita: Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di ufficio</t>
   </si>
   <si>
     <t>1399</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (trascrizioni nascita)</t>
+    <t>Caso d'uso di servizio trascrizioni nascita</t>
   </si>
   <si>
     <t>14400000</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio annotazione (comunicazione da altri comuni)</t>
+    <t>Caso d'uso di servizio annotazione comunicazione da altri comuni</t>
   </si>
   <si>
     <t>14500000</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio  annotazione (comunicazione da altre amministrazioni)</t>
+    <t>Caso d'uso di servizio  annotazione comunicazione da altre amministrazioni</t>
   </si>
   <si>
     <t>14630000</t>
@@ -1070,79 +1070,79 @@
     <t>2101</t>
   </si>
   <si>
-    <t>Decesso in abitazione o in luogo pubblico</t>
+    <t>Dichiarazione di morte: Decesso in abitazione o in luogo pubblico</t>
   </si>
   <si>
     <t>2102</t>
   </si>
   <si>
-    <t>Decesso in ospedale o casa di cura</t>
+    <t>Dichiarazione di morte: Decesso in ospedale o casa di cura</t>
   </si>
   <si>
     <t>2103</t>
   </si>
   <si>
-    <t>Decesso in caso di morte violenta</t>
+    <t>Dichiarazione di morte: Decesso in caso di morte violenta</t>
   </si>
   <si>
     <t>2104</t>
   </si>
   <si>
-    <t>Decesso relativo a cadavere rinvenuto non identificato</t>
+    <t>Dichiarazione di morte: Decesso relativo a cadavere rinvenuto non identificato</t>
   </si>
   <si>
     <t>2199</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (dichiarazioni di morte)</t>
+    <t>Caso d'uso di servizio dichiarazioni di morte</t>
   </si>
   <si>
     <t>2211</t>
   </si>
   <si>
-    <t>Decesso durante il viaggio in treno o aereo o nave</t>
+    <t>Trascrizione di morte: Decesso durante il viaggio in treno o aereo o nave</t>
   </si>
   <si>
     <t>2212</t>
   </si>
   <si>
-    <t>Richiesta trascrizione atto di morte all'estero richiesto da privati con istanza scritta</t>
+    <t>Trascrizione di morte: Richiesta trascrizione atto di morte all'estero richiesto da privati con istanza scritta</t>
   </si>
   <si>
     <t>2213</t>
   </si>
   <si>
-    <t>Richiesta trascrizione atto di morte all'estero richiesto da pubblica autorita'</t>
+    <t>Trascrizione di morte: Richiesta trascrizione atto di morte all'estero richiesto da pubblica autorita'</t>
   </si>
   <si>
     <t>2221</t>
   </si>
   <si>
-    <t xml:space="preserve">Trascrizioni di sentenza dichiarazione di scomparsa per disastri aerei o a bordo di navi </t>
+    <t xml:space="preserve">Trascrizione di morte: Trascrizioni di sentenza dichiarazione di scomparsa per disastri aerei o a bordo di navi </t>
   </si>
   <si>
     <t>2222</t>
   </si>
   <si>
-    <t>Trascrizioni di sentenze estera di morte presunta o scomparsa o assenza richiesta da pubblica autorita'</t>
+    <t>Trascrizione di morte: Trascrizioni di sentenze estera di morte presunta o scomparsa o assenza richiesta da pubblica autorita'</t>
   </si>
   <si>
     <t>2223</t>
   </si>
   <si>
-    <t>Trascrizioni di sentenze estera di morte presunta o scomparsa o assenza richiesta da privato</t>
+    <t>Trascrizione di morte: Trascrizioni di sentenze estera di morte presunta o scomparsa o assenza richiesta da privato</t>
   </si>
   <si>
     <t>2224</t>
   </si>
   <si>
-    <t>Trascrizioni di sentenze di accertamento morte gia' dichiarata presunta</t>
+    <t>Trascrizione di morte: Trascrizioni di sentenze di accertamento morte gia' dichiarata presunta</t>
   </si>
   <si>
     <t>2299</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (trascrizioni di morte)</t>
+    <t>Caso d'uso di servizio trascrizioni di morte</t>
   </si>
   <si>
     <t>2310</t>
@@ -1151,7 +1151,7 @@
     <t>2320</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio annotazione (comunicazione da altre amministrazioni)</t>
+    <t>Caso d'uso di servizio annotazione comunicazione da altre amministrazioni</t>
   </si>
   <si>
     <t>2341</t>
@@ -1166,103 +1166,103 @@
     <t>311111</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile nella casa comunale</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile nella casa comunale</t>
   </si>
   <si>
     <t>311121</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile nella casa comunale con riconoscimento di uno o piu' figli</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile nella casa comunale con riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>311211</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile fuori dalla casa comunale</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile fuori dalla casa comunale</t>
   </si>
   <si>
     <t>311212</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile fuori dalla casa comunale in Imminente Pericolo di Vita</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile fuori dalla casa comunale in Imminente Pericolo di Vita</t>
   </si>
   <si>
     <t>311221</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile fuori dalla casa comunale con Riconoscimento di uno o piu' figli</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile fuori dalla casa comunale con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>311222</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile fuori dalla casa comunale in Imminente Pericolo di Vita con Riconoscimento di uno o piu' figli</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile fuori dalla casa comunale in Imminente Pericolo di Vita con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>312111</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con delega di altro Comune nella casa comunale</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile con delega di altro Comune nella casa comunale</t>
   </si>
   <si>
     <t>312121</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con Delega di altro Comune nella casa comunale con Riconoscimento di uno o piu' figli</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile con Delega di altro Comune nella casa comunale con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>312211</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con delega di altro Comune fuori dalla casa comunale</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile con delega di altro Comune fuori dalla casa comunale</t>
   </si>
   <si>
     <t>312212</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile con delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita</t>
   </si>
   <si>
     <t>312221</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale con Riconoscimento di uno o piu' figli</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>312222</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita con Riconoscimento di uno o piu' figli</t>
+    <t>Dichiarazione: Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
     <t>319999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (matrimoni con rito civile)</t>
+    <t>Caso d'uso di servizio matrimoni con rito civile</t>
   </si>
   <si>
     <t>321311</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Religioso Cattolico</t>
+    <t>Dichiarazione: Matrimonio con Rito Religioso Cattolico</t>
   </si>
   <si>
     <t>321411</t>
   </si>
   <si>
-    <t>Matrimonio con Rito Religioso Acattolico</t>
+    <t>Dichiarazione: Matrimonio con Rito Religioso Acattolico</t>
   </si>
   <si>
     <t>329999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (matrimoni con rito religioso)</t>
+    <t>Caso d'uso di servizio matrimoni con rito religioso</t>
   </si>
   <si>
     <t>331000</t>
   </si>
   <si>
-    <t xml:space="preserve">Trascrizione matrimoni dall'estero - richiesta di trascrizione da parte dell'interessato       </t>
+    <t>Trascrizione matrimoni dall'estero - richiesta di trascrizione da parte dell'interessato</t>
   </si>
   <si>
     <t>332000</t>
@@ -1280,7 +1280,7 @@
     <t>334000</t>
   </si>
   <si>
-    <t xml:space="preserve">Trascrizione sentenze di Tribunali stranieri - richiesta di trascrizione da parte dell'interessato       </t>
+    <t>Trascrizione sentenze di Tribunali stranieri - richiesta di trascrizione da parte dell'interessato</t>
   </si>
   <si>
     <t>335003</t>
@@ -1292,49 +1292,49 @@
     <t>339999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (trascrizioni matrimonio)</t>
+    <t>Caso d'uso di servizio trascrizioni matrimonio</t>
   </si>
   <si>
     <t>341000</t>
   </si>
   <si>
-    <t xml:space="preserve">Accordo di separazione personale dei coniugi </t>
+    <t xml:space="preserve">Separazioni e divorzi: Accordo di separazione personale dei coniugi </t>
   </si>
   <si>
     <t>342000</t>
   </si>
   <si>
-    <t>Accordo di scioglimento (o di cessazione degli effetti civili) del matrimonio (divorzio)</t>
+    <t>Separazioni e divorzi: Accordo di scioglimento o di cessazione degli effetti civili del matrimonio divorzio</t>
   </si>
   <si>
     <t>343000</t>
   </si>
   <si>
-    <t>Conferma di accordo di separazione o divorzio</t>
+    <t>Separazioni e divorzi: Conferma di accordo di separazione o divorzio</t>
   </si>
   <si>
     <t>344000</t>
   </si>
   <si>
-    <t>Accordo di modifica delle condizioni di separazione o divorzio</t>
+    <t>Separazioni e divorzi: Accordo di modifica delle condizioni di separazione o divorzio</t>
   </si>
   <si>
     <t>345000</t>
   </si>
   <si>
-    <t>Trascrizione della convenzione di negoziazione assistita ai sensi dell'art.6 Decreto-legge n.132/2014 convertito con Legge 10.11.2014 n.162</t>
+    <t>Separazioni e divorzi: Trascrizione della convenzione di negoziazione assistita ai sensi dell'art.6 Decreto-legge n.132/2014 convertito con Legge 10.11.2014 n.162</t>
   </si>
   <si>
     <t>346000</t>
   </si>
   <si>
-    <t>Trascrizione delle sentenze di deliberazione, da parte della Corte d'Appello, delle sentenze di nullita' del matrimonio pronunciate dai Tribunali Ecclesiastici</t>
+    <t>Separazioni e divorzi: Trascrizione delle sentenze di deliberazione, da parte della Corte d'Appello, delle sentenze di nullita' del matrimonio pronunciate dai Tribunali Ecclesiastici</t>
   </si>
   <si>
     <t>347000</t>
   </si>
   <si>
-    <t>Trascrizione provvedimenti esteri in materia matrimoniale.</t>
+    <t>Separazioni e divorzi: Trascrizione provvedimenti esteri in materia matrimoniale.</t>
   </si>
   <si>
     <t>348000</t>
@@ -1352,19 +1352,19 @@
     <t>349999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (separazioni e divorzi)</t>
+    <t>Caso d'uso di servizio separazioni e divorzi</t>
   </si>
   <si>
     <t>350000</t>
   </si>
   <si>
-    <t>Dichiarazione di riconciliazione</t>
+    <t>Riconciliazione: Dichiarazione di riconciliazione</t>
   </si>
   <si>
     <t>359999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (riconciliazioni)</t>
+    <t>Caso d'uso di servizio riconciliazioni</t>
   </si>
   <si>
     <t>366999</t>
@@ -1385,49 +1385,49 @@
     <t>411111</t>
   </si>
   <si>
-    <t>Unione civile nella casa comunale</t>
+    <t>Dichiarazione: Unione civile nella casa comunale</t>
   </si>
   <si>
     <t>411211</t>
   </si>
   <si>
-    <t>Unione civile fuori dalla casa comunale</t>
+    <t>Dichiarazione: Unione civile fuori dalla casa comunale</t>
   </si>
   <si>
     <t>411212</t>
   </si>
   <si>
-    <t>Unione civile fuori dalla casa comunale in imminente pericolo di vita</t>
+    <t>Dichiarazione: Unione civile fuori dalla casa comunale in imminente pericolo di vita</t>
   </si>
   <si>
     <t>412111</t>
   </si>
   <si>
-    <t>Unione civile con delega di altro Comune nella casa comunale</t>
+    <t>Dichiarazione: Unione civile con delega di altro Comune nella casa comunale</t>
   </si>
   <si>
     <t>412211</t>
   </si>
   <si>
-    <t>Unione civile con delega di altro Comune fuori dalla casa comunale</t>
+    <t>Dichiarazione: Unione civile con delega di altro Comune fuori dalla casa comunale</t>
   </si>
   <si>
     <t>412212</t>
   </si>
   <si>
-    <t>Unione civile con delega di altro Comune fuori dalla casa comunale in imminente pericolo di vita</t>
+    <t>Dichiarazione: Unione civile con delega di altro Comune fuori dalla casa comunale in imminente pericolo di vita</t>
   </si>
   <si>
     <t>419999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (unioni civili)</t>
+    <t>Caso d'uso di servizio unioni civili</t>
   </si>
   <si>
     <t>431000</t>
   </si>
   <si>
-    <t xml:space="preserve">Trascrizione unione civile dall'estero - richiesta di trascrizione da parte dell'interessato       </t>
+    <t>Trascrizione unione civile dall'estero - richiesta di trascrizione da parte dell'interessato</t>
   </si>
   <si>
     <t>432000</t>
@@ -1451,7 +1451,7 @@
     <t>439999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (trascrizioni unioni civili)</t>
+    <t>Caso d'uso di servizio trascrizioni unioni civili</t>
   </si>
   <si>
     <t>441000</t>
@@ -1487,7 +1487,7 @@
     <t>449999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (scioglimenti)</t>
+    <t>Caso d'uso di servizio scioglimenti</t>
   </si>
   <si>
     <t>456999</t>
@@ -1508,259 +1508,289 @@
     <t>51101</t>
   </si>
   <si>
-    <t>Straniero o apolide, del quale il padre o la madre o uno dei ascendenti in linea retta di secondo grado sono stati cittadini per nascita: acquisto mediante prestazione del servizio militare per lo Stato italiano</t>
+    <t>Dichiarazione: Straniero o apolide, del quale il padre o la madre o uno dei ascendenti in linea retta di secondo grado sono stati cittadini per nascita: acquisto mediante prestazione del servizio militare per lo Stato italiano</t>
   </si>
   <si>
     <t>51102</t>
   </si>
   <si>
-    <t>Straniero o dall'apolide, del quale il padre o la madre o uno degli ascendenti in linea retta di secondo grado sono stati cittadini per nascita, il quale, al raggiungimento della maggiore eta', risiede legalmente da almeno due anni nel territorio della Repubblica</t>
+    <t>Dichiarazione: Straniero o dall'apolide, del quale il padre o la madre o uno degli ascendenti in linea retta di secondo grado sono stati cittadini per nascita, il quale, al raggiungimento della maggiore eta', risiede legalmente da almeno due anni nel territorio della Repubblica</t>
   </si>
   <si>
     <t>51103</t>
   </si>
   <si>
-    <t xml:space="preserve">Straniero nato in Italia che vi abbia risieduto legalmente senza interruzioni fino alla maggiore eta' </t>
+    <t xml:space="preserve">Dichiarazione: Straniero nato in Italia che vi abbia risieduto legalmente senza interruzioni fino alla maggiore eta' </t>
   </si>
   <si>
     <t>51104</t>
   </si>
   <si>
-    <t>Straniero riconosciuto durante la maggiore eta' da cittadino italiano</t>
+    <t>Dichiarazione: Straniero riconosciuto durante la maggiore eta' da cittadino italiano</t>
   </si>
   <si>
     <t>51105</t>
   </si>
   <si>
-    <t>Acquisto automatico di cittadina straniera che si sposa con cittadino italiano fino al 27 aprile 1983</t>
+    <t>Dichiarazione: Acquisto automatico di cittadina straniera che si sposa con cittadino italiano fino al 27 aprile 1983</t>
   </si>
   <si>
     <t>51106</t>
   </si>
   <si>
-    <t>Prestazione di giuramento a seguito di decreto (abile)</t>
+    <t>Dichiarazione: Prestazione di giuramento a seguito di decreto abile</t>
   </si>
   <si>
     <t>51107</t>
   </si>
   <si>
-    <t>Prestazione di giuramento a seguito di decreto (con impedimenti)</t>
+    <t>Dichiarazione: Prestazione di giuramento a seguito di decreto con impedimenti</t>
   </si>
   <si>
     <t>51108</t>
   </si>
   <si>
-    <t>Straniero o dell'apolide, del quale il padre o la madre o uno degli ascendenti in linea retta di secondo grado sono stati cittadini per nascita: acquisto assunzione di pubblico impiego alle dipendenze dello Stato</t>
+    <t>Dichiarazione: Straniero o dell'apolide, del quale il padre o la madre o uno degli ascendenti in linea retta di secondo grado sono stati cittadini per nascita: acquisto assunzione di pubblico impiego alle dipendenze dello Stato</t>
   </si>
   <si>
     <t>51201</t>
   </si>
   <si>
-    <t>Rinuncia del maggiorenne che aveva acquistato la cittadinanza per convivenza con il genitore art. 14</t>
+    <t>Dichiarazione: Rinuncia del maggiorenne che aveva acquistato la cittadinanza per convivenza con il genitore art. 14</t>
   </si>
   <si>
     <t>51202</t>
   </si>
   <si>
-    <t>Revoca dell'adozione per il fatto dell'adottante, rinuncia espressa cittadinanza entro un anno dalla revoca adozione</t>
+    <t>Dichiarazione: Revoca dell'adozione per il fatto dell'adottante, rinuncia espressa cittadinanza entro un anno dalla revoca adozione</t>
   </si>
   <si>
     <t>51301</t>
   </si>
   <si>
-    <t>Dichiarazione fatta da chi, avendo perduto la cittadinanza italiana,intende riacquistarla mediante prestazione del servizio militare per lo stato italiano</t>
+    <t>Dichiarazione: Dichiarazione fatta da chi, avendo perduto la cittadinanza italiana,intende riacquistarla mediante prestazione del servizio militare per lo stato italiano</t>
   </si>
   <si>
     <t>51302</t>
   </si>
   <si>
-    <t>Dichiarazione fatta da chi, avendo perduto la cittadinanza italiana, intende riacquistarla per l'assunzione di pubblico impiego alle dipendenze dello Stato italiano</t>
+    <t>Dichiarazione: Dichiarazione fatta da chi, avendo perduto la cittadinanza italiana, intende riacquistarla per l'assunzione di pubblico impiego alle dipendenze dello Stato italiano</t>
   </si>
   <si>
     <t>51303</t>
   </si>
   <si>
-    <t>Riacquisto per residenza in Italia</t>
+    <t>Dichiarazione: Riacquisto per residenza in Italia</t>
   </si>
   <si>
     <t>51304</t>
   </si>
   <si>
-    <t>Riacquisto per abbandono dei servigi allo stato estero</t>
+    <t>Dichiarazione: Riacquisto per abbandono dei servigi allo stato estero</t>
   </si>
   <si>
     <t>51305</t>
   </si>
   <si>
-    <t>Rinuncia al riacquisto della cittadinaza entro un anno dalla richiesta di residenza</t>
+    <t>Dichiarazione: Rinuncia al riacquisto della cittadinaza entro un anno dalla richiesta di residenza</t>
   </si>
   <si>
     <t>51306</t>
   </si>
   <si>
-    <t>Donna che, avendo perduto, anteriormente al 1 gennaio 1948, la cittadinanza italiana per effetto di matrimonio con uno straniero o di mutamento di cittadinanza da parte del marito, intende riacquistarla</t>
+    <t>Dichiarazione: Donna che, avendo perduto, anteriormente al 1 gennaio 1948, la cittadinanza italiana per effetto di matrimonio con uno straniero o di mutamento di cittadinanza da parte del marito, intende riacquistarla</t>
   </si>
   <si>
     <t>51999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (dichiarazioni di cittadinanza)</t>
+    <t>Caso d'uso di servizio dichiarazioni di cittadinanza</t>
   </si>
   <si>
     <t>52111</t>
   </si>
   <si>
-    <t>Acquisto alla nascita per iure soli: figlio di genitori che non trasmettono la cittadinanza italiana</t>
+    <t>Trascrizione: Acquisto alla nascita per iure soli: figlio di genitori che non trasmettono la cittadinanza italiana</t>
   </si>
   <si>
     <t>52112</t>
   </si>
   <si>
+    <t>Trascrizione: Straniero o apolide, del quale il padre o la madre o uno dei ascendenti in linea retta di secondo grado sono stati cittadini per nascita: acquisto mediante prestazione del servizio militare per lo Stato italiano</t>
+  </si>
+  <si>
     <t>52114</t>
   </si>
   <si>
+    <t>Trascrizione: Straniero o dell'apolide, del quale il padre o la madre o uno degli ascendenti in linea retta di secondo grado sono stati cittadini per nascita: acquisto assunzione di pubblico impiego alle dipendenze dello Stato</t>
+  </si>
+  <si>
     <t>52121</t>
   </si>
   <si>
+    <t>Trascrizione: Straniero o dall'apolide, del quale il padre o la madre o uno degli ascendenti in linea retta di secondo grado sono stati cittadini per nascita, il quale, al raggiungimento della maggiore eta', risiede legalmente da almeno due anni nel territorio della Repubblica</t>
+  </si>
+  <si>
     <t>52122</t>
   </si>
   <si>
+    <t xml:space="preserve">Trascrizione: Straniero nato in Italia che vi abbia risieduto legalmente senza interruzioni fino alla maggiore eta' </t>
+  </si>
+  <si>
     <t>52123</t>
   </si>
   <si>
+    <t>Trascrizione: Straniero riconosciuto durante la maggiore eta' da cittadino italiano</t>
+  </si>
+  <si>
     <t>52141</t>
   </si>
   <si>
-    <t>Figlio minore riconosciuto da cittadino italiano</t>
+    <t>Trascrizione: Figlio minore riconosciuto da cittadino italiano</t>
   </si>
   <si>
     <t>52142</t>
   </si>
   <si>
-    <t>Adozione di minore in casi particolari art. 44 l. 184/1983 o adozione nazionale art 25 l. 184/1983 e art. 35 comma 4</t>
+    <t>Trascrizione: Adozione di minore in casi particolari art. 44 l. 184/1983 o adozione nazionale art 25 l. 184/1983 e art. 35 comma 4</t>
   </si>
   <si>
     <t>52143</t>
   </si>
   <si>
-    <t>Figlio minore di chi ha acquista la cittadinanza italiana</t>
+    <t>Trascrizione: Figlio minore di chi ha acquista la cittadinanza italiana</t>
   </si>
   <si>
     <t>52151</t>
   </si>
   <si>
-    <t>Straniero coniugato o unito civilmente con cittadino italiano</t>
+    <t>Trascrizione: Straniero coniugato o unito civilmente con cittadino italiano</t>
   </si>
   <si>
     <t>52152</t>
   </si>
   <si>
-    <t>Straniero che acquista per naturalizzazione</t>
+    <t>Trascrizione: Straniero che acquista per naturalizzazione</t>
   </si>
   <si>
     <t>52153</t>
   </si>
   <si>
-    <t>Trascrizione del decreto per matrimonio-unione civile-naturalizzazione-presentazione cittadino</t>
+    <t>Trascrizione: Trascrizione del decreto per matrimonio-unione civile-naturalizzazione-presentazione cittadino</t>
   </si>
   <si>
     <t>52154</t>
   </si>
   <si>
-    <t>Trascrizione del decreto per matrimonio-unione civile-naturalizzazione-da consolato</t>
+    <t>Trascrizione: Trascrizione del decreto per matrimonio-unione civile-naturalizzazione-da consolato</t>
   </si>
   <si>
     <t>52211</t>
   </si>
   <si>
-    <t>Reso servigi ad uno Stato estero</t>
+    <t>Trascrizione: Reso servigi ad uno Stato estero</t>
   </si>
   <si>
     <t>52221</t>
   </si>
   <si>
+    <t>Trascrizione: Rinuncia del maggiorenne che aveva acquistato la cittadinanza per convivenza con il genitore art. 14</t>
+  </si>
+  <si>
     <t>52222</t>
   </si>
   <si>
+    <t>Trascrizione: Revoca dell'adozione per il fatto dell'adottante, rinuncia espressa cittadinanza entro un anno dalla revoca adozione</t>
+  </si>
+  <si>
     <t>52241</t>
   </si>
   <si>
-    <t>Disconoscimento da parte del genitore italiano</t>
+    <t>Trascrizione: Disconoscimento da parte del genitore italiano</t>
   </si>
   <si>
     <t>52242</t>
   </si>
   <si>
-    <t>Perdita per naturalizzazione straniera</t>
+    <t>Trascrizione: Perdita per naturalizzazione straniera</t>
   </si>
   <si>
     <t>52251</t>
   </si>
   <si>
-    <t>Revoca: cittadinanza italiana acquisita ai sensi degli articoli  4, comma 2, 5 e 9, e' revocata in caso  di  condanna  definitiva  per  i reati previsti dall'articolo 407, comma 2, lettera  a),  n.  4),  del codice di procedura penale</t>
+    <t>Trascrizione: Revoca: cittadinanza italiana acquisita ai sensi degli articoli  4, comma 2, 5 e 9, e' revocata in caso  di  condanna  definitiva  per  i reati previsti dall'articolo 407, comma 2, lettera  a,  n.  4,  del codice di procedura penale</t>
   </si>
   <si>
     <t>52261</t>
   </si>
   <si>
-    <t>Rinuncia espressa</t>
+    <t>Trascrizione: Rinuncia espressa</t>
   </si>
   <si>
     <t>52271</t>
   </si>
   <si>
-    <t>Revoca dell'adozione per il fatto dell'adottato</t>
+    <t>Trascrizione: Revoca dell'adozione per il fatto dell'adottato</t>
   </si>
   <si>
     <t>52311</t>
   </si>
   <si>
-    <t>Esito dell'accertamento per chi avendo perduto la cittadinanza intende riacquistarla mediante prestazione del servizio militare per lo stato italiano</t>
+    <t>Trascrizione: Esito dell'accertamento per chi avendo perduto la cittadinanza intende riacquistarla mediante prestazione del servizio militare per lo stato italiano</t>
   </si>
   <si>
     <t>52312</t>
   </si>
   <si>
-    <t>Esito dell'accertamento per chi, avendo perduto la cittadinanza italiana, intende riacquistarla per l'assunzione di pubblico impiego alle dipendenze dello Stato italiano</t>
+    <t>Trascrizione: Esito dell'accertamento per chi, avendo perduto la cittadinanza italiana, intende riacquistarla per l'assunzione di pubblico impiego alle dipendenze dello Stato italiano</t>
   </si>
   <si>
     <t>52321</t>
   </si>
   <si>
-    <t>Riacquisto per residenza in Italia esito dell'accertamento</t>
+    <t>Trascrizione: Riacquisto per residenza in Italia esito dell'accertamento</t>
   </si>
   <si>
     <t>52322</t>
   </si>
   <si>
+    <t>Trascrizione: Riacquisto per abbandono dei servigi allo stato estero</t>
+  </si>
+  <si>
     <t>52323</t>
   </si>
   <si>
+    <t>Trascrizione: Rinuncia al riacquisto della cittadinaza entro un anno dalla richiesta di residenza</t>
+  </si>
+  <si>
     <t>52324</t>
   </si>
   <si>
+    <t>Trascrizione: Donna che, avendo perduto, anteriormente al 1 gennaio 1948, la cittadinanza italiana per effetto di matrimonio con uno straniero o di mutamento di cittadinanza da parte del marito, intende riacquistarla</t>
+  </si>
+  <si>
     <t>52331</t>
   </si>
   <si>
-    <t>Riacquisto per residenza in Italia, dichiarazione resa in Consolato italiano</t>
+    <t>Trascrizione: Riacquisto per residenza in Italia, dichiarazione resa in Consolato italiano</t>
   </si>
   <si>
     <t>52341</t>
   </si>
   <si>
-    <t>Riacquisto per un anno di residenza in Italia</t>
+    <t>Trascrizione: Riacquisto per un anno di residenza in Italia</t>
   </si>
   <si>
     <t>52481</t>
   </si>
   <si>
-    <t>Cittadino straniero discendente da avo italiano iure sanguinis</t>
+    <t>Trascrizione: Cittadino straniero discendente da avo italiano iure sanguinis</t>
   </si>
   <si>
     <t>52999</t>
   </si>
   <si>
-    <t>Caso d'uso di servizio (trascrizioni di cittadinanza)</t>
+    <t>Caso d'uso di servizio trascrizioni di cittadinanza</t>
   </si>
   <si>
     <t>53599</t>
@@ -1838,7 +1868,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.95703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="229.2734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="242.46875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
@@ -6439,7 +6469,7 @@
         <v>533</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>7</v>
@@ -6453,10 +6483,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>7</v>
@@ -6470,10 +6500,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>7</v>
@@ -6487,10 +6517,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>7</v>
@@ -6504,10 +6534,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>7</v>
@@ -6521,10 +6551,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>7</v>
@@ -6538,10 +6568,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>7</v>
@@ -6555,10 +6585,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>7</v>
@@ -6572,10 +6602,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>7</v>
@@ -6589,10 +6619,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>7</v>
@@ -6606,10 +6636,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>7</v>
@@ -6623,10 +6653,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>7</v>
@@ -6640,10 +6670,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>7</v>
@@ -6657,10 +6687,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>7</v>
@@ -6674,10 +6704,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>7</v>
@@ -6691,10 +6721,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>7</v>
@@ -6708,10 +6738,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>7</v>
@@ -6725,10 +6755,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>7</v>
@@ -6742,10 +6772,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>7</v>
@@ -6759,10 +6789,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>7</v>
@@ -6776,10 +6806,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>7</v>
@@ -6793,10 +6823,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>7</v>
@@ -6810,10 +6840,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>7</v>
@@ -6827,10 +6857,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>7</v>
@@ -6844,10 +6874,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>526</v>
+        <v>582</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>7</v>
@@ -6861,10 +6891,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>528</v>
+        <v>584</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>7</v>
@@ -6878,10 +6908,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>7</v>
@@ -6895,10 +6925,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>7</v>
@@ -6912,10 +6942,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>7</v>
@@ -6929,10 +6959,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>7</v>
@@ -6946,7 +6976,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>343</v>
@@ -6963,7 +6993,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>379</v>
@@ -6980,7 +7010,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>347</v>
@@ -6997,7 +7027,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>349</v>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="585">
   <si>
     <t>ID</t>
   </si>
@@ -1217,24 +1217,12 @@
     <t>Dichiarazione: Matrimonio con Rito Civile con delega di altro Comune fuori dalla casa comunale</t>
   </si>
   <si>
-    <t>312212</t>
-  </si>
-  <si>
-    <t>Dichiarazione: Matrimonio con Rito Civile con delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita</t>
-  </si>
-  <si>
     <t>312221</t>
   </si>
   <si>
     <t>Dichiarazione: Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
-    <t>312222</t>
-  </si>
-  <si>
-    <t>Dichiarazione: Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita con Riconoscimento di uno o piu' figli</t>
-  </si>
-  <si>
     <t>319999</t>
   </si>
   <si>
@@ -1412,12 +1400,6 @@
     <t>Dichiarazione: Unione civile con delega di altro Comune fuori dalla casa comunale</t>
   </si>
   <si>
-    <t>412212</t>
-  </si>
-  <si>
-    <t>Dichiarazione: Unione civile con delega di altro Comune fuori dalla casa comunale in imminente pericolo di vita</t>
-  </si>
-  <si>
     <t>419999</t>
   </si>
   <si>
@@ -1661,18 +1643,6 @@
     <t>Trascrizione: Figlio minore di chi ha acquista la cittadinanza italiana</t>
   </si>
   <si>
-    <t>52151</t>
-  </si>
-  <si>
-    <t>Trascrizione: Straniero coniugato o unito civilmente con cittadino italiano</t>
-  </si>
-  <si>
-    <t>52152</t>
-  </si>
-  <si>
-    <t>Trascrizione: Straniero che acquista per naturalizzazione</t>
-  </si>
-  <si>
     <t>52153</t>
   </si>
   <si>
@@ -1779,12 +1749,6 @@
   </si>
   <si>
     <t>Trascrizione: Riacquisto per un anno di residenza in Italia</t>
-  </si>
-  <si>
-    <t>52481</t>
-  </si>
-  <si>
-    <t>Trascrizione: Cittadino straniero discendente da avo italiano iure sanguinis</t>
   </si>
   <si>
     <t>52999</t>
@@ -1861,7 +1825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5588,10 +5552,10 @@
         <v>438</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>8</v>
+        <v>440</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>9</v>
@@ -5599,10 +5563,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>7</v>
@@ -5616,16 +5580,16 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>443</v>
+        <v>7</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>444</v>
+        <v>8</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>9</v>
@@ -5653,7 +5617,7 @@
         <v>447</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>448</v>
+        <v>343</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>7</v>
@@ -5667,10 +5631,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>450</v>
+        <v>379</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>7</v>
@@ -5684,10 +5648,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
@@ -5701,10 +5665,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
@@ -5718,10 +5682,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>347</v>
+        <v>6</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>7</v>
@@ -5735,10 +5699,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>349</v>
+        <v>453</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>7</v>
@@ -5752,10 +5716,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
@@ -6027,7 +5991,7 @@
         <v>486</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>7</v>
@@ -6041,10 +6005,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>489</v>
+        <v>379</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>7</v>
@@ -6058,10 +6022,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>491</v>
+        <v>347</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>7</v>
@@ -6075,10 +6039,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>7</v>
@@ -6092,10 +6056,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>7</v>
@@ -6109,10 +6073,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>347</v>
+        <v>492</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>7</v>
@@ -6126,10 +6090,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>349</v>
+        <v>494</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>7</v>
@@ -6143,10 +6107,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>7</v>
@@ -6877,7 +6841,7 @@
         <v>581</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>582</v>
+        <v>343</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>7</v>
@@ -6891,10 +6855,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>584</v>
+        <v>379</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>7</v>
@@ -6908,10 +6872,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>586</v>
+        <v>347</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>7</v>
@@ -6925,10 +6889,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>588</v>
+        <v>349</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>7</v>
@@ -6937,108 +6901,6 @@
         <v>8</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E304" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="595">
   <si>
     <t>ID</t>
   </si>
@@ -1064,6 +1064,24 @@
     <t>Annotazione per errore materiale</t>
   </si>
   <si>
+    <t>14750000</t>
+  </si>
+  <si>
+    <t>Annotazione per cambio generalità genitore</t>
+  </si>
+  <si>
+    <t>2023-12-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>14850000</t>
+  </si>
+  <si>
+    <t>Annotazione modificativa generica</t>
+  </si>
+  <si>
+    <t>2023-12-21 09:54:27.0</t>
+  </si>
+  <si>
     <t>20000000</t>
   </si>
   <si>
@@ -1160,6 +1178,9 @@
     <t>2342</t>
   </si>
   <si>
+    <t>2350</t>
+  </si>
+  <si>
     <t>30000000</t>
   </si>
   <si>
@@ -1367,6 +1388,9 @@
     <t>368799</t>
   </si>
   <si>
+    <t>369000</t>
+  </si>
+  <si>
     <t>40000000</t>
   </si>
   <si>
@@ -1484,6 +1508,9 @@
     <t>458799</t>
   </si>
   <si>
+    <t>459000</t>
+  </si>
+  <si>
     <t>50000000</t>
   </si>
   <si>
@@ -1767,6 +1794,9 @@
   </si>
   <si>
     <t>53729</t>
+  </si>
+  <si>
+    <t>53800</t>
   </si>
 </sst>
 </file>
@@ -1825,7 +1855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F298"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4767,10 +4797,10 @@
         <v>350</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>7</v>
+        <v>352</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>8</v>
@@ -4781,13 +4811,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>8</v>
@@ -4798,10 +4828,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>354</v>
+        <v>6</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>7</v>
@@ -4815,10 +4845,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>7</v>
@@ -4832,10 +4862,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>7</v>
@@ -4849,10 +4879,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>7</v>
@@ -4866,10 +4896,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>7</v>
@@ -4883,10 +4913,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>7</v>
@@ -4900,10 +4930,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>7</v>
@@ -4917,10 +4947,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>7</v>
@@ -4934,10 +4964,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>7</v>
@@ -4951,10 +4981,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>7</v>
@@ -4968,10 +4998,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>7</v>
@@ -4985,10 +5015,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>7</v>
@@ -5002,10 +5032,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>7</v>
@@ -5019,10 +5049,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>7</v>
@@ -5036,10 +5066,10 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>7</v>
@@ -5053,10 +5083,10 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>7</v>
@@ -5070,10 +5100,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>6</v>
+        <v>347</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>7</v>
@@ -5087,10 +5117,10 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>7</v>
@@ -5104,13 +5134,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>8</v>
@@ -5121,10 +5151,10 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>388</v>
+        <v>6</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>7</v>
@@ -5138,10 +5168,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>7</v>
@@ -5155,10 +5185,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>7</v>
@@ -5172,10 +5202,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>7</v>
@@ -5189,10 +5219,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>7</v>
@@ -5206,10 +5236,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>7</v>
@@ -5223,10 +5253,10 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>7</v>
@@ -5240,10 +5270,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>7</v>
@@ -5257,10 +5287,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>7</v>
@@ -5274,10 +5304,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>7</v>
@@ -5291,10 +5321,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>7</v>
@@ -5308,10 +5338,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>7</v>
@@ -5325,10 +5355,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>7</v>
@@ -5342,10 +5372,10 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>7</v>
@@ -5359,10 +5389,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>7</v>
@@ -5376,10 +5406,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>7</v>
@@ -5393,10 +5423,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>7</v>
@@ -5410,10 +5440,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>7</v>
@@ -5427,10 +5457,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>7</v>
@@ -5444,10 +5474,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>7</v>
@@ -5461,10 +5491,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>7</v>
@@ -5478,10 +5508,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>7</v>
@@ -5495,10 +5525,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>7</v>
@@ -5512,10 +5542,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>7</v>
@@ -5529,10 +5559,10 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>7</v>
@@ -5546,16 +5576,16 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>439</v>
+        <v>7</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>440</v>
+        <v>8</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>9</v>
@@ -5563,10 +5593,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>7</v>
@@ -5580,10 +5610,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>7</v>
@@ -5597,16 +5627,16 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="C222" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D222" s="2" t="s">
-        <v>8</v>
+        <v>447</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>9</v>
@@ -5614,10 +5644,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>7</v>
@@ -5631,10 +5661,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>7</v>
@@ -5648,10 +5678,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
@@ -5665,10 +5695,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
@@ -5682,10 +5712,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>7</v>
@@ -5699,10 +5729,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>453</v>
+        <v>347</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>7</v>
@@ -5716,10 +5746,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>455</v>
+        <v>349</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
@@ -5733,13 +5763,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>457</v>
+        <v>354</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>8</v>
@@ -5750,10 +5780,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>7</v>
@@ -5991,7 +6021,7 @@
         <v>486</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>343</v>
+        <v>487</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>7</v>
@@ -6005,10 +6035,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>379</v>
+        <v>489</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>7</v>
@@ -6022,10 +6052,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>347</v>
+        <v>491</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>7</v>
@@ -6039,10 +6069,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>349</v>
+        <v>493</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>7</v>
@@ -6056,10 +6086,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>6</v>
+        <v>343</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>7</v>
@@ -6073,10 +6103,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>492</v>
+        <v>385</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>7</v>
@@ -6090,10 +6120,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>494</v>
+        <v>347</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>7</v>
@@ -6107,10 +6137,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>496</v>
+        <v>349</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>7</v>
@@ -6124,13 +6154,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>498</v>
+        <v>354</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>8</v>
@@ -6144,7 +6174,7 @@
         <v>499</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>7</v>
@@ -6158,10 +6188,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>7</v>
@@ -6175,10 +6205,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>7</v>
@@ -6192,10 +6222,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>7</v>
@@ -6209,10 +6239,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>7</v>
@@ -6226,10 +6256,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>7</v>
@@ -6243,10 +6273,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>7</v>
@@ -6260,10 +6290,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>7</v>
@@ -6277,10 +6307,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>7</v>
@@ -6294,10 +6324,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>7</v>
@@ -6311,10 +6341,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>7</v>
@@ -6328,10 +6358,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>7</v>
@@ -6345,10 +6375,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>7</v>
@@ -6362,10 +6392,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>7</v>
@@ -6379,10 +6409,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>7</v>
@@ -6396,10 +6426,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>7</v>
@@ -6413,10 +6443,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>7</v>
@@ -6430,10 +6460,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>7</v>
@@ -6447,10 +6477,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>7</v>
@@ -6464,10 +6494,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>7</v>
@@ -6481,10 +6511,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>7</v>
@@ -6498,10 +6528,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>7</v>
@@ -6515,10 +6545,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>7</v>
@@ -6532,10 +6562,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>7</v>
@@ -6549,10 +6579,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>7</v>
@@ -6566,10 +6596,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>7</v>
@@ -6583,10 +6613,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>7</v>
@@ -6600,10 +6630,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>7</v>
@@ -6617,10 +6647,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>7</v>
@@ -6634,10 +6664,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>7</v>
@@ -6651,10 +6681,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>7</v>
@@ -6668,10 +6698,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>7</v>
@@ -6685,10 +6715,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>7</v>
@@ -6702,10 +6732,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>7</v>
@@ -6719,10 +6749,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>7</v>
@@ -6736,10 +6766,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>7</v>
@@ -6753,10 +6783,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>7</v>
@@ -6770,10 +6800,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>7</v>
@@ -6787,10 +6817,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>7</v>
@@ -6804,10 +6834,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>7</v>
@@ -6821,10 +6851,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>7</v>
@@ -6838,10 +6868,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>7</v>
@@ -6858,7 +6888,7 @@
         <v>582</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>379</v>
+        <v>583</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>7</v>
@@ -6872,10 +6902,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>347</v>
+        <v>585</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>7</v>
@@ -6889,18 +6919,120 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E298" s="2" t="s">
+      <c r="C303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="598">
   <si>
     <t>ID</t>
   </si>
@@ -1296,6 +1296,15 @@
   </si>
   <si>
     <t>Trascrizione di matrimonio in imminente pericolo di vita durante un viaggio in aereo o nave</t>
+  </si>
+  <si>
+    <t>336000</t>
+  </si>
+  <si>
+    <t>Trascrizione matrimoni dall'estero - Richiesta di trascrizione da parte dell'interessato art. 19</t>
+  </si>
+  <si>
+    <t>2024-03-25 00:00:00.0</t>
   </si>
   <si>
     <t>339999</t>
@@ -1855,7 +1864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5497,7 +5506,7 @@
         <v>429</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>7</v>
+        <v>430</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>8</v>
@@ -5508,10 +5517,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>7</v>
@@ -5525,10 +5534,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>7</v>
@@ -5542,10 +5551,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>7</v>
@@ -5559,10 +5568,10 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>7</v>
@@ -5576,10 +5585,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>7</v>
@@ -5593,10 +5602,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>7</v>
@@ -5610,10 +5619,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>7</v>
@@ -5627,16 +5636,16 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>446</v>
+        <v>7</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>447</v>
+        <v>8</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>9</v>
@@ -5644,16 +5653,16 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D223" s="2" t="s">
-        <v>8</v>
+        <v>450</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>9</v>
@@ -5661,10 +5670,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>7</v>
@@ -5678,10 +5687,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
@@ -5695,10 +5704,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>343</v>
+        <v>456</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
@@ -5712,10 +5721,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>7</v>
@@ -5729,10 +5738,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>7</v>
@@ -5746,10 +5755,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
@@ -5763,13 +5772,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>8</v>
@@ -5780,13 +5789,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>8</v>
@@ -5797,10 +5806,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>461</v>
+        <v>6</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>7</v>
@@ -5814,10 +5823,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
@@ -5831,10 +5840,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>7</v>
@@ -5848,10 +5857,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>7</v>
@@ -5865,10 +5874,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>7</v>
@@ -5882,10 +5891,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>7</v>
@@ -5899,10 +5908,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>7</v>
@@ -5916,10 +5925,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>7</v>
@@ -5933,10 +5942,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>7</v>
@@ -5950,10 +5959,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>7</v>
@@ -5967,10 +5976,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>7</v>
@@ -5984,10 +5993,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>7</v>
@@ -6001,10 +6010,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>7</v>
@@ -6018,10 +6027,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>7</v>
@@ -6035,10 +6044,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>7</v>
@@ -6052,10 +6061,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>7</v>
@@ -6069,10 +6078,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>7</v>
@@ -6086,10 +6095,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>343</v>
+        <v>496</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>7</v>
@@ -6103,10 +6112,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>7</v>
@@ -6120,10 +6129,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>7</v>
@@ -6137,10 +6146,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>7</v>
@@ -6154,13 +6163,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>8</v>
@@ -6171,13 +6180,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>8</v>
@@ -6188,10 +6197,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>7</v>
@@ -6205,10 +6214,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>7</v>
@@ -6222,10 +6231,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>7</v>
@@ -6239,10 +6248,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>7</v>
@@ -6256,10 +6265,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>7</v>
@@ -6273,10 +6282,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>7</v>
@@ -6290,10 +6299,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>7</v>
@@ -6307,10 +6316,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>7</v>
@@ -6324,10 +6333,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>7</v>
@@ -6341,10 +6350,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>7</v>
@@ -6358,10 +6367,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>7</v>
@@ -6375,10 +6384,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>7</v>
@@ -6392,10 +6401,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>7</v>
@@ -6409,10 +6418,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>7</v>
@@ -6426,10 +6435,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>7</v>
@@ -6443,10 +6452,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>7</v>
@@ -6460,10 +6469,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>7</v>
@@ -6477,10 +6486,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>7</v>
@@ -6494,10 +6503,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>7</v>
@@ -6511,10 +6520,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>7</v>
@@ -6528,10 +6537,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>7</v>
@@ -6545,10 +6554,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>7</v>
@@ -6562,10 +6571,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>7</v>
@@ -6579,10 +6588,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>7</v>
@@ -6596,10 +6605,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>7</v>
@@ -6613,10 +6622,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>7</v>
@@ -6630,10 +6639,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>7</v>
@@ -6647,10 +6656,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>7</v>
@@ -6664,10 +6673,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>7</v>
@@ -6681,10 +6690,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>7</v>
@@ -6698,10 +6707,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>7</v>
@@ -6715,10 +6724,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>7</v>
@@ -6732,10 +6741,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>7</v>
@@ -6749,10 +6758,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>7</v>
@@ -6766,10 +6775,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>7</v>
@@ -6783,10 +6792,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>7</v>
@@ -6800,10 +6809,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>7</v>
@@ -6817,10 +6826,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>7</v>
@@ -6834,10 +6843,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>7</v>
@@ -6851,10 +6860,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>7</v>
@@ -6868,10 +6877,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>7</v>
@@ -6885,10 +6894,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>7</v>
@@ -6902,10 +6911,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>7</v>
@@ -6919,10 +6928,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>7</v>
@@ -6936,10 +6945,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>7</v>
@@ -6953,10 +6962,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>343</v>
+        <v>592</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>7</v>
@@ -6970,10 +6979,10 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>7</v>
@@ -6987,10 +6996,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>7</v>
@@ -7004,10 +7013,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>7</v>
@@ -7021,18 +7030,35 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C305" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E304" s="2" t="s">
+      <c r="D305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="600">
   <si>
     <t>ID</t>
   </si>
@@ -1082,6 +1082,15 @@
     <t>2023-12-21 09:54:27.0</t>
   </si>
   <si>
+    <t>14950000</t>
+  </si>
+  <si>
+    <t>Annotazione per adozione internazionale di minore</t>
+  </si>
+  <si>
+    <t>2000-01-01 00:00:00.0</t>
+  </si>
+  <si>
     <t>20000000</t>
   </si>
   <si>
@@ -1359,9 +1368,6 @@
   </si>
   <si>
     <t>Mancata conferma di separazione o divorzio</t>
-  </si>
-  <si>
-    <t>2000-01-01 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-12 00:00:00.0</t>
@@ -1864,7 +1870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4840,10 +4846,10 @@
         <v>356</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>7</v>
+        <v>358</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>8</v>
@@ -4854,10 +4860,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>358</v>
+        <v>6</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>7</v>
@@ -4871,10 +4877,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>7</v>
@@ -4888,10 +4894,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>7</v>
@@ -4905,10 +4911,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>7</v>
@@ -4922,10 +4928,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>7</v>
@@ -4939,10 +4945,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>7</v>
@@ -4956,10 +4962,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>7</v>
@@ -4973,10 +4979,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>7</v>
@@ -4990,10 +4996,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>7</v>
@@ -5007,10 +5013,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>7</v>
@@ -5024,10 +5030,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>7</v>
@@ -5041,10 +5047,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>7</v>
@@ -5058,10 +5064,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>7</v>
@@ -5075,10 +5081,10 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>7</v>
@@ -5092,10 +5098,10 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>7</v>
@@ -5109,10 +5115,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>7</v>
@@ -5126,10 +5132,10 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>7</v>
@@ -5143,13 +5149,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>8</v>
@@ -5160,13 +5166,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>8</v>
@@ -5177,10 +5183,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>7</v>
@@ -5194,10 +5200,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>7</v>
@@ -5211,10 +5217,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>7</v>
@@ -5228,10 +5234,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>7</v>
@@ -5245,10 +5251,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>7</v>
@@ -5262,10 +5268,10 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>7</v>
@@ -5279,10 +5285,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>7</v>
@@ -5296,10 +5302,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>7</v>
@@ -5313,10 +5319,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>7</v>
@@ -5330,10 +5336,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>7</v>
@@ -5347,10 +5353,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>7</v>
@@ -5364,10 +5370,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>7</v>
@@ -5381,10 +5387,10 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>7</v>
@@ -5398,10 +5404,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>7</v>
@@ -5415,10 +5421,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>7</v>
@@ -5432,10 +5438,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>7</v>
@@ -5449,10 +5455,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>7</v>
@@ -5466,10 +5472,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>7</v>
@@ -5483,10 +5489,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>7</v>
@@ -5500,13 +5506,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>430</v>
+        <v>7</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>8</v>
@@ -5523,7 +5529,7 @@
         <v>432</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>7</v>
+        <v>433</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>8</v>
@@ -5534,10 +5540,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>7</v>
@@ -5551,10 +5557,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>7</v>
@@ -5568,10 +5574,10 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>7</v>
@@ -5585,10 +5591,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>7</v>
@@ -5602,10 +5608,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>7</v>
@@ -5619,10 +5625,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>7</v>
@@ -5636,10 +5642,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>7</v>
@@ -5653,16 +5659,16 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>449</v>
+        <v>7</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>450</v>
+        <v>8</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>9</v>
@@ -5670,16 +5676,16 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="C224" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>9</v>
@@ -5724,7 +5730,7 @@
         <v>457</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>343</v>
+        <v>458</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>7</v>
@@ -5738,10 +5744,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>7</v>
@@ -5755,10 +5761,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
@@ -5772,10 +5778,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>7</v>
@@ -5789,13 +5795,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>8</v>
@@ -5806,13 +5812,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>8</v>
@@ -5823,10 +5829,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
@@ -6115,7 +6121,7 @@
         <v>497</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>343</v>
+        <v>498</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>7</v>
@@ -6129,10 +6135,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>7</v>
@@ -6146,10 +6152,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>7</v>
@@ -6163,10 +6169,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>7</v>
@@ -6180,13 +6186,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>8</v>
@@ -6197,13 +6203,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>8</v>
@@ -6214,10 +6220,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>7</v>
@@ -6982,7 +6988,7 @@
         <v>593</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>343</v>
+        <v>594</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>7</v>
@@ -6996,10 +7002,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>7</v>
@@ -7013,10 +7019,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>7</v>
@@ -7030,10 +7036,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>7</v>
@@ -7047,18 +7053,35 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C306" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E305" s="2" t="s">
+      <c r="D306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="608">
   <si>
     <t>ID</t>
   </si>
@@ -902,6 +902,15 @@
     <t>Trascrizione di nascita: Trascrizione atto di nascita resa alla direzione sanitaria</t>
   </si>
   <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>Trascrizione atto nascita su richiesta dell'interessato per art. 19</t>
+  </si>
+  <si>
+    <t>2000-01-01 00:00:00.0</t>
+  </si>
+  <si>
     <t>1321</t>
   </si>
   <si>
@@ -1088,9 +1097,6 @@
     <t>Annotazione per adozione internazionale di minore</t>
   </si>
   <si>
-    <t>2000-01-01 00:00:00.0</t>
-  </si>
-  <si>
     <t>20000000</t>
   </si>
   <si>
@@ -1142,6 +1148,12 @@
     <t>Trascrizione di morte: Richiesta trascrizione atto di morte all'estero richiesto da pubblica autorita'</t>
   </si>
   <si>
+    <t>2214</t>
+  </si>
+  <si>
+    <t>Trascrizione atto morte su richiesta dell'interessato per art. 19</t>
+  </si>
+  <si>
     <t>2221</t>
   </si>
   <si>
@@ -1253,6 +1265,12 @@
     <t>Dichiarazione: Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale con Riconoscimento di uno o piu' figli</t>
   </si>
   <si>
+    <t>313111</t>
+  </si>
+  <si>
+    <t>Matrimonio con Rito Civile di stranieri non domiciliati nÃ© residenti</t>
+  </si>
+  <si>
     <t>319999</t>
   </si>
   <si>
@@ -1467,6 +1485,12 @@
   </si>
   <si>
     <t>Trascrizione di unione civile di sentenze di Tribunali stranieri - richiesta di trascrizione da parte del Consolato/Ambasciata</t>
+  </si>
+  <si>
+    <t>436000</t>
+  </si>
+  <si>
+    <t>Trascrizione atto unione civile su richiesta dell'interessato per art. 19</t>
   </si>
   <si>
     <t>439999</t>
@@ -1870,7 +1894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F310"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4356,7 +4380,7 @@
         <v>297</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>8</v>
@@ -4367,10 +4391,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>7</v>
@@ -4384,10 +4408,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>7</v>
@@ -4401,10 +4425,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>7</v>
@@ -4418,10 +4442,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>7</v>
@@ -4435,10 +4459,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>7</v>
@@ -4452,10 +4476,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>7</v>
@@ -4469,10 +4493,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>7</v>
@@ -4486,10 +4510,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>7</v>
@@ -4503,10 +4527,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>7</v>
@@ -4520,10 +4544,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>7</v>
@@ -4537,10 +4561,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>7</v>
@@ -4554,10 +4578,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>7</v>
@@ -4571,10 +4595,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>7</v>
@@ -4588,10 +4612,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>7</v>
@@ -4605,10 +4629,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>7</v>
@@ -4622,10 +4646,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>7</v>
@@ -4639,10 +4663,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>7</v>
@@ -4656,10 +4680,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>7</v>
@@ -4673,10 +4697,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>7</v>
@@ -4690,10 +4714,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>7</v>
@@ -4707,10 +4731,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>7</v>
@@ -4724,10 +4748,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>7</v>
@@ -4741,10 +4765,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>7</v>
@@ -4758,10 +4782,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>7</v>
@@ -4775,10 +4799,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>7</v>
@@ -4792,10 +4816,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>7</v>
@@ -4809,13 +4833,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>352</v>
+        <v>7</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>8</v>
@@ -4863,10 +4887,10 @@
         <v>359</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>8</v>
@@ -4877,10 +4901,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>361</v>
+        <v>6</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>7</v>
@@ -5036,7 +5060,7 @@
         <v>379</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>8</v>
@@ -5101,7 +5125,7 @@
         <v>386</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>7</v>
@@ -5115,10 +5139,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>7</v>
@@ -5132,10 +5156,10 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>7</v>
@@ -5149,10 +5173,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>7</v>
@@ -5166,13 +5190,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>8</v>
@@ -5183,10 +5207,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>6</v>
+        <v>352</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>7</v>
@@ -5200,13 +5224,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>7</v>
+        <v>358</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>8</v>
@@ -5217,10 +5241,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>396</v>
+        <v>6</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>7</v>
@@ -5410,7 +5434,7 @@
         <v>418</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>8</v>
@@ -5529,7 +5553,7 @@
         <v>432</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>433</v>
+        <v>7</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>8</v>
@@ -5540,10 +5564,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>7</v>
@@ -5557,10 +5581,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>7</v>
@@ -5574,13 +5598,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>8</v>
@@ -5682,10 +5706,10 @@
         <v>451</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>358</v>
+        <v>7</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>452</v>
+        <v>8</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>9</v>
@@ -5693,10 +5717,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>7</v>
@@ -5710,10 +5734,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
@@ -5727,16 +5751,16 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C227" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>9</v>
@@ -5747,7 +5771,7 @@
         <v>459</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>343</v>
+        <v>460</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>7</v>
@@ -5761,10 +5785,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>388</v>
+        <v>462</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>7</v>
@@ -5778,10 +5802,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>347</v>
+        <v>464</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>7</v>
@@ -5795,10 +5819,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>7</v>
@@ -5812,13 +5836,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>8</v>
@@ -5829,10 +5853,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>7</v>
@@ -5846,10 +5870,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>7</v>
@@ -5863,13 +5887,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>468</v>
+        <v>357</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>7</v>
+        <v>358</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>8</v>
@@ -5880,10 +5904,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>470</v>
+        <v>6</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>7</v>
@@ -6073,7 +6097,7 @@
         <v>492</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>8</v>
@@ -6138,7 +6162,7 @@
         <v>499</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>343</v>
+        <v>500</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>7</v>
@@ -6152,10 +6176,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>388</v>
+        <v>502</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>7</v>
@@ -6169,10 +6193,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>347</v>
+        <v>504</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>7</v>
@@ -6186,10 +6210,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>349</v>
+        <v>506</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>7</v>
@@ -6203,13 +6227,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>8</v>
@@ -6220,10 +6244,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>6</v>
+        <v>392</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>7</v>
@@ -6237,10 +6261,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>506</v>
+        <v>350</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>7</v>
@@ -6254,10 +6278,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>508</v>
+        <v>352</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>7</v>
@@ -6271,13 +6295,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>510</v>
+        <v>357</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>7</v>
+        <v>358</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>8</v>
@@ -6288,10 +6312,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>7</v>
@@ -7005,7 +7029,7 @@
         <v>595</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>343</v>
+        <v>596</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>7</v>
@@ -7019,10 +7043,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>388</v>
+        <v>598</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>7</v>
@@ -7036,10 +7060,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>347</v>
+        <v>600</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>7</v>
@@ -7053,10 +7077,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>349</v>
+        <v>602</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>7</v>
@@ -7070,18 +7094,86 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E306" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="613">
   <si>
     <t>ID</t>
   </si>
@@ -29,6 +29,9 @@
     <t>ORDINAMENTO</t>
   </si>
   <si>
+    <t>IDTIPOCONTENUTO</t>
+  </si>
+  <si>
     <t>10000000</t>
   </si>
   <si>
@@ -44,12 +47,18 @@
     <t/>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>11111000</t>
   </si>
   <si>
     <t xml:space="preserve">Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre </t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>11111100</t>
   </si>
   <si>
@@ -884,6 +893,9 @@
     <t>Trascrizione di nascita: Trascrizione di atto di nascita avvenuta all'estero su richiesta dell'autorita' diplomatica o consolare</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1312</t>
   </si>
   <si>
@@ -1053,6 +1065,9 @@
   </si>
   <si>
     <t>Caso d'uso di servizio annotazione comunicazione da altri comuni</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>14500000</t>
@@ -1894,7 +1909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F310"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1905,6 +1920,7 @@
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1923,5258 +1939,6188 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="614">
   <si>
     <t>ID</t>
   </si>
@@ -1167,6 +1167,9 @@
   </si>
   <si>
     <t>Trascrizione atto morte su richiesta dell'interessato per art. 19</t>
+  </si>
+  <si>
+    <t>2024-06-25 00:00:00.0</t>
   </si>
   <si>
     <t>2221</t>
@@ -5634,7 +5637,7 @@
         <v>302</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>9</v>
+        <v>385</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>10</v>
@@ -5645,10 +5648,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
@@ -5665,10 +5668,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
@@ -5685,10 +5688,10 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
@@ -5705,10 +5708,10 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
@@ -5725,10 +5728,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
@@ -5745,7 +5748,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>350</v>
@@ -5765,10 +5768,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
@@ -5785,7 +5788,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>355</v>
@@ -5805,7 +5808,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>357</v>
@@ -5825,7 +5828,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>362</v>
@@ -5845,7 +5848,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>7</v>
@@ -5865,10 +5868,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
@@ -5885,10 +5888,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
@@ -5905,10 +5908,10 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
@@ -5925,10 +5928,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
@@ -5945,10 +5948,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
@@ -5965,10 +5968,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
@@ -5985,10 +5988,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
@@ -6005,10 +6008,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -6025,10 +6028,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
@@ -6045,10 +6048,10 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
@@ -6065,10 +6068,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>302</v>
@@ -6085,10 +6088,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
@@ -6105,10 +6108,10 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
@@ -6125,10 +6128,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
@@ -6145,10 +6148,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
@@ -6165,10 +6168,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
@@ -6185,10 +6188,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
@@ -6205,10 +6208,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
@@ -6225,10 +6228,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
@@ -6245,10 +6248,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
@@ -6265,13 +6268,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>9</v>
@@ -6285,10 +6288,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
@@ -6305,10 +6308,10 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
@@ -6325,10 +6328,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
@@ -6345,10 +6348,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
@@ -6365,10 +6368,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
@@ -6385,10 +6388,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -6405,10 +6408,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
@@ -6425,10 +6428,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
@@ -6445,16 +6448,16 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>10</v>
@@ -6465,10 +6468,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
@@ -6485,10 +6488,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
@@ -6505,10 +6508,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -6525,7 +6528,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>350</v>
@@ -6545,10 +6548,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -6565,7 +6568,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>355</v>
@@ -6585,7 +6588,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>357</v>
@@ -6605,7 +6608,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>362</v>
@@ -6625,7 +6628,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>7</v>
@@ -6645,10 +6648,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
@@ -6665,10 +6668,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
@@ -6685,10 +6688,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
@@ -6705,10 +6708,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
@@ -6725,10 +6728,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
@@ -6745,10 +6748,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
@@ -6765,10 +6768,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
@@ -6785,10 +6788,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
@@ -6805,10 +6808,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
@@ -6825,10 +6828,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
@@ -6845,10 +6848,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>302</v>
@@ -6865,10 +6868,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
@@ -6885,10 +6888,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
@@ -6905,10 +6908,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
@@ -6925,10 +6928,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
@@ -6945,10 +6948,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
@@ -6965,10 +6968,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
@@ -6985,10 +6988,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
@@ -7005,7 +7008,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>350</v>
@@ -7025,10 +7028,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
@@ -7045,7 +7048,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>355</v>
@@ -7065,7 +7068,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>357</v>
@@ -7085,7 +7088,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>362</v>
@@ -7105,7 +7108,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>7</v>
@@ -7125,10 +7128,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
@@ -7145,10 +7148,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
@@ -7165,10 +7168,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
@@ -7185,10 +7188,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -7205,10 +7208,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
@@ -7225,10 +7228,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
@@ -7245,10 +7248,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
@@ -7265,10 +7268,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
@@ -7285,10 +7288,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
@@ -7305,10 +7308,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
@@ -7325,10 +7328,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
@@ -7345,10 +7348,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
@@ -7365,10 +7368,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
@@ -7385,10 +7388,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
@@ -7405,10 +7408,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
@@ -7425,10 +7428,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
@@ -7445,10 +7448,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
@@ -7465,10 +7468,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
@@ -7485,10 +7488,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
@@ -7505,10 +7508,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
@@ -7525,10 +7528,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -7545,10 +7548,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
@@ -7565,10 +7568,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -7585,10 +7588,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
@@ -7605,10 +7608,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
@@ -7625,10 +7628,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
@@ -7645,10 +7648,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
@@ -7665,10 +7668,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
@@ -7685,10 +7688,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
@@ -7705,10 +7708,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -7725,10 +7728,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
@@ -7745,10 +7748,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
@@ -7765,10 +7768,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
@@ -7785,10 +7788,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
@@ -7805,10 +7808,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
@@ -7825,10 +7828,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
@@ -7845,10 +7848,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -7865,10 +7868,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
@@ -7885,10 +7888,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
@@ -7905,10 +7908,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
@@ -7925,10 +7928,10 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
@@ -7945,10 +7948,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
@@ -7965,10 +7968,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
@@ -7985,10 +7988,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
@@ -8005,10 +8008,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
@@ -8025,7 +8028,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>350</v>
@@ -8045,10 +8048,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -8065,7 +8068,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>355</v>
@@ -8085,7 +8088,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>357</v>
@@ -8105,7 +8108,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>362</v>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="620">
   <si>
     <t>ID</t>
   </si>
@@ -1106,6 +1106,12 @@
     <t>2023-12-21 09:54:27.0</t>
   </si>
   <si>
+    <t>14860000</t>
+  </si>
+  <si>
+    <t>Annotazione modificativa su atto cartaceo</t>
+  </si>
+  <si>
     <t>14950000</t>
   </si>
   <si>
@@ -1220,6 +1226,9 @@
     <t>2350</t>
   </si>
   <si>
+    <t>2351</t>
+  </si>
+  <si>
     <t>30000000</t>
   </si>
   <si>
@@ -1442,6 +1451,9 @@
     <t>369000</t>
   </si>
   <si>
+    <t>369100</t>
+  </si>
+  <si>
     <t>40000000</t>
   </si>
   <si>
@@ -1568,6 +1580,9 @@
     <t>459000</t>
   </si>
   <si>
+    <t>459100</t>
+  </si>
+  <si>
     <t>50000000</t>
   </si>
   <si>
@@ -1854,6 +1869,9 @@
   </si>
   <si>
     <t>53800</t>
+  </si>
+  <si>
+    <t>53810</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5451,10 +5469,10 @@
         <v>366</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>7</v>
+        <v>367</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>9</v>
@@ -5463,15 +5481,15 @@
         <v>10</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>368</v>
+        <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -5483,7 +5501,7 @@
         <v>10</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179">
@@ -5583,7 +5601,7 @@
         <v>10</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
@@ -5634,10 +5652,10 @@
         <v>384</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>385</v>
+        <v>9</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>10</v>
@@ -5648,16 +5666,16 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>10</v>
@@ -5751,7 +5769,7 @@
         <v>396</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
@@ -5763,15 +5781,15 @@
         <v>10</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
@@ -5791,7 +5809,7 @@
         <v>399</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
@@ -5808,10 +5826,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
@@ -5828,13 +5846,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>9</v>
@@ -5848,13 +5866,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>7</v>
+        <v>362</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>9</v>
@@ -5863,18 +5881,18 @@
         <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>9</v>
@@ -5883,7 +5901,7 @@
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
     </row>
     <row r="199">
@@ -5891,7 +5909,7 @@
         <v>405</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>406</v>
+        <v>7</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
@@ -5903,15 +5921,15 @@
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
@@ -5928,10 +5946,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
@@ -5948,10 +5966,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
@@ -5968,10 +5986,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
@@ -5988,10 +6006,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
@@ -6008,10 +6026,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -6028,10 +6046,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
@@ -6048,10 +6066,10 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
@@ -6068,13 +6086,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C208" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>9</v>
@@ -6088,10 +6106,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
@@ -6108,13 +6126,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="C210" s="2" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>9</v>
@@ -6128,10 +6146,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
@@ -6148,10 +6166,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
@@ -6168,11 +6186,11 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
@@ -6183,16 +6201,16 @@
         <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
@@ -6203,15 +6221,15 @@
         <v>10</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
@@ -6228,10 +6246,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
@@ -6248,10 +6266,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
@@ -6268,13 +6286,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="C218" s="2" t="s">
-        <v>445</v>
+        <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>9</v>
@@ -6288,10 +6306,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
@@ -6308,14 +6326,14 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D220" s="2" t="s">
         <v>9</v>
       </c>
@@ -6323,16 +6341,16 @@
         <v>10</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
@@ -6343,15 +6361,15 @@
         <v>10</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
@@ -6368,10 +6386,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
@@ -6388,10 +6406,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -6408,10 +6426,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
@@ -6428,10 +6446,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
@@ -6448,16 +6466,16 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="C227" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>464</v>
+        <v>9</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>10</v>
@@ -6468,10 +6486,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
@@ -6488,16 +6506,16 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>10</v>
@@ -6508,10 +6526,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -6528,11 +6546,11 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
@@ -6543,7 +6561,7 @@
         <v>10</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -6551,7 +6569,7 @@
         <v>472</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -6563,15 +6581,15 @@
         <v>10</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
@@ -6588,10 +6606,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
@@ -6608,13 +6626,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>9</v>
@@ -6628,10 +6646,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>7</v>
+        <v>357</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
@@ -6643,18 +6661,18 @@
         <v>10</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>478</v>
+        <v>362</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>9</v>
@@ -6663,7 +6681,7 @@
         <v>10</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
     </row>
     <row r="238">
@@ -6671,10 +6689,10 @@
         <v>479</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>480</v>
+        <v>365</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>9</v>
@@ -6683,15 +6701,15 @@
         <v>10</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>482</v>
+        <v>7</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
@@ -6703,15 +6721,15 @@
         <v>10</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
@@ -6728,10 +6746,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
@@ -6748,10 +6766,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
@@ -6768,10 +6786,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
@@ -6783,15 +6801,15 @@
         <v>10</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
@@ -6803,15 +6821,15 @@
         <v>10</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
@@ -6823,15 +6841,15 @@
         <v>10</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
@@ -6848,13 +6866,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>9</v>
@@ -6868,10 +6886,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
@@ -6888,10 +6906,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
@@ -6903,18 +6921,18 @@
         <v>10</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>9</v>
@@ -6923,15 +6941,15 @@
         <v>10</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
@@ -6943,15 +6961,15 @@
         <v>10</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
@@ -6968,10 +6986,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
@@ -6988,10 +7006,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
@@ -7008,10 +7026,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>350</v>
+        <v>512</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -7023,16 +7041,16 @@
         <v>10</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
@@ -7043,7 +7061,7 @@
         <v>10</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257">
@@ -7051,7 +7069,7 @@
         <v>515</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>355</v>
+        <v>516</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
@@ -7063,15 +7081,15 @@
         <v>10</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
@@ -7088,13 +7106,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>9</v>
@@ -7108,10 +7126,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
@@ -7123,15 +7141,15 @@
         <v>10</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>520</v>
+        <v>357</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
@@ -7143,7 +7161,7 @@
         <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
     </row>
     <row r="262">
@@ -7151,10 +7169,10 @@
         <v>521</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>522</v>
+        <v>362</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>9</v>
@@ -7163,18 +7181,18 @@
         <v>10</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>524</v>
+        <v>365</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>9</v>
@@ -7183,15 +7201,15 @@
         <v>10</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>526</v>
+        <v>7</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -7203,15 +7221,15 @@
         <v>10</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
@@ -7228,10 +7246,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
@@ -7248,10 +7266,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
@@ -7268,10 +7286,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
@@ -7288,10 +7306,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
@@ -7308,10 +7326,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
@@ -7328,10 +7346,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
@@ -7348,10 +7366,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
@@ -7368,10 +7386,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
@@ -7388,10 +7406,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
@@ -7408,10 +7426,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
@@ -7428,10 +7446,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
@@ -7448,10 +7466,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
@@ -7468,10 +7486,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
@@ -7483,15 +7501,15 @@
         <v>10</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
@@ -7503,15 +7521,15 @@
         <v>10</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
@@ -7523,15 +7541,15 @@
         <v>10</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -7543,15 +7561,15 @@
         <v>10</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
@@ -7568,10 +7586,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -7588,10 +7606,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
@@ -7608,10 +7626,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
@@ -7628,10 +7646,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
@@ -7648,10 +7666,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
@@ -7668,10 +7686,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
@@ -7688,10 +7706,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
@@ -7708,10 +7726,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -7728,10 +7746,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
@@ -7748,10 +7766,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
@@ -7768,10 +7786,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
@@ -7788,10 +7806,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
@@ -7808,10 +7826,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
@@ -7828,10 +7846,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
@@ -7848,10 +7866,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -7868,10 +7886,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
@@ -7888,10 +7906,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
@@ -7908,10 +7926,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
@@ -7928,10 +7946,10 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
@@ -7948,10 +7966,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
@@ -7968,10 +7986,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
@@ -7988,10 +8006,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
@@ -8008,10 +8026,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
@@ -8028,10 +8046,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>350</v>
+        <v>607</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
@@ -8043,15 +8061,15 @@
         <v>10</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>398</v>
+        <v>609</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -8063,16 +8081,16 @@
         <v>10</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
@@ -8083,7 +8101,7 @@
         <v>10</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
     </row>
     <row r="309">
@@ -8091,7 +8109,7 @@
         <v>612</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>357</v>
+        <v>613</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
@@ -8103,26 +8121,126 @@
         <v>10</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C314" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F310" s="2" t="s">
+      <c r="D314" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" s="2" t="s">
         <v>351</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="656">
   <si>
     <t>ID</t>
   </si>
@@ -335,6 +335,15 @@
     <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato vivo e morto prima della dichiarazione di nascita - filiazione fuori dal matrimonio</t>
   </si>
   <si>
+    <t>11211204</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con consenso materno espresso con atto notarile di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>2024-10-29 22:31:11.0</t>
+  </si>
+  <si>
     <t>11212002</t>
   </si>
   <si>
@@ -443,6 +452,45 @@
     <t xml:space="preserve">Dichiarazione nascita: Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato vivo ma morto prima della denuncia di nascita </t>
   </si>
   <si>
+    <t>11218000</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni � resa dal procuratore del padre con presenza della madre - Filiazione fuori dal matrimonio</t>
+  </si>
+  <si>
+    <t>2024-10-29 22:30:14.0</t>
+  </si>
+  <si>
+    <t>11218100</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre con presenza della madre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11218200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre con presenza della madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>11219000</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni � resa dal procuratore della madre con presenza del padre - Filiazione fuori dal matrimonio</t>
+  </si>
+  <si>
+    <t>11219100</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre con presenza del padre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11219200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre con presenza del padre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
     <t>11221001</t>
   </si>
   <si>
@@ -587,6 +635,45 @@
     <t>Dichiarazione nascita: Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
+    <t>11228000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre con presenza della madre</t>
+  </si>
+  <si>
+    <t>11228100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre con presenza della madre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11228200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre con presenza della madre di bimbo nato vivo ma morto prima della dichiarazione</t>
+  </si>
+  <si>
+    <t>11229000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre con presenza del padre</t>
+  </si>
+  <si>
+    <t>11229100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre con presenza del padre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>11229200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre con presenza del padre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>2024-10-29 22:30:15.0</t>
+  </si>
+  <si>
     <t>11315000</t>
   </si>
   <si>
@@ -1055,6 +1142,21 @@
     <t>Trascrizione di nascita: Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di ufficio</t>
   </si>
   <si>
+    <t>1381</t>
+  </si>
+  <si>
+    <t>Trascrizione atti multipli adozioni</t>
+  </si>
+  <si>
+    <t>2024-10-29 22:30:43.0</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>Trascrizione atti multipli adozioni nazionali</t>
+  </si>
+  <si>
     <t>1399</t>
   </si>
   <si>
@@ -1848,6 +1950,12 @@
   </si>
   <si>
     <t>Trascrizione: Riacquisto per un anno di residenza in Italia</t>
+  </si>
+  <si>
+    <t>52821</t>
+  </si>
+  <si>
+    <t>intestatari multipli (trascrizioni di cittadinanza)</t>
   </si>
   <si>
     <t>52999</t>
@@ -1930,7 +2038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2932,7 +3040,7 @@
         <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>9</v>
@@ -2946,10 +3054,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
@@ -2966,10 +3074,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
@@ -2986,10 +3094,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
@@ -3006,10 +3114,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
@@ -3026,10 +3134,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
@@ -3046,10 +3154,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -3066,10 +3174,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
@@ -3086,10 +3194,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -3106,10 +3214,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
@@ -3126,10 +3234,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
@@ -3146,10 +3254,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
@@ -3166,10 +3274,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
@@ -3186,10 +3294,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
@@ -3206,10 +3314,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
@@ -3226,10 +3334,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
@@ -3246,10 +3354,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
@@ -3266,10 +3374,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
@@ -3286,10 +3394,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
@@ -3306,13 +3414,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>9</v>
@@ -3326,13 +3434,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>9</v>
@@ -3346,13 +3454,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>9</v>
@@ -3366,13 +3474,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>9</v>
@@ -3386,13 +3494,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>9</v>
@@ -3406,13 +3514,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>9</v>
@@ -3426,10 +3534,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
@@ -3446,10 +3554,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -3466,10 +3574,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
@@ -3486,10 +3594,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
@@ -3506,10 +3614,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
@@ -3526,10 +3634,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
@@ -3546,10 +3654,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
@@ -3566,10 +3674,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
@@ -3586,10 +3694,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
@@ -3606,10 +3714,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
@@ -3626,10 +3734,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
@@ -3646,10 +3754,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
@@ -3666,10 +3774,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
@@ -3686,10 +3794,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
@@ -3706,10 +3814,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
@@ -3726,10 +3834,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
@@ -3746,10 +3854,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
@@ -3766,10 +3874,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
@@ -3786,10 +3894,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
@@ -3806,10 +3914,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
@@ -3826,10 +3934,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
@@ -3846,10 +3954,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
@@ -3866,10 +3974,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>8</v>
@@ -3886,10 +3994,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
@@ -3906,13 +4014,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>9</v>
@@ -3926,13 +4034,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>9</v>
@@ -3946,13 +4054,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>9</v>
@@ -3966,13 +4074,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>9</v>
@@ -3986,13 +4094,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>9</v>
@@ -4006,13 +4114,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>9</v>
@@ -4026,10 +4134,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
@@ -4046,10 +4154,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
@@ -4066,10 +4174,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
@@ -4086,10 +4194,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
@@ -4106,10 +4214,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
@@ -4126,10 +4234,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
@@ -4146,10 +4254,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
@@ -4166,10 +4274,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
@@ -4186,10 +4294,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
@@ -4206,10 +4314,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
@@ -4226,10 +4334,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
@@ -4246,10 +4354,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
@@ -4266,10 +4374,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
@@ -4286,10 +4394,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
@@ -4306,10 +4414,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
@@ -4326,10 +4434,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
@@ -4346,10 +4454,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
@@ -4366,10 +4474,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
@@ -4386,10 +4494,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
@@ -4406,10 +4514,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
@@ -4426,10 +4534,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
@@ -4446,10 +4554,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
@@ -4466,10 +4574,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
@@ -4486,10 +4594,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
@@ -4506,10 +4614,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
@@ -4526,10 +4634,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
@@ -4546,10 +4654,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
@@ -4566,10 +4674,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
@@ -4586,10 +4694,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
@@ -4606,10 +4714,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
@@ -4626,10 +4734,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
@@ -4646,10 +4754,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
@@ -4666,10 +4774,10 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
@@ -4686,10 +4794,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
@@ -4706,10 +4814,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
@@ -4726,10 +4834,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
@@ -4746,10 +4854,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
@@ -4766,10 +4874,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
@@ -4781,15 +4889,15 @@
         <v>10</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
@@ -4801,15 +4909,15 @@
         <v>10</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
@@ -4821,15 +4929,15 @@
         <v>10</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
@@ -4841,18 +4949,18 @@
         <v>10</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>9</v>
@@ -4861,15 +4969,15 @@
         <v>10</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
@@ -4881,15 +4989,15 @@
         <v>10</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
@@ -4901,15 +5009,15 @@
         <v>10</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
@@ -4921,15 +5029,15 @@
         <v>10</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
@@ -4941,15 +5049,15 @@
         <v>10</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
@@ -4961,15 +5069,15 @@
         <v>10</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
@@ -4981,15 +5089,15 @@
         <v>10</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
@@ -5001,15 +5109,15 @@
         <v>10</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
@@ -5021,15 +5129,15 @@
         <v>10</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
@@ -5041,35 +5149,35 @@
         <v>10</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
@@ -5081,15 +5189,15 @@
         <v>10</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
@@ -5101,18 +5209,18 @@
         <v>10</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>9</v>
@@ -5121,15 +5229,15 @@
         <v>10</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
@@ -5141,15 +5249,15 @@
         <v>10</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
@@ -5161,15 +5269,15 @@
         <v>10</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
@@ -5181,15 +5289,15 @@
         <v>10</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
@@ -5201,15 +5309,15 @@
         <v>10</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
@@ -5221,15 +5329,15 @@
         <v>10</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
@@ -5241,15 +5349,15 @@
         <v>10</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
@@ -5261,15 +5369,15 @@
         <v>10</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
@@ -5281,15 +5389,15 @@
         <v>10</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
@@ -5301,15 +5409,15 @@
         <v>10</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
@@ -5321,15 +5429,15 @@
         <v>10</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
@@ -5341,15 +5449,15 @@
         <v>10</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
@@ -5361,15 +5469,15 @@
         <v>10</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
@@ -5381,15 +5489,15 @@
         <v>10</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
@@ -5401,18 +5509,18 @@
         <v>10</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>9</v>
@@ -5421,18 +5529,18 @@
         <v>10</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>9</v>
@@ -5441,7 +5549,7 @@
         <v>10</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="176">
@@ -5452,7 +5560,7 @@
         <v>365</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>9</v>
@@ -5461,7 +5569,7 @@
         <v>10</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177">
@@ -5472,7 +5580,7 @@
         <v>367</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>9</v>
@@ -5481,7 +5589,7 @@
         <v>10</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="178">
@@ -5489,7 +5597,7 @@
         <v>368</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -5501,15 +5609,15 @@
         <v>10</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
@@ -5521,15 +5629,15 @@
         <v>10</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
@@ -5546,10 +5654,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
@@ -5561,18 +5669,18 @@
         <v>10</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>378</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>9</v>
@@ -5581,19 +5689,19 @@
         <v>10</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D183" s="2" t="s">
         <v>9</v>
       </c>
@@ -5601,15 +5709,15 @@
         <v>10</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -5621,15 +5729,15 @@
         <v>10</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
@@ -5641,15 +5749,15 @@
         <v>10</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
@@ -5661,35 +5769,35 @@
         <v>10</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
@@ -5701,18 +5809,18 @@
         <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>8</v>
+        <v>394</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>9</v>
@@ -5721,18 +5829,18 @@
         <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>9</v>
@@ -5741,18 +5849,18 @@
         <v>10</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>9</v>
@@ -5761,18 +5869,18 @@
         <v>10</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>9</v>
@@ -5781,15 +5889,15 @@
         <v>10</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>350</v>
+        <v>7</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
@@ -5801,15 +5909,15 @@
         <v>10</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
@@ -5821,15 +5929,15 @@
         <v>10</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
@@ -5841,15 +5949,15 @@
         <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
@@ -5861,18 +5969,18 @@
         <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>9</v>
@@ -5881,18 +5989,18 @@
         <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>9</v>
@@ -5901,15 +6009,15 @@
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
@@ -5921,15 +6029,15 @@
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
@@ -5941,15 +6049,15 @@
         <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
@@ -5961,35 +6069,35 @@
         <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
@@ -6001,15 +6109,15 @@
         <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
@@ -6021,15 +6129,15 @@
         <v>10</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -6041,15 +6149,15 @@
         <v>10</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
@@ -6061,15 +6169,15 @@
         <v>10</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
@@ -6081,15 +6189,15 @@
         <v>10</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
@@ -6101,15 +6209,15 @@
         <v>10</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
@@ -6121,18 +6229,18 @@
         <v>10</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>9</v>
@@ -6141,15 +6249,15 @@
         <v>10</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
@@ -6161,18 +6269,18 @@
         <v>10</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>9</v>
@@ -6181,18 +6289,18 @@
         <v>10</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>9</v>
@@ -6201,15 +6309,15 @@
         <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>435</v>
+        <v>7</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
@@ -6221,15 +6329,15 @@
         <v>10</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
@@ -6241,15 +6349,15 @@
         <v>10</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
@@ -6261,15 +6369,15 @@
         <v>10</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
@@ -6281,15 +6389,15 @@
         <v>10</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
@@ -6301,15 +6409,15 @@
         <v>10</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
@@ -6321,18 +6429,18 @@
         <v>10</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>448</v>
+        <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>9</v>
@@ -6341,15 +6449,15 @@
         <v>10</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
@@ -6361,15 +6469,15 @@
         <v>10</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
@@ -6386,10 +6494,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
@@ -6406,10 +6514,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -6426,13 +6534,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>9</v>
@@ -6446,10 +6554,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
@@ -6466,10 +6574,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
@@ -6486,10 +6594,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
@@ -6506,16 +6614,16 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>467</v>
+        <v>9</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>10</v>
@@ -6526,10 +6634,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -6541,15 +6649,15 @@
         <v>10</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
@@ -6561,15 +6669,15 @@
         <v>10</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -6581,15 +6689,15 @@
         <v>10</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
@@ -6601,15 +6709,15 @@
         <v>10</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
@@ -6621,18 +6729,18 @@
         <v>10</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>8</v>
+        <v>482</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>9</v>
@@ -6641,15 +6749,15 @@
         <v>10</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>357</v>
+        <v>484</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
@@ -6661,18 +6769,18 @@
         <v>10</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>362</v>
+        <v>486</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>9</v>
@@ -6681,18 +6789,18 @@
         <v>10</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>365</v>
+        <v>488</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>9</v>
@@ -6701,15 +6809,15 @@
         <v>10</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>7</v>
+        <v>490</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
@@ -6721,15 +6829,15 @@
         <v>10</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
@@ -6746,10 +6854,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
@@ -6766,10 +6874,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
@@ -6786,10 +6894,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
@@ -6806,16 +6914,16 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>9</v>
+        <v>501</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>10</v>
@@ -6826,10 +6934,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
@@ -6846,10 +6954,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
@@ -6861,15 +6969,15 @@
         <v>10</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
@@ -6881,15 +6989,15 @@
         <v>10</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>498</v>
+        <v>384</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
@@ -6901,15 +7009,15 @@
         <v>10</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
@@ -6921,18 +7029,18 @@
         <v>10</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>502</v>
+        <v>389</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>9</v>
@@ -6941,15 +7049,15 @@
         <v>10</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>504</v>
+        <v>391</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
@@ -6961,18 +7069,18 @@
         <v>10</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>506</v>
+        <v>396</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>9</v>
@@ -6981,18 +7089,18 @@
         <v>10</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>508</v>
+        <v>399</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>9</v>
@@ -7001,15 +7109,15 @@
         <v>10</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>510</v>
+        <v>7</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
@@ -7021,15 +7129,15 @@
         <v>10</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -7046,10 +7154,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
@@ -7066,10 +7174,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
@@ -7086,10 +7194,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>350</v>
+        <v>522</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
@@ -7101,15 +7209,15 @@
         <v>10</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
@@ -7121,15 +7229,15 @@
         <v>10</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>355</v>
+        <v>526</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
@@ -7141,15 +7249,15 @@
         <v>10</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>357</v>
+        <v>528</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
@@ -7161,18 +7269,18 @@
         <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>362</v>
+        <v>530</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>9</v>
@@ -7181,18 +7289,18 @@
         <v>10</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>365</v>
+        <v>532</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>9</v>
@@ -7201,15 +7309,15 @@
         <v>10</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>7</v>
+        <v>534</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -7221,18 +7329,18 @@
         <v>10</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>9</v>
@@ -7241,15 +7349,15 @@
         <v>10</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
@@ -7261,15 +7369,15 @@
         <v>10</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
@@ -7286,10 +7394,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
@@ -7306,10 +7414,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
@@ -7326,10 +7434,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
@@ -7346,10 +7454,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
@@ -7366,10 +7474,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
@@ -7386,10 +7494,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>541</v>
+        <v>384</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
@@ -7401,15 +7509,15 @@
         <v>10</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>543</v>
+        <v>434</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
@@ -7421,15 +7529,15 @@
         <v>10</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>545</v>
+        <v>389</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
@@ -7441,15 +7549,15 @@
         <v>10</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>547</v>
+        <v>391</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
@@ -7461,18 +7569,18 @@
         <v>10</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>549</v>
+        <v>396</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>9</v>
@@ -7481,18 +7589,18 @@
         <v>10</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>551</v>
+        <v>399</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>9</v>
@@ -7501,15 +7609,15 @@
         <v>10</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>553</v>
+        <v>7</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
@@ -7521,15 +7629,15 @@
         <v>10</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
@@ -7546,10 +7654,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -7566,10 +7674,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
@@ -7581,15 +7689,15 @@
         <v>10</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -7601,15 +7709,15 @@
         <v>10</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
@@ -7621,15 +7729,15 @@
         <v>10</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
@@ -7641,15 +7749,15 @@
         <v>10</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
@@ -7661,15 +7769,15 @@
         <v>10</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
@@ -7681,15 +7789,15 @@
         <v>10</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
@@ -7701,15 +7809,15 @@
         <v>10</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
@@ -7721,15 +7829,15 @@
         <v>10</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -7741,15 +7849,15 @@
         <v>10</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
@@ -7761,15 +7869,15 @@
         <v>10</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
@@ -7781,15 +7889,15 @@
         <v>10</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
@@ -7801,15 +7909,15 @@
         <v>10</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
@@ -7821,15 +7929,15 @@
         <v>10</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
@@ -7841,15 +7949,15 @@
         <v>10</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
@@ -7861,15 +7969,15 @@
         <v>10</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -7881,15 +7989,15 @@
         <v>10</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
@@ -7901,15 +8009,15 @@
         <v>10</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
@@ -7921,15 +8029,15 @@
         <v>10</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
@@ -7941,15 +8049,15 @@
         <v>10</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
@@ -7961,15 +8069,15 @@
         <v>10</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
@@ -7981,15 +8089,15 @@
         <v>10</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
@@ -8001,15 +8109,15 @@
         <v>10</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
@@ -8021,15 +8129,15 @@
         <v>10</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
@@ -8041,15 +8149,15 @@
         <v>10</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
@@ -8061,15 +8169,15 @@
         <v>10</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -8081,15 +8189,15 @@
         <v>10</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
@@ -8101,15 +8209,15 @@
         <v>10</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
@@ -8121,15 +8229,15 @@
         <v>10</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>350</v>
+        <v>619</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
@@ -8141,15 +8249,15 @@
         <v>10</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>400</v>
+        <v>621</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
@@ -8161,15 +8269,15 @@
         <v>10</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>355</v>
+        <v>623</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
@@ -8181,15 +8289,15 @@
         <v>10</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>357</v>
+        <v>625</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
@@ -8201,18 +8309,18 @@
         <v>10</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>362</v>
+        <v>627</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>9</v>
@@ -8221,18 +8329,18 @@
         <v>10</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>365</v>
+        <v>629</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>9</v>
@@ -8241,7 +8349,327 @@
         <v>10</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="672">
   <si>
     <t>ID</t>
   </si>
@@ -1046,6 +1046,24 @@
     <t>Trascrizione di nascita: Trascrizione del decreto prefettizio di cambiamento del nome e cognome</t>
   </si>
   <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>Trascrizione del decreto prefettizio o sentenza di cambiamento del nome e cognome su richiesta dell'autorita' pubblica o consolare</t>
+  </si>
+  <si>
+    <t>2024-11-26 19:04:34.0</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>Trascrizione decreto prefettizio cambio cognome multi intestatari</t>
+  </si>
+  <si>
+    <t>2024-11-26 19:05:04.0</t>
+  </si>
+  <si>
     <t>1341</t>
   </si>
   <si>
@@ -1079,7 +1097,7 @@
     <t>1351</t>
   </si>
   <si>
-    <t>Trascrizione di nascita: Trascrizione provvedimento straniero di adozione richiesta da un privato</t>
+    <t>Trascrizione di nascita: Trascrizione provvedimento straniero di adozione</t>
   </si>
   <si>
     <t>1352</t>
@@ -1100,6 +1118,15 @@
     <t>Trascrizione di nascita: Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta dall'autorita' diplomatica o consolare</t>
   </si>
   <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>Trascrizione sentenza tribunale dei minori che dichiara efficace il provvedimento straniero di adozione (fuori convenzione Aja)</t>
+  </si>
+  <si>
+    <t>2024-11-26 19:03:04.0</t>
+  </si>
+  <si>
     <t>1361</t>
   </si>
   <si>
@@ -1220,6 +1247,18 @@
     <t>Annotazione per adozione internazionale di minore</t>
   </si>
   <si>
+    <t>14960000</t>
+  </si>
+  <si>
+    <t>Annotazione per adozione di minore multi intestatario</t>
+  </si>
+  <si>
+    <t>14970000</t>
+  </si>
+  <si>
+    <t>Annotazione per adozione di maggiorenne o casi particolari multi intestatario</t>
+  </si>
+  <si>
     <t>20000000</t>
   </si>
   <si>
@@ -1683,6 +1722,15 @@
   </si>
   <si>
     <t>459100</t>
+  </si>
+  <si>
+    <t>459200</t>
+  </si>
+  <si>
+    <t>Annotazione modificativa per cambio regime patrimoniale</t>
+  </si>
+  <si>
+    <t>2024-11-29 11:28:52.0</t>
   </si>
   <si>
     <t>50000000</t>
@@ -2038,7 +2086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5360,7 +5408,7 @@
         <v>345</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>346</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>9</v>
@@ -5374,13 +5422,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>349</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>9</v>
@@ -5394,10 +5442,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
@@ -5414,10 +5462,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
@@ -5434,10 +5482,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
@@ -5454,10 +5502,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
@@ -5474,10 +5522,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
@@ -5494,10 +5542,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
@@ -5514,10 +5562,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
@@ -5534,10 +5582,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
@@ -5554,10 +5602,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
@@ -5569,18 +5617,18 @@
         <v>10</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
+        <v>370</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>9</v>
@@ -5594,10 +5642,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -5609,15 +5657,15 @@
         <v>10</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
@@ -5629,15 +5677,15 @@
         <v>10</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
@@ -5649,15 +5697,15 @@
         <v>10</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
@@ -5669,18 +5717,18 @@
         <v>10</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>378</v>
+        <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>9</v>
@@ -5694,13 +5742,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>378</v>
+        <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>9</v>
@@ -5709,15 +5757,15 @@
         <v>10</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -5734,13 +5782,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>9</v>
@@ -5749,19 +5797,19 @@
         <v>10</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D186" s="2" t="s">
         <v>9</v>
       </c>
@@ -5769,15 +5817,15 @@
         <v>10</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
@@ -5789,15 +5837,15 @@
         <v>10</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
@@ -5809,38 +5857,38 @@
         <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>397</v>
+        <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>9</v>
@@ -5849,18 +5897,18 @@
         <v>10</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>9</v>
@@ -5869,18 +5917,18 @@
         <v>10</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>9</v>
@@ -5889,18 +5937,18 @@
         <v>10</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>7</v>
+        <v>405</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>8</v>
+        <v>406</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>9</v>
@@ -5909,18 +5957,18 @@
         <v>10</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>9</v>
@@ -5929,18 +5977,18 @@
         <v>10</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>9</v>
@@ -5949,18 +5997,18 @@
         <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>9</v>
@@ -5969,18 +6017,18 @@
         <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>9</v>
@@ -5989,15 +6037,15 @@
         <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
@@ -6009,15 +6057,15 @@
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
@@ -6029,15 +6077,15 @@
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
@@ -6049,15 +6097,15 @@
         <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
@@ -6069,35 +6117,35 @@
         <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>421</v>
+        <v>9</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
@@ -6109,15 +6157,15 @@
         <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
@@ -6134,10 +6182,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -6154,10 +6202,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
@@ -6174,16 +6222,16 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>9</v>
+        <v>434</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>10</v>
@@ -6194,10 +6242,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
@@ -6209,15 +6257,15 @@
         <v>10</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
@@ -6229,15 +6277,15 @@
         <v>10</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
@@ -6249,15 +6297,15 @@
         <v>10</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
@@ -6269,18 +6317,18 @@
         <v>10</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>397</v>
+        <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>9</v>
@@ -6289,18 +6337,18 @@
         <v>10</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>9</v>
@@ -6309,15 +6357,15 @@
         <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>7</v>
+        <v>447</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
@@ -6329,15 +6377,15 @@
         <v>10</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
@@ -6349,15 +6397,15 @@
         <v>10</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
@@ -6369,18 +6417,18 @@
         <v>10</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>8</v>
+        <v>406</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>9</v>
@@ -6389,18 +6437,18 @@
         <v>10</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>9</v>
@@ -6409,15 +6457,15 @@
         <v>10</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>449</v>
+        <v>7</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
@@ -6429,15 +6477,15 @@
         <v>10</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
@@ -6454,10 +6502,10 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
@@ -6474,10 +6522,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
@@ -6494,10 +6542,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
@@ -6514,10 +6562,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -6534,13 +6582,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>9</v>
@@ -6554,10 +6602,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
@@ -6574,10 +6622,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
@@ -6594,10 +6642,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
@@ -6614,10 +6662,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
@@ -6634,13 +6682,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>9</v>
@@ -6649,15 +6697,15 @@
         <v>10</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
@@ -6669,15 +6717,15 @@
         <v>10</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -6689,15 +6737,15 @@
         <v>10</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
@@ -6709,15 +6757,15 @@
         <v>10</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
@@ -6729,18 +6777,18 @@
         <v>10</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>482</v>
+        <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>9</v>
@@ -6754,10 +6802,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
@@ -6774,10 +6822,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
@@ -6789,15 +6837,15 @@
         <v>10</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
@@ -6809,15 +6857,15 @@
         <v>10</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
@@ -6829,18 +6877,18 @@
         <v>10</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>8</v>
+        <v>495</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>9</v>
@@ -6849,15 +6897,15 @@
         <v>10</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
@@ -6869,15 +6917,15 @@
         <v>10</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
@@ -6894,10 +6942,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
@@ -6914,16 +6962,16 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>501</v>
+        <v>9</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>10</v>
@@ -6934,10 +6982,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
@@ -6954,10 +7002,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
@@ -6974,10 +7022,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
@@ -6994,10 +7042,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>384</v>
+        <v>511</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
@@ -7009,35 +7057,35 @@
         <v>10</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>434</v>
+        <v>513</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>9</v>
+        <v>514</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>389</v>
+        <v>516</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
@@ -7049,15 +7097,15 @@
         <v>10</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>391</v>
+        <v>518</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
@@ -7069,18 +7117,18 @@
         <v>10</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>396</v>
+        <v>520</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>397</v>
+        <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>9</v>
@@ -7089,18 +7137,18 @@
         <v>10</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>9</v>
@@ -7109,15 +7157,15 @@
         <v>10</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>7</v>
+        <v>447</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
@@ -7129,15 +7177,15 @@
         <v>10</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>516</v>
+        <v>398</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -7149,15 +7197,15 @@
         <v>10</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>518</v>
+        <v>400</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
@@ -7169,18 +7217,18 @@
         <v>10</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>520</v>
+        <v>405</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>8</v>
+        <v>406</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>9</v>
@@ -7189,18 +7237,18 @@
         <v>10</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>522</v>
+        <v>408</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>9</v>
@@ -7209,15 +7257,15 @@
         <v>10</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>524</v>
+        <v>7</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
@@ -7229,15 +7277,15 @@
         <v>10</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
@@ -7254,10 +7302,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
@@ -7269,15 +7317,15 @@
         <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
@@ -7289,15 +7337,15 @@
         <v>10</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
@@ -7309,15 +7357,15 @@
         <v>10</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -7329,18 +7377,18 @@
         <v>10</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>9</v>
@@ -7349,15 +7397,15 @@
         <v>10</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
@@ -7374,10 +7422,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
@@ -7389,15 +7437,15 @@
         <v>10</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
@@ -7409,15 +7457,15 @@
         <v>10</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
@@ -7429,18 +7477,18 @@
         <v>10</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>9</v>
@@ -7449,15 +7497,15 @@
         <v>10</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
@@ -7469,15 +7517,15 @@
         <v>10</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
@@ -7494,10 +7542,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>384</v>
+        <v>555</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
@@ -7509,15 +7557,15 @@
         <v>10</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>434</v>
+        <v>557</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
@@ -7529,15 +7577,15 @@
         <v>10</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>389</v>
+        <v>559</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
@@ -7549,15 +7597,15 @@
         <v>10</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>391</v>
+        <v>561</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
@@ -7569,18 +7617,18 @@
         <v>10</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>396</v>
+        <v>563</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>397</v>
+        <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>9</v>
@@ -7589,18 +7637,18 @@
         <v>10</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>9</v>
@@ -7609,15 +7657,15 @@
         <v>10</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>7</v>
+        <v>447</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
@@ -7629,15 +7677,15 @@
         <v>10</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>559</v>
+        <v>398</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
@@ -7649,15 +7697,15 @@
         <v>10</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>561</v>
+        <v>400</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -7669,18 +7717,18 @@
         <v>10</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>563</v>
+        <v>405</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>8</v>
+        <v>406</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>9</v>
@@ -7689,18 +7737,18 @@
         <v>10</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>565</v>
+        <v>408</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>9</v>
@@ -7709,18 +7757,18 @@
         <v>10</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>8</v>
+        <v>572</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>9</v>
@@ -7729,15 +7777,15 @@
         <v>10</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>569</v>
+        <v>7</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
@@ -7749,15 +7797,15 @@
         <v>10</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
@@ -7774,10 +7822,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
@@ -7794,10 +7842,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
@@ -7814,10 +7862,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
@@ -7834,10 +7882,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -7854,10 +7902,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
@@ -7874,10 +7922,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
@@ -7894,10 +7942,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
@@ -7914,10 +7962,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
@@ -7934,10 +7982,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
@@ -7954,10 +8002,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
@@ -7974,10 +8022,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -7989,15 +8037,15 @@
         <v>10</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
@@ -8009,15 +8057,15 @@
         <v>10</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
@@ -8029,15 +8077,15 @@
         <v>10</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
@@ -8049,15 +8097,15 @@
         <v>10</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
@@ -8069,15 +8117,15 @@
         <v>10</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
@@ -8089,15 +8137,15 @@
         <v>10</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
@@ -8114,10 +8162,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
@@ -8134,10 +8182,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
@@ -8154,10 +8202,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
@@ -8174,10 +8222,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -8194,10 +8242,10 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
@@ -8214,10 +8262,10 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
@@ -8234,10 +8282,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
@@ -8254,10 +8302,10 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
@@ -8274,10 +8322,10 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
@@ -8294,10 +8342,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
@@ -8314,10 +8362,10 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
@@ -8334,10 +8382,10 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
@@ -8354,10 +8402,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
@@ -8374,10 +8422,10 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
@@ -8394,10 +8442,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
@@ -8414,10 +8462,10 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
@@ -8434,10 +8482,10 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
@@ -8454,10 +8502,10 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
@@ -8474,10 +8522,10 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
@@ -8494,10 +8542,10 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
@@ -8514,13 +8562,13 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>378</v>
+        <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>9</v>
@@ -8534,10 +8582,10 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
@@ -8554,10 +8602,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>384</v>
+        <v>655</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
@@ -8569,15 +8617,15 @@
         <v>10</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>434</v>
+        <v>657</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
@@ -8589,15 +8637,15 @@
         <v>10</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>389</v>
+        <v>659</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
@@ -8609,15 +8657,15 @@
         <v>10</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>391</v>
+        <v>661</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
@@ -8629,18 +8677,18 @@
         <v>10</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>396</v>
+        <v>663</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>9</v>
@@ -8649,27 +8697,147 @@
         <v>10</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>399</v>
+        <v>665</v>
       </c>
       <c r="C331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D331" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>385</v>
+      <c r="D337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="674">
   <si>
     <t>ID</t>
   </si>
@@ -62,7 +62,7 @@
     <t>11111100</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre - bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre - bambino nato morto</t>
   </si>
   <si>
     <t>11111200</t>
@@ -74,13 +74,13 @@
     <t>11112000</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre</t>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre</t>
   </si>
   <si>
     <t>11112100</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre - bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre - bambino nato morto</t>
   </si>
   <si>
     <t>11112200</t>
@@ -98,7 +98,7 @@
     <t>11113100</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre con presenza madre - bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre con presenza madre - bambino nato morto</t>
   </si>
   <si>
     <t>11113200</t>
@@ -110,13 +110,13 @@
     <t>11114000</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore del padre</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore del padre</t>
   </si>
   <si>
     <t>11114100</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore del padre - bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore del padre - bambino nato morto</t>
   </si>
   <si>
     <t>11114200</t>
@@ -128,13 +128,13 @@
     <t>11115000</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dall'ostetrica o sanitario o altra persona che ha assistito al parto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dall’ostetrica o sanitario o altra persona che ha assistito al parto</t>
   </si>
   <si>
     <t>11115100</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dall'ostetrica o sanitario o altra persona che ha assistito al parto - bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dall’ostetrica o sanitario o altra persona che ha assistito al parto - bambino nato morto</t>
   </si>
   <si>
     <t>11115200</t>
@@ -152,7 +152,7 @@
     <t>11116100</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre con presenza padre - bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre con presenza padre - bambino nato morto</t>
   </si>
   <si>
     <t>11116200</t>
@@ -164,13 +164,13 @@
     <t>11117000</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore della madre</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore della madre</t>
   </si>
   <si>
     <t>11117100</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore della madre - bambino nato morto</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore della madre - bambino nato morto</t>
   </si>
   <si>
     <t>11117200</t>
@@ -308,19 +308,19 @@
     <t>11211001</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11211004</t>
   </si>
   <si>
-    <t xml:space="preserve">Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre con il consenso della madre reso mediante atto notarile - filiazione fuori dal matrimonio </t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre con il consenso della madre reso mediante atto notarile - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11211101</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato morto - filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato morto - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11211104</t>
@@ -332,7 +332,7 @@
     <t>11211201</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato vivo e morto prima della dichiarazione di nascita - filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre - bambino nato vivo e morto prima della dichiarazione di nascita - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11211204</t>
@@ -347,13 +347,13 @@
     <t>11212002</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre senza il consenso del padre - filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre senza il consenso del padre - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11212003</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dalla madre con il consenso del padre reso mediante atto notarile - filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre con il consenso del padre reso mediante atto notarile - filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11212102</t>
@@ -401,7 +401,7 @@
     <t>11214000</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore del padre - Filiazione fuori dal matrimonio con consenso della madre a essere nominata</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore del padre - Filiazione fuori dal matrimonio con consenso della madre a essere nominata</t>
   </si>
   <si>
     <t>11214100</t>
@@ -437,7 +437,7 @@
     <t>11217000</t>
   </si>
   <si>
-    <t>Dichiarazione nascita: Dichiarazione entro i 10 giorni - resa dal procuratore della madre - Filiazione fuori dal matrimonio con consenso del padre ad essere nominato</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore della madre - Filiazione fuori dal matrimonio con consenso del padre ad essere nominato</t>
   </si>
   <si>
     <t>11217100</t>
@@ -455,7 +455,7 @@
     <t>11218000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni � resa dal procuratore del padre con presenza della madre - Filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore del padre con presenza della madre - Filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>2024-10-29 22:30:14.0</t>
@@ -476,7 +476,7 @@
     <t>11219000</t>
   </si>
   <si>
-    <t>Dichiarazione entro i 10 giorni � resa dal procuratore della madre con presenza del padre - Filiazione fuori dal matrimonio</t>
+    <t>Dichiarazione entro i 10 giorni - resa dal procuratore della madre con presenza del padre - Filiazione fuori dal matrimonio</t>
   </si>
   <si>
     <t>11219100</t>
@@ -1239,6 +1239,12 @@
   </si>
   <si>
     <t>Annotazione modificativa su atto cartaceo</t>
+  </si>
+  <si>
+    <t>14870000</t>
+  </si>
+  <si>
+    <t>Annotazione modificativa per cambio sesso</t>
   </si>
   <si>
     <t>14950000</t>
@@ -2086,7 +2092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G337"/>
+  <dimension ref="A1:G338"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6045,10 +6051,10 @@
         <v>415</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>7</v>
+        <v>416</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>9</v>
@@ -6057,15 +6063,15 @@
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>417</v>
+        <v>7</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
@@ -6077,7 +6083,7 @@
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
@@ -6177,7 +6183,7 @@
         <v>10</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205">
@@ -6228,10 +6234,10 @@
         <v>433</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>434</v>
+        <v>9</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>10</v>
@@ -6242,16 +6248,16 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>10</v>
@@ -6345,7 +6351,7 @@
         <v>445</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
@@ -6357,15 +6363,15 @@
         <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
@@ -6385,7 +6391,7 @@
         <v>448</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
@@ -6402,10 +6408,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
@@ -6422,13 +6428,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>9</v>
@@ -6442,13 +6448,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>9</v>
@@ -6462,13 +6468,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>9</v>
@@ -6477,15 +6483,15 @@
         <v>10</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>454</v>
+        <v>7</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
@@ -6497,7 +6503,7 @@
         <v>10</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221">
@@ -6688,7 +6694,7 @@
         <v>474</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>9</v>
@@ -6708,7 +6714,7 @@
         <v>476</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>9</v>
@@ -6797,7 +6803,7 @@
         <v>10</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236">
@@ -6888,7 +6894,7 @@
         <v>494</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>495</v>
+        <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>9</v>
@@ -6902,13 +6908,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>9</v>
@@ -6937,7 +6943,7 @@
         <v>10</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243">
@@ -7068,10 +7074,10 @@
         <v>513</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>514</v>
+        <v>9</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>10</v>
@@ -7082,16 +7088,16 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="C250" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>10</v>
@@ -7145,7 +7151,7 @@
         <v>521</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>393</v>
+        <v>522</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
@@ -7157,15 +7163,15 @@
         <v>10</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
@@ -7182,10 +7188,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -7202,10 +7208,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
@@ -7222,13 +7228,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>9</v>
@@ -7242,13 +7248,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>9</v>
@@ -7262,13 +7268,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>9</v>
@@ -7277,15 +7283,15 @@
         <v>10</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>529</v>
+        <v>7</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
@@ -7297,7 +7303,7 @@
         <v>10</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261">
@@ -7417,7 +7423,7 @@
         <v>10</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267">
@@ -7488,7 +7494,7 @@
         <v>549</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>9</v>
@@ -7508,7 +7514,7 @@
         <v>551</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>9</v>
@@ -7537,7 +7543,7 @@
         <v>10</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="273">
@@ -7645,7 +7651,7 @@
         <v>564</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>393</v>
+        <v>565</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
@@ -7657,15 +7663,15 @@
         <v>10</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
@@ -7682,10 +7688,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
@@ -7702,10 +7708,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -7722,13 +7728,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>9</v>
@@ -7742,13 +7748,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>9</v>
@@ -7762,13 +7768,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>571</v>
+        <v>408</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>572</v>
+        <v>331</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>9</v>
@@ -7777,18 +7783,18 @@
         <v>10</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C285" s="2" t="s">
-        <v>8</v>
+        <v>574</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>9</v>
@@ -7797,15 +7803,15 @@
         <v>10</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>575</v>
+        <v>7</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
@@ -7817,7 +7823,7 @@
         <v>10</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287">
@@ -8157,7 +8163,7 @@
         <v>10</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304">
@@ -8688,7 +8694,7 @@
         <v>663</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>9</v>
@@ -8708,7 +8714,7 @@
         <v>665</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>9</v>
@@ -8725,7 +8731,7 @@
         <v>666</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>393</v>
+        <v>667</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
@@ -8737,15 +8743,15 @@
         <v>10</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
@@ -8762,10 +8768,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
@@ -8782,10 +8788,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
@@ -8802,13 +8808,13 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>9</v>
@@ -8822,21 +8828,41 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="C338" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D337" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F337" s="2" t="s">
+      <c r="D338" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F338" s="2" t="s">
         <v>394</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -7803,7 +7803,7 @@
         <v>10</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="286">

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="676">
   <si>
     <t>ID</t>
   </si>
@@ -1347,6 +1347,12 @@
   </si>
   <si>
     <t>Trascrizione di morte: Trascrizioni di sentenze di accertamento morte gia' dichiarata presunta</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>Trascrizione dichiarazione di morte su decreto del tribunale</t>
   </si>
   <si>
     <t>2299</t>
@@ -2092,7 +2098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G338"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6354,7 +6360,7 @@
         <v>446</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>9</v>
@@ -6371,7 +6377,7 @@
         <v>447</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
@@ -6383,15 +6389,15 @@
         <v>10</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
@@ -6411,7 +6417,7 @@
         <v>450</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
@@ -6428,10 +6434,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
@@ -6448,13 +6454,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>9</v>
@@ -6468,13 +6474,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>9</v>
@@ -6488,13 +6494,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>9</v>
@@ -6503,15 +6509,15 @@
         <v>10</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>456</v>
+        <v>7</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
@@ -6523,7 +6529,7 @@
         <v>10</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222">
@@ -6714,7 +6720,7 @@
         <v>476</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>9</v>
@@ -6734,7 +6740,7 @@
         <v>478</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>9</v>
@@ -6823,7 +6829,7 @@
         <v>10</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237">
@@ -6914,7 +6920,7 @@
         <v>496</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>497</v>
+        <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>9</v>
@@ -6928,13 +6934,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="C242" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>9</v>
@@ -6963,7 +6969,7 @@
         <v>10</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="244">
@@ -7094,10 +7100,10 @@
         <v>515</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>516</v>
+        <v>9</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>10</v>
@@ -7108,16 +7114,16 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="C251" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>10</v>
@@ -7171,7 +7177,7 @@
         <v>523</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
@@ -7183,15 +7189,15 @@
         <v>10</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -7208,10 +7214,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
@@ -7228,10 +7234,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
@@ -7248,13 +7254,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>9</v>
@@ -7268,13 +7274,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>9</v>
@@ -7288,13 +7294,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>9</v>
@@ -7303,15 +7309,15 @@
         <v>10</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>531</v>
+        <v>7</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
@@ -7323,7 +7329,7 @@
         <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262">
@@ -7443,7 +7449,7 @@
         <v>10</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -7514,7 +7520,7 @@
         <v>551</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>9</v>
@@ -7534,7 +7540,7 @@
         <v>553</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>9</v>
@@ -7563,7 +7569,7 @@
         <v>10</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="274">
@@ -7671,7 +7677,7 @@
         <v>566</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>393</v>
+        <v>567</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
@@ -7683,15 +7689,15 @@
         <v>10</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
@@ -7708,10 +7714,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -7728,10 +7734,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
@@ -7748,13 +7754,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>9</v>
@@ -7768,13 +7774,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>9</v>
@@ -7788,13 +7794,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>573</v>
+        <v>408</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>574</v>
+        <v>331</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>9</v>
@@ -7808,13 +7814,13 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C286" s="2" t="s">
-        <v>8</v>
+        <v>576</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>9</v>
@@ -7823,15 +7829,15 @@
         <v>10</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>577</v>
+        <v>7</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
@@ -7843,7 +7849,7 @@
         <v>10</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288">
@@ -8183,7 +8189,7 @@
         <v>10</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305">
@@ -8714,7 +8720,7 @@
         <v>665</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>9</v>
@@ -8734,7 +8740,7 @@
         <v>667</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>9</v>
@@ -8751,7 +8757,7 @@
         <v>668</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>393</v>
+        <v>669</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
@@ -8763,15 +8769,15 @@
         <v>10</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
@@ -8788,10 +8794,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
@@ -8808,10 +8814,10 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
@@ -8828,13 +8834,13 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>9</v>
@@ -8848,21 +8854,41 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="C339" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D338" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F338" s="2" t="s">
+      <c r="D339" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" s="2" t="s">
         <v>394</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="680">
   <si>
     <t>ID</t>
   </si>
@@ -1391,10 +1391,22 @@
     <t>Dichiarazione: Matrimonio con Rito Civile nella casa comunale</t>
   </si>
   <si>
+    <t>311112</t>
+  </si>
+  <si>
+    <t>Matrimonio con Rito Civile nella casa comunale in Imminente Pericolo di Vita</t>
+  </si>
+  <si>
     <t>311121</t>
   </si>
   <si>
     <t>Dichiarazione: Matrimonio con Rito Civile nella casa comunale con riconoscimento di uno o piu' figli</t>
+  </si>
+  <si>
+    <t>311122</t>
+  </si>
+  <si>
+    <t>Matrimonio con Rito Civile nella casa comunale in Imminente Pericolo di Vita con riconoscimento di uno o più figli</t>
   </si>
   <si>
     <t>311211</t>
@@ -2098,7 +2110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G339"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6560,7 +6572,7 @@
         <v>460</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>9</v>
@@ -6600,7 +6612,7 @@
         <v>464</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>9</v>
@@ -6740,7 +6752,7 @@
         <v>478</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>9</v>
@@ -6780,7 +6792,7 @@
         <v>482</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>9</v>
@@ -6849,7 +6861,7 @@
         <v>10</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238">
@@ -6869,7 +6881,7 @@
         <v>10</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239">
@@ -6940,7 +6952,7 @@
         <v>498</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>499</v>
+        <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>9</v>
@@ -6954,10 +6966,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
@@ -6974,14 +6986,14 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="C244" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D244" s="2" t="s">
         <v>9</v>
       </c>
@@ -6989,7 +7001,7 @@
         <v>10</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="245">
@@ -7009,7 +7021,7 @@
         <v>10</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="246">
@@ -7120,10 +7132,10 @@
         <v>517</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>518</v>
+        <v>9</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>10</v>
@@ -7134,10 +7146,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
@@ -7154,16 +7166,16 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>10</v>
@@ -7197,7 +7209,7 @@
         <v>525</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>393</v>
+        <v>526</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -7209,15 +7221,15 @@
         <v>10</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
@@ -7229,15 +7241,15 @@
         <v>10</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
@@ -7254,10 +7266,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
@@ -7274,13 +7286,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>9</v>
@@ -7294,13 +7306,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>9</v>
@@ -7314,13 +7326,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>7</v>
+        <v>405</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>8</v>
+        <v>406</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>9</v>
@@ -7329,18 +7341,18 @@
         <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>533</v>
+        <v>408</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>9</v>
@@ -7349,15 +7361,15 @@
         <v>10</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
@@ -7369,7 +7381,7 @@
         <v>10</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264">
@@ -7469,7 +7481,7 @@
         <v>10</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269">
@@ -7489,7 +7501,7 @@
         <v>10</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270">
@@ -7540,7 +7552,7 @@
         <v>553</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>9</v>
@@ -7580,7 +7592,7 @@
         <v>557</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>9</v>
@@ -7589,7 +7601,7 @@
         <v>10</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="275">
@@ -7609,7 +7621,7 @@
         <v>10</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="276">
@@ -7697,7 +7709,7 @@
         <v>568</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>393</v>
+        <v>569</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
@@ -7709,15 +7721,15 @@
         <v>10</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>451</v>
+        <v>571</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -7729,15 +7741,15 @@
         <v>10</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
@@ -7754,10 +7766,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -7774,13 +7786,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>9</v>
@@ -7794,13 +7806,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>9</v>
@@ -7814,13 +7826,13 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>575</v>
+        <v>405</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>576</v>
+        <v>406</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>9</v>
@@ -7837,10 +7849,10 @@
         <v>577</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>9</v>
@@ -7849,7 +7861,7 @@
         <v>10</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="288">
@@ -7860,7 +7872,7 @@
         <v>579</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>8</v>
+        <v>580</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>9</v>
@@ -7869,15 +7881,15 @@
         <v>10</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>581</v>
+        <v>7</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
@@ -7889,7 +7901,7 @@
         <v>10</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290">
@@ -8209,7 +8221,7 @@
         <v>10</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306">
@@ -8229,7 +8241,7 @@
         <v>10</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307">
@@ -8740,7 +8752,7 @@
         <v>667</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>9</v>
@@ -8777,10 +8789,10 @@
         <v>670</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>393</v>
+        <v>671</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>9</v>
@@ -8789,15 +8801,15 @@
         <v>10</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>451</v>
+        <v>673</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
@@ -8809,15 +8821,15 @@
         <v>10</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
@@ -8834,10 +8846,10 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
@@ -8854,13 +8866,13 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>9</v>
@@ -8874,21 +8886,61 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B341" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="C341" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D339" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E339" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F339" s="2" t="s">
+      <c r="D341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F341" s="2" t="s">
         <v>394</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="682">
   <si>
     <t>ID</t>
   </si>
@@ -1722,6 +1722,12 @@
   </si>
   <si>
     <t>Mancata conferma dell'accordo di scioglimento dell'unione civile</t>
+  </si>
+  <si>
+    <t>446000</t>
+  </si>
+  <si>
+    <t>Accordo di scioglimento di unione civile con negoziazione assistita</t>
   </si>
   <si>
     <t>449999</t>
@@ -2110,7 +2116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7732,7 +7738,7 @@
         <v>571</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>9</v>
@@ -7749,7 +7755,7 @@
         <v>572</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>393</v>
+        <v>573</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
@@ -7761,15 +7767,15 @@
         <v>10</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -7786,10 +7792,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
@@ -7806,10 +7812,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
@@ -7826,13 +7832,13 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>9</v>
@@ -7846,13 +7852,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>9</v>
@@ -7866,13 +7872,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>579</v>
+        <v>408</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>580</v>
+        <v>331</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>9</v>
@@ -7886,13 +7892,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C289" s="2" t="s">
-        <v>8</v>
+        <v>582</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>9</v>
@@ -7901,15 +7907,15 @@
         <v>10</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>583</v>
+        <v>7</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -7921,7 +7927,7 @@
         <v>10</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291">
@@ -8261,7 +8267,7 @@
         <v>10</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308">
@@ -8792,7 +8798,7 @@
         <v>671</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>9</v>
@@ -8812,7 +8818,7 @@
         <v>673</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>9</v>
@@ -8829,7 +8835,7 @@
         <v>674</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>393</v>
+        <v>675</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
@@ -8841,15 +8847,15 @@
         <v>10</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
@@ -8866,10 +8872,10 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
@@ -8886,10 +8892,10 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
@@ -8906,13 +8912,13 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>9</v>
@@ -8926,21 +8932,41 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="C342" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D341" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F341" s="2" t="s">
+      <c r="D342" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342" s="2" t="s">
         <v>394</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="683">
   <si>
     <t>ID</t>
   </si>
@@ -1395,6 +1395,9 @@
   </si>
   <si>
     <t>Matrimonio con Rito Civile nella casa comunale in Imminente Pericolo di Vita</t>
+  </si>
+  <si>
+    <t>2025-04-07 00:00:00.0</t>
   </si>
   <si>
     <t>311121</t>
@@ -6581,7 +6584,7 @@
         <v>331</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>9</v>
+        <v>461</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>10</v>
@@ -6592,10 +6595,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -6612,16 +6615,16 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>331</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>9</v>
+        <v>461</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>10</v>
@@ -6632,10 +6635,10 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
@@ -6652,10 +6655,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
@@ -6672,10 +6675,10 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
@@ -6692,10 +6695,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
@@ -6712,10 +6715,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -6732,10 +6735,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
@@ -6752,10 +6755,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -6772,10 +6775,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
@@ -6792,10 +6795,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>331</v>
@@ -6812,10 +6815,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
@@ -6832,10 +6835,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
@@ -6852,10 +6855,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
@@ -6872,10 +6875,10 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
@@ -6892,10 +6895,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
@@ -6912,10 +6915,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
@@ -6932,10 +6935,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
@@ -6952,10 +6955,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
@@ -6972,10 +6975,10 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
@@ -6992,13 +6995,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>9</v>
@@ -7012,10 +7015,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
@@ -7032,10 +7035,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
@@ -7052,10 +7055,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
@@ -7072,10 +7075,10 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
@@ -7092,10 +7095,10 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
@@ -7112,10 +7115,10 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
@@ -7132,10 +7135,10 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
@@ -7152,10 +7155,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
@@ -7172,16 +7175,16 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>331</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>10</v>
@@ -7192,10 +7195,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
@@ -7212,10 +7215,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -7232,10 +7235,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
@@ -7252,7 +7255,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>393</v>
@@ -7272,7 +7275,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>451</v>
@@ -7292,7 +7295,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>398</v>
@@ -7312,7 +7315,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>400</v>
@@ -7332,7 +7335,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>405</v>
@@ -7352,7 +7355,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>408</v>
@@ -7372,7 +7375,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>7</v>
@@ -7392,10 +7395,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -7412,10 +7415,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
@@ -7432,10 +7435,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
@@ -7452,10 +7455,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
@@ -7472,10 +7475,10 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
@@ -7492,10 +7495,10 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
@@ -7512,10 +7515,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
@@ -7532,10 +7535,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
@@ -7552,10 +7555,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
@@ -7572,10 +7575,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
@@ -7592,10 +7595,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>331</v>
@@ -7612,10 +7615,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
@@ -7632,10 +7635,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
@@ -7652,10 +7655,10 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
@@ -7672,10 +7675,10 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
@@ -7692,10 +7695,10 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
@@ -7712,10 +7715,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
@@ -7732,10 +7735,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>331</v>
@@ -7752,10 +7755,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
@@ -7772,7 +7775,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>393</v>
@@ -7792,7 +7795,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>451</v>
@@ -7812,7 +7815,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>398</v>
@@ -7832,7 +7835,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>400</v>
@@ -7852,7 +7855,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>405</v>
@@ -7872,7 +7875,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>408</v>
@@ -7892,13 +7895,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>9</v>
@@ -7912,7 +7915,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>7</v>
@@ -7932,10 +7935,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
@@ -7952,10 +7955,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
@@ -7972,10 +7975,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
@@ -7992,10 +7995,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
@@ -8012,10 +8015,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
@@ -8032,10 +8035,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
@@ -8052,10 +8055,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -8072,10 +8075,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
@@ -8092,10 +8095,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
@@ -8112,10 +8115,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
@@ -8132,10 +8135,10 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
@@ -8152,10 +8155,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
@@ -8172,10 +8175,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
@@ -8192,10 +8195,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
@@ -8212,10 +8215,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
@@ -8232,10 +8235,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
@@ -8252,10 +8255,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -8272,10 +8275,10 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
@@ -8292,10 +8295,10 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
@@ -8312,10 +8315,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
@@ -8332,10 +8335,10 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
@@ -8352,10 +8355,10 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
@@ -8372,10 +8375,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
@@ -8392,10 +8395,10 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
@@ -8412,10 +8415,10 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
@@ -8432,10 +8435,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
@@ -8452,10 +8455,10 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
@@ -8472,10 +8475,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
@@ -8492,10 +8495,10 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
@@ -8512,10 +8515,10 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
@@ -8532,10 +8535,10 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
@@ -8552,10 +8555,10 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
@@ -8572,10 +8575,10 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
@@ -8592,10 +8595,10 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
@@ -8612,10 +8615,10 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
@@ -8632,10 +8635,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
@@ -8652,10 +8655,10 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
@@ -8672,10 +8675,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
@@ -8692,10 +8695,10 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
@@ -8712,10 +8715,10 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
@@ -8732,10 +8735,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
@@ -8752,10 +8755,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
@@ -8772,10 +8775,10 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
@@ -8792,10 +8795,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
@@ -8812,10 +8815,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>387</v>
@@ -8832,10 +8835,10 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
@@ -8852,7 +8855,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>393</v>
@@ -8872,7 +8875,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>451</v>
@@ -8892,7 +8895,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>398</v>
@@ -8912,7 +8915,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>400</v>
@@ -8932,7 +8935,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>405</v>
@@ -8952,7 +8955,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>408</v>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="685">
   <si>
     <t>ID</t>
   </si>
@@ -1482,6 +1482,12 @@
   </si>
   <si>
     <t>Dichiarazione: Matrimonio con Rito Religioso Acattolico</t>
+  </si>
+  <si>
+    <t>323111</t>
+  </si>
+  <si>
+    <t>Matrimonio religioso tra cittadini stranieri residenti all'estero</t>
   </si>
   <si>
     <t>329999</t>
@@ -2119,7 +2125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G343"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6881,7 +6887,7 @@
         <v>491</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>9</v>
@@ -6910,7 +6916,7 @@
         <v>10</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240">
@@ -7001,7 +7007,7 @@
         <v>503</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>504</v>
+        <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>9</v>
@@ -7015,13 +7021,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>9</v>
@@ -7050,7 +7056,7 @@
         <v>10</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="247">
@@ -7181,10 +7187,10 @@
         <v>522</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>523</v>
+        <v>9</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>10</v>
@@ -7195,16 +7201,16 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="C254" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>10</v>
@@ -7258,7 +7264,7 @@
         <v>530</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>393</v>
+        <v>531</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
@@ -7270,15 +7276,15 @@
         <v>10</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
@@ -7295,10 +7301,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
@@ -7315,10 +7321,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
@@ -7335,13 +7341,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>9</v>
@@ -7355,13 +7361,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>9</v>
@@ -7375,13 +7381,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>9</v>
@@ -7390,15 +7396,15 @@
         <v>10</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>538</v>
+        <v>7</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -7410,7 +7416,7 @@
         <v>10</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265">
@@ -7530,7 +7536,7 @@
         <v>10</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271">
@@ -7601,7 +7607,7 @@
         <v>558</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>9</v>
@@ -7621,7 +7627,7 @@
         <v>560</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>9</v>
@@ -7650,7 +7656,7 @@
         <v>10</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="277">
@@ -7741,7 +7747,7 @@
         <v>572</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>9</v>
@@ -7761,7 +7767,7 @@
         <v>574</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>9</v>
@@ -7778,7 +7784,7 @@
         <v>575</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>393</v>
+        <v>576</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -7790,15 +7796,15 @@
         <v>10</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
@@ -7815,10 +7821,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
@@ -7835,10 +7841,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
@@ -7855,13 +7861,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>9</v>
@@ -7875,13 +7881,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>9</v>
@@ -7895,13 +7901,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>582</v>
+        <v>408</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>583</v>
+        <v>331</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>9</v>
@@ -7915,13 +7921,13 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C290" s="2" t="s">
-        <v>8</v>
+        <v>585</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>9</v>
@@ -7930,15 +7936,15 @@
         <v>10</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>586</v>
+        <v>7</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
@@ -7950,7 +7956,7 @@
         <v>10</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292">
@@ -8290,7 +8296,7 @@
         <v>10</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309">
@@ -8821,7 +8827,7 @@
         <v>674</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>9</v>
@@ -8841,7 +8847,7 @@
         <v>676</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>9</v>
@@ -8858,7 +8864,7 @@
         <v>677</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>393</v>
+        <v>678</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
@@ -8870,15 +8876,15 @@
         <v>10</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
@@ -8895,10 +8901,10 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
@@ -8915,10 +8921,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
@@ -8935,13 +8941,13 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>9</v>
@@ -8955,21 +8961,41 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B343" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="C343" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D342" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E342" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F342" s="2" t="s">
+      <c r="D343" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F343" s="2" t="s">
         <v>394</v>
       </c>
     </row>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="692">
   <si>
     <t>ID</t>
   </si>
@@ -1064,6 +1064,18 @@
     <t>2024-11-26 19:05:04.0</t>
   </si>
   <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>Trascrizione del decreto prefettizio o sentenza di cambiamento del nome e cognome con figli</t>
+  </si>
+  <si>
+    <t>1335</t>
+  </si>
+  <si>
+    <t>Trascrizione del decreto prefettizio o sentenza di cambiamento del nome e cognome con figli su richiesta dell'autorita' pubblica o consolare</t>
+  </si>
+  <si>
     <t>1341</t>
   </si>
   <si>
@@ -1125,6 +1137,15 @@
   </si>
   <si>
     <t>2024-11-26 19:03:04.0</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>Trascrizione di provvedimento straniero di cambio sesso</t>
+  </si>
+  <si>
+    <t>2025-06-25 12:06:42.0</t>
   </si>
   <si>
     <t>1361</t>
@@ -2125,7 +2146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G343"/>
+  <dimension ref="A1:G347"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5487,7 +5508,7 @@
         <v>351</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>9</v>
@@ -5507,7 +5528,7 @@
         <v>353</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>9</v>
@@ -5667,7 +5688,7 @@
         <v>369</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>370</v>
+        <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>9</v>
@@ -5681,10 +5702,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -5701,14 +5722,14 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D179" s="2" t="s">
         <v>9</v>
       </c>
@@ -5716,7 +5737,7 @@
         <v>10</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180">
@@ -5727,7 +5748,7 @@
         <v>376</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>8</v>
+        <v>377</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>9</v>
@@ -5741,10 +5762,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
@@ -5756,15 +5777,15 @@
         <v>10</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
@@ -5776,15 +5797,15 @@
         <v>10</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
@@ -5796,15 +5817,15 @@
         <v>10</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -5816,18 +5837,18 @@
         <v>10</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>9</v>
@@ -5847,7 +5868,7 @@
         <v>389</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>9</v>
@@ -5856,7 +5877,7 @@
         <v>10</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
@@ -5887,7 +5908,7 @@
         <v>393</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>394</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>9</v>
@@ -5896,7 +5917,7 @@
         <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="189">
@@ -5907,7 +5928,7 @@
         <v>396</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>8</v>
+        <v>394</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>9</v>
@@ -5916,7 +5937,7 @@
         <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="190">
@@ -5936,7 +5957,7 @@
         <v>10</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="191">
@@ -5956,27 +5977,27 @@
         <v>10</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="193">
@@ -5987,7 +6008,7 @@
         <v>405</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>9</v>
@@ -5996,18 +6017,18 @@
         <v>10</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="C194" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>9</v>
@@ -6016,19 +6037,19 @@
         <v>10</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="D195" s="2" t="s">
         <v>9</v>
       </c>
@@ -6036,7 +6057,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="196">
@@ -6047,7 +6068,7 @@
         <v>412</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>331</v>
+        <v>413</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>9</v>
@@ -6056,15 +6077,15 @@
         <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>331</v>
@@ -6076,15 +6097,15 @@
         <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>331</v>
@@ -6096,18 +6117,18 @@
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>9</v>
@@ -6116,18 +6137,18 @@
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>9</v>
@@ -6136,18 +6157,18 @@
         <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>14</v>
+        <v>401</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>9</v>
@@ -6156,15 +6177,15 @@
         <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>14</v>
+        <v>401</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>423</v>
+        <v>7</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
@@ -6176,15 +6197,15 @@
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
@@ -6201,10 +6222,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
@@ -6221,10 +6242,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -6236,15 +6257,15 @@
         <v>10</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
@@ -6256,15 +6277,15 @@
         <v>10</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
@@ -6276,21 +6297,21 @@
         <v>10</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>436</v>
+        <v>9</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>10</v>
@@ -6347,10 +6368,10 @@
         <v>442</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>9</v>
+        <v>443</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>10</v>
@@ -6361,10 +6382,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
@@ -6381,13 +6402,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>9</v>
@@ -6401,10 +6422,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
@@ -6421,10 +6442,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
@@ -6436,18 +6457,18 @@
         <v>10</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>9</v>
@@ -6456,15 +6477,15 @@
         <v>10</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
@@ -6476,12 +6497,12 @@
         <v>10</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>400</v>
@@ -6496,18 +6517,18 @@
         <v>10</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>9</v>
@@ -6516,18 +6537,18 @@
         <v>10</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>9</v>
@@ -6536,15 +6557,15 @@
         <v>10</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>7</v>
+        <v>407</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
@@ -6556,18 +6577,18 @@
         <v>10</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>8</v>
+        <v>413</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>9</v>
@@ -6576,35 +6597,35 @@
         <v>10</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>14</v>
+        <v>401</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>331</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>461</v>
+        <v>9</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>14</v>
+        <v>401</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>463</v>
+        <v>7</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -6616,7 +6637,7 @@
         <v>10</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225">
@@ -6627,10 +6648,10 @@
         <v>465</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>461</v>
+        <v>9</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>10</v>
@@ -6647,10 +6668,10 @@
         <v>467</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>9</v>
+        <v>468</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>10</v>
@@ -6661,10 +6682,10 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
@@ -6681,16 +6702,16 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>9</v>
+        <v>468</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>10</v>
@@ -6701,10 +6722,10 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
@@ -6721,10 +6742,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -6741,10 +6762,10 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
@@ -6761,10 +6782,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -6781,10 +6802,10 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
@@ -6801,13 +6822,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>9</v>
@@ -6821,10 +6842,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
@@ -6841,10 +6862,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
@@ -6861,13 +6882,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>9</v>
@@ -6881,13 +6902,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>9</v>
@@ -6901,10 +6922,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
@@ -6921,10 +6942,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
@@ -6936,18 +6957,18 @@
         <v>10</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>9</v>
@@ -6956,18 +6977,18 @@
         <v>10</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="C242" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>9</v>
@@ -6976,16 +6997,16 @@
         <v>10</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
@@ -6996,15 +7017,15 @@
         <v>10</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
@@ -7021,13 +7042,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="C245" s="2" t="s">
-        <v>506</v>
+        <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>9</v>
@@ -7041,10 +7062,10 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
@@ -7061,10 +7082,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
@@ -7076,15 +7097,15 @@
         <v>10</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
@@ -7096,19 +7117,19 @@
         <v>10</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D249" s="2" t="s">
         <v>9</v>
       </c>
@@ -7116,16 +7137,16 @@
         <v>10</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
       </c>
@@ -7136,15 +7157,15 @@
         <v>10</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
@@ -7161,10 +7182,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
@@ -7181,10 +7202,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
@@ -7201,16 +7222,16 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="C254" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>525</v>
+        <v>9</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>10</v>
@@ -7221,10 +7242,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -7241,10 +7262,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
@@ -7261,10 +7282,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
@@ -7281,22 +7302,22 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259">
@@ -7304,7 +7325,7 @@
         <v>533</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>451</v>
+        <v>534</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
@@ -7316,15 +7337,15 @@
         <v>10</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
@@ -7336,15 +7357,15 @@
         <v>10</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>400</v>
+        <v>538</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
@@ -7356,18 +7377,18 @@
         <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>9</v>
@@ -7376,18 +7397,18 @@
         <v>10</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>9</v>
@@ -7396,15 +7417,15 @@
         <v>10</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>7</v>
+        <v>405</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -7416,15 +7437,15 @@
         <v>10</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>540</v>
+        <v>407</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
@@ -7436,18 +7457,18 @@
         <v>10</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>14</v>
+        <v>401</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>542</v>
+        <v>412</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>8</v>
+        <v>413</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>9</v>
@@ -7456,18 +7477,18 @@
         <v>10</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>14</v>
+        <v>401</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>544</v>
+        <v>415</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>9</v>
@@ -7476,7 +7497,7 @@
         <v>10</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>14</v>
+        <v>401</v>
       </c>
     </row>
     <row r="268">
@@ -7484,7 +7505,7 @@
         <v>545</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>546</v>
+        <v>7</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
@@ -7496,15 +7517,15 @@
         <v>10</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
@@ -7521,10 +7542,10 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
@@ -7541,11 +7562,11 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
@@ -7556,16 +7577,16 @@
         <v>10</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
@@ -7576,16 +7597,16 @@
         <v>10</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
@@ -7596,16 +7617,16 @@
         <v>10</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
@@ -7616,18 +7637,18 @@
         <v>10</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="C275" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>9</v>
@@ -7641,10 +7662,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
@@ -7661,11 +7682,11 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
@@ -7676,16 +7697,16 @@
         <v>10</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
@@ -7696,18 +7717,18 @@
         <v>10</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="C279" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>9</v>
@@ -7716,16 +7737,16 @@
         <v>10</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
@@ -7736,15 +7757,15 @@
         <v>10</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -7761,13 +7782,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>574</v>
-      </c>
       <c r="C282" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>9</v>
@@ -7781,10 +7802,10 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -7801,11 +7822,11 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
@@ -7816,7 +7837,7 @@
         <v>10</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285">
@@ -7824,7 +7845,7 @@
         <v>578</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>451</v>
+        <v>579</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
@@ -7836,18 +7857,18 @@
         <v>10</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>398</v>
+        <v>581</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>9</v>
@@ -7856,15 +7877,15 @@
         <v>10</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
@@ -7876,18 +7897,18 @@
         <v>10</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>9</v>
@@ -7896,18 +7917,18 @@
         <v>10</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>9</v>
@@ -7916,18 +7937,18 @@
         <v>10</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>584</v>
+        <v>405</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>585</v>
+        <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>9</v>
@@ -7936,15 +7957,15 @@
         <v>10</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>7</v>
+        <v>407</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
@@ -7956,18 +7977,18 @@
         <v>10</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>588</v>
+        <v>412</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>8</v>
+        <v>413</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>9</v>
@@ -7976,7 +7997,7 @@
         <v>10</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>14</v>
+        <v>401</v>
       </c>
     </row>
     <row r="293">
@@ -7984,10 +8005,10 @@
         <v>589</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>590</v>
+        <v>415</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>9</v>
@@ -7996,19 +8017,19 @@
         <v>10</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>14</v>
+        <v>401</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="C294" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D294" s="2" t="s">
         <v>9</v>
       </c>
@@ -8016,7 +8037,7 @@
         <v>10</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>14</v>
+        <v>401</v>
       </c>
     </row>
     <row r="295">
@@ -8024,7 +8045,7 @@
         <v>593</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>594</v>
+        <v>7</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
@@ -8036,15 +8057,15 @@
         <v>10</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
@@ -8061,10 +8082,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -8081,10 +8102,10 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
@@ -8101,10 +8122,10 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
@@ -8121,10 +8142,10 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
@@ -8141,10 +8162,10 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
@@ -8161,10 +8182,10 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
@@ -8181,10 +8202,10 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
@@ -8201,10 +8222,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
@@ -8221,10 +8242,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
@@ -8241,10 +8262,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
@@ -8261,10 +8282,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -8281,10 +8302,10 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
@@ -8301,11 +8322,11 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
@@ -8316,16 +8337,16 @@
         <v>10</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
@@ -8336,16 +8357,16 @@
         <v>10</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B311" s="2" t="s">
-        <v>626</v>
-      </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
@@ -8356,16 +8377,16 @@
         <v>10</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>628</v>
-      </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
@@ -8376,15 +8397,15 @@
         <v>10</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
@@ -8401,10 +8422,10 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
@@ -8421,10 +8442,10 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
@@ -8441,10 +8462,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
@@ -8461,10 +8482,10 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
@@ -8481,10 +8502,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
@@ -8501,10 +8522,10 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
@@ -8521,10 +8542,10 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
@@ -8541,10 +8562,10 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
@@ -8561,10 +8582,10 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
@@ -8581,10 +8602,10 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
@@ -8601,10 +8622,10 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
@@ -8621,10 +8642,10 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
@@ -8641,10 +8662,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
@@ -8661,10 +8682,10 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
@@ -8681,10 +8702,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
@@ -8701,10 +8722,10 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
@@ -8721,10 +8742,10 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
@@ -8741,10 +8762,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
@@ -8761,10 +8782,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
@@ -8781,10 +8802,10 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
@@ -8801,10 +8822,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
@@ -8821,10 +8842,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
@@ -8841,13 +8862,13 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>676</v>
-      </c>
       <c r="C336" s="2" t="s">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>9</v>
@@ -8861,10 +8882,10 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
@@ -8881,11 +8902,11 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B338" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
@@ -8896,7 +8917,7 @@
         <v>10</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="339">
@@ -8904,7 +8925,7 @@
         <v>680</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>451</v>
+        <v>681</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
@@ -8916,18 +8937,18 @@
         <v>10</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>398</v>
+        <v>683</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>8</v>
+        <v>394</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>9</v>
@@ -8936,15 +8957,15 @@
         <v>10</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>400</v>
+        <v>685</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
@@ -8956,18 +8977,18 @@
         <v>10</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>9</v>
@@ -8976,27 +8997,107 @@
         <v>10</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="C343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D343" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>394</v>
+      <c r="D347" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="694">
   <si>
     <t>ID</t>
   </si>
@@ -968,6 +968,15 @@
     <t>Riconoscimento: Consenso materno al riconoscimento paterno del figlio infraquattordicenne</t>
   </si>
   <si>
+    <t>12422300</t>
+  </si>
+  <si>
+    <t>Consenso materno al riconoscimento paterno del nascituro</t>
+  </si>
+  <si>
+    <t>2000-01-01 00:00:00.0</t>
+  </si>
+  <si>
     <t>12999999</t>
   </si>
   <si>
@@ -1005,9 +1014,6 @@
   </si>
   <si>
     <t>Trascrizione atto nascita su richiesta dell'interessato per art. 19</t>
-  </si>
-  <si>
-    <t>2000-01-01 00:00:00.0</t>
   </si>
   <si>
     <t>1321</t>
@@ -2146,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G347"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5228,7 +5234,7 @@
         <v>319</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>9</v>
@@ -5242,10 +5248,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
@@ -5257,7 +5263,7 @@
         <v>10</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156">
@@ -5277,35 +5283,35 @@
         <v>10</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
@@ -5317,18 +5323,18 @@
         <v>10</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>9</v>
@@ -5337,7 +5343,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160">
@@ -5348,7 +5354,7 @@
         <v>333</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>9</v>
@@ -5357,7 +5363,7 @@
         <v>10</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161">
@@ -5377,7 +5383,7 @@
         <v>10</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162">
@@ -5397,7 +5403,7 @@
         <v>10</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163">
@@ -5417,7 +5423,7 @@
         <v>10</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164">
@@ -5437,7 +5443,7 @@
         <v>10</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165">
@@ -5457,7 +5463,7 @@
         <v>10</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166">
@@ -5468,7 +5474,7 @@
         <v>345</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>346</v>
+        <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>9</v>
@@ -5477,19 +5483,19 @@
         <v>10</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="D167" s="2" t="s">
         <v>9</v>
       </c>
@@ -5497,19 +5503,19 @@
         <v>10</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="D168" s="2" t="s">
         <v>9</v>
       </c>
@@ -5517,7 +5523,7 @@
         <v>10</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169">
@@ -5528,7 +5534,7 @@
         <v>353</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>9</v>
@@ -5537,7 +5543,7 @@
         <v>10</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170">
@@ -5548,7 +5554,7 @@
         <v>355</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>9</v>
@@ -5557,7 +5563,7 @@
         <v>10</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="171">
@@ -5577,7 +5583,7 @@
         <v>10</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172">
@@ -5597,7 +5603,7 @@
         <v>10</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="173">
@@ -5617,7 +5623,7 @@
         <v>10</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174">
@@ -5637,7 +5643,7 @@
         <v>10</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175">
@@ -5657,7 +5663,7 @@
         <v>10</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176">
@@ -5677,7 +5683,7 @@
         <v>10</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177">
@@ -5697,7 +5703,7 @@
         <v>10</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178">
@@ -5717,7 +5723,7 @@
         <v>10</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179">
@@ -5728,7 +5734,7 @@
         <v>373</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>374</v>
+        <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>9</v>
@@ -5737,19 +5743,19 @@
         <v>10</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="D180" s="2" t="s">
         <v>9</v>
       </c>
@@ -5757,19 +5763,19 @@
         <v>10</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D181" s="2" t="s">
         <v>9</v>
       </c>
@@ -5777,7 +5783,7 @@
         <v>10</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182">
@@ -5797,7 +5803,7 @@
         <v>10</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183">
@@ -5817,7 +5823,7 @@
         <v>10</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
@@ -5837,7 +5843,7 @@
         <v>10</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185">
@@ -5857,7 +5863,7 @@
         <v>10</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -5877,7 +5883,7 @@
         <v>10</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="187">
@@ -5897,7 +5903,7 @@
         <v>10</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
@@ -5908,7 +5914,7 @@
         <v>393</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>394</v>
+        <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>9</v>
@@ -5917,19 +5923,19 @@
         <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="D189" s="2" t="s">
         <v>9</v>
       </c>
@@ -5937,7 +5943,7 @@
         <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190">
@@ -5948,7 +5954,7 @@
         <v>398</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>8</v>
+        <v>396</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>9</v>
@@ -5957,7 +5963,7 @@
         <v>10</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="191">
@@ -5977,27 +5983,27 @@
         <v>10</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="193">
@@ -6017,7 +6023,7 @@
         <v>10</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="194">
@@ -6037,7 +6043,7 @@
         <v>10</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="195">
@@ -6048,7 +6054,7 @@
         <v>409</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>410</v>
+        <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>9</v>
@@ -6057,19 +6063,19 @@
         <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="D196" s="2" t="s">
         <v>9</v>
       </c>
@@ -6077,19 +6083,19 @@
         <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="D197" s="2" t="s">
         <v>9</v>
       </c>
@@ -6097,7 +6103,7 @@
         <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="198">
@@ -6108,7 +6114,7 @@
         <v>417</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>9</v>
@@ -6117,7 +6123,7 @@
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="199">
@@ -6128,7 +6134,7 @@
         <v>419</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>9</v>
@@ -6137,7 +6143,7 @@
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="200">
@@ -6148,7 +6154,7 @@
         <v>421</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>9</v>
@@ -6157,7 +6163,7 @@
         <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="201">
@@ -6168,7 +6174,7 @@
         <v>423</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>9</v>
@@ -6177,7 +6183,7 @@
         <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="202">
@@ -6185,10 +6191,10 @@
         <v>424</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>9</v>
@@ -6197,15 +6203,15 @@
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>426</v>
+        <v>7</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
@@ -6217,7 +6223,7 @@
         <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204">
@@ -6317,7 +6323,7 @@
         <v>10</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209">
@@ -6337,7 +6343,7 @@
         <v>10</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="210">
@@ -6357,7 +6363,7 @@
         <v>10</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="211">
@@ -6368,36 +6374,36 @@
         <v>442</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>443</v>
+        <v>9</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="C212" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="213">
@@ -6417,7 +6423,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="214">
@@ -6437,7 +6443,7 @@
         <v>10</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="215">
@@ -6457,7 +6463,7 @@
         <v>10</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="216">
@@ -6468,7 +6474,7 @@
         <v>453</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>9</v>
@@ -6477,7 +6483,7 @@
         <v>10</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="217">
@@ -6488,7 +6494,7 @@
         <v>455</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>9</v>
@@ -6497,7 +6503,7 @@
         <v>10</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="218">
@@ -6505,7 +6511,7 @@
         <v>456</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
@@ -6517,15 +6523,15 @@
         <v>10</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
@@ -6537,7 +6543,7 @@
         <v>10</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="220">
@@ -6545,7 +6551,7 @@
         <v>459</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
@@ -6557,12 +6563,12 @@
         <v>10</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>407</v>
@@ -6577,18 +6583,18 @@
         <v>10</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>413</v>
+        <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>9</v>
@@ -6597,19 +6603,19 @@
         <v>10</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="D223" s="2" t="s">
         <v>9</v>
       </c>
@@ -6617,18 +6623,18 @@
         <v>10</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>7</v>
+        <v>417</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>9</v>
@@ -6637,15 +6643,15 @@
         <v>10</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>465</v>
+        <v>7</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
@@ -6657,7 +6663,7 @@
         <v>10</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226">
@@ -6668,10 +6674,10 @@
         <v>467</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>468</v>
+        <v>9</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>10</v>
@@ -6682,16 +6688,16 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C227" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>10</v>
@@ -6708,10 +6714,10 @@
         <v>472</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>468</v>
+        <v>9</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>10</v>
@@ -6728,10 +6734,10 @@
         <v>474</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>9</v>
+        <v>470</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>10</v>
@@ -6888,7 +6894,7 @@
         <v>490</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>9</v>
@@ -6908,7 +6914,7 @@
         <v>492</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>9</v>
@@ -6968,7 +6974,7 @@
         <v>498</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>9</v>
@@ -6982,13 +6988,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>9</v>
@@ -7008,7 +7014,7 @@
         <v>500</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>9</v>
@@ -7037,7 +7043,7 @@
         <v>10</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245">
@@ -7057,7 +7063,7 @@
         <v>10</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="246">
@@ -7077,7 +7083,7 @@
         <v>10</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="247">
@@ -7097,7 +7103,7 @@
         <v>10</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="248">
@@ -7117,7 +7123,7 @@
         <v>10</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="249">
@@ -7128,7 +7134,7 @@
         <v>512</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>513</v>
+        <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>9</v>
@@ -7137,19 +7143,19 @@
         <v>10</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D250" s="2" t="s">
         <v>9</v>
       </c>
@@ -7157,7 +7163,7 @@
         <v>10</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="251">
@@ -7177,7 +7183,7 @@
         <v>10</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="252">
@@ -7308,10 +7314,10 @@
         <v>531</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>532</v>
+        <v>9</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>10</v>
@@ -7322,16 +7328,16 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="C259" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>10</v>
@@ -7385,7 +7391,7 @@
         <v>539</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
@@ -7397,15 +7403,15 @@
         <v>10</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>401</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
@@ -7417,15 +7423,15 @@
         <v>10</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -7437,12 +7443,12 @@
         <v>10</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>407</v>
@@ -7457,18 +7463,18 @@
         <v>10</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>413</v>
+        <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>9</v>
@@ -7477,19 +7483,19 @@
         <v>10</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="D267" s="2" t="s">
         <v>9</v>
       </c>
@@ -7497,18 +7503,18 @@
         <v>10</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>7</v>
+        <v>417</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>9</v>
@@ -7517,15 +7523,15 @@
         <v>10</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>547</v>
+        <v>7</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
@@ -7537,7 +7543,7 @@
         <v>10</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270">
@@ -7657,7 +7663,7 @@
         <v>10</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
@@ -7677,7 +7683,7 @@
         <v>10</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="277">
@@ -7697,7 +7703,7 @@
         <v>10</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="278">
@@ -7717,7 +7723,7 @@
         <v>10</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="279">
@@ -7728,7 +7734,7 @@
         <v>567</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>9</v>
@@ -7737,7 +7743,7 @@
         <v>10</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="280">
@@ -7748,7 +7754,7 @@
         <v>569</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>9</v>
@@ -7757,7 +7763,7 @@
         <v>10</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="281">
@@ -7777,7 +7783,7 @@
         <v>10</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="282">
@@ -7868,7 +7874,7 @@
         <v>581</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>9</v>
@@ -7888,7 +7894,7 @@
         <v>583</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>9</v>
@@ -7905,7 +7911,7 @@
         <v>584</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>400</v>
+        <v>585</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
@@ -7917,15 +7923,15 @@
         <v>10</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>401</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
@@ -7937,15 +7943,15 @@
         <v>10</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -7957,12 +7963,12 @@
         <v>10</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>407</v>
@@ -7977,18 +7983,18 @@
         <v>10</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>413</v>
+        <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>9</v>
@@ -7997,19 +8003,19 @@
         <v>10</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="D293" s="2" t="s">
         <v>9</v>
       </c>
@@ -8017,18 +8023,18 @@
         <v>10</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>591</v>
+        <v>417</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>592</v>
+        <v>320</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>9</v>
@@ -8037,18 +8043,18 @@
         <v>10</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C295" s="2" t="s">
-        <v>8</v>
+        <v>594</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>9</v>
@@ -8057,15 +8063,15 @@
         <v>10</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>595</v>
+        <v>7</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
@@ -8077,7 +8083,7 @@
         <v>10</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297">
@@ -8417,7 +8423,7 @@
         <v>10</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314">
@@ -8437,7 +8443,7 @@
         <v>10</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="315">
@@ -8457,7 +8463,7 @@
         <v>10</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="316">
@@ -8477,7 +8483,7 @@
         <v>10</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="317">
@@ -8497,7 +8503,7 @@
         <v>10</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="318">
@@ -8517,7 +8523,7 @@
         <v>10</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="319">
@@ -8537,7 +8543,7 @@
         <v>10</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="320">
@@ -8557,7 +8563,7 @@
         <v>10</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="321">
@@ -8577,7 +8583,7 @@
         <v>10</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="322">
@@ -8597,7 +8603,7 @@
         <v>10</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="323">
@@ -8617,7 +8623,7 @@
         <v>10</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="324">
@@ -8637,7 +8643,7 @@
         <v>10</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="325">
@@ -8657,7 +8663,7 @@
         <v>10</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326">
@@ -8677,7 +8683,7 @@
         <v>10</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327">
@@ -8697,7 +8703,7 @@
         <v>10</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328">
@@ -8717,7 +8723,7 @@
         <v>10</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="329">
@@ -8737,7 +8743,7 @@
         <v>10</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="330">
@@ -8757,7 +8763,7 @@
         <v>10</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="331">
@@ -8777,7 +8783,7 @@
         <v>10</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="332">
@@ -8797,7 +8803,7 @@
         <v>10</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="333">
@@ -8817,7 +8823,7 @@
         <v>10</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="334">
@@ -8837,7 +8843,7 @@
         <v>10</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="335">
@@ -8857,7 +8863,7 @@
         <v>10</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336">
@@ -8877,7 +8883,7 @@
         <v>10</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="337">
@@ -8897,7 +8903,7 @@
         <v>10</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="338">
@@ -8917,7 +8923,7 @@
         <v>10</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="339">
@@ -8937,7 +8943,7 @@
         <v>10</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="340">
@@ -8948,7 +8954,7 @@
         <v>683</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>394</v>
+        <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>9</v>
@@ -8957,7 +8963,7 @@
         <v>10</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="341">
@@ -8968,7 +8974,7 @@
         <v>685</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>8</v>
+        <v>396</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>9</v>
@@ -8977,7 +8983,7 @@
         <v>10</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="342">
@@ -8985,7 +8991,7 @@
         <v>686</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>400</v>
+        <v>687</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
@@ -8997,15 +9003,15 @@
         <v>10</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
@@ -9017,15 +9023,15 @@
         <v>10</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
@@ -9037,12 +9043,12 @@
         <v>10</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>407</v>
@@ -9057,18 +9063,18 @@
         <v>10</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>413</v>
+        <v>8</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>9</v>
@@ -9077,19 +9083,19 @@
         <v>10</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B347" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C347" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="D347" s="2" t="s">
         <v>9</v>
       </c>
@@ -9097,7 +9103,27 @@
         <v>10</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="707">
   <si>
     <t>ID</t>
   </si>
@@ -1016,6 +1016,15 @@
     <t>Trascrizione atto nascita su richiesta dell'interessato per art. 19</t>
   </si>
   <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>Trascrizione atto di nascita da struttura sanitaria</t>
+  </si>
+  <si>
+    <t>2024-01-01 00:00:00.0</t>
+  </si>
+  <si>
     <t>1321</t>
   </si>
   <si>
@@ -1319,6 +1328,18 @@
     <t>Dichiarazione di morte: Decesso relativo a cadavere rinvenuto non identificato</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>Decesso in abitazione o in luogo pubblico con documentazione da Struttura Sanitaria (decreto Nascita/Morte)</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>Decesso in ospedale o casa di cura con documentazione da Struttura Sanitaria (decreto Nascita/Morte)</t>
+  </si>
+  <si>
     <t>2199</t>
   </si>
   <si>
@@ -1352,6 +1373,12 @@
     <t>2024-06-25 00:00:00.0</t>
   </si>
   <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>Trascrizione di decesso reso da pubblica autorita'</t>
+  </si>
+  <si>
     <t>2221</t>
   </si>
   <si>
@@ -1637,6 +1664,12 @@
     <t>Caso d'uso di servizio riconciliazioni</t>
   </si>
   <si>
+    <t>365699</t>
+  </si>
+  <si>
+    <t>Acquisizione sentenza di divorzio da tribunale italiano</t>
+  </si>
+  <si>
     <t>366999</t>
   </si>
   <si>
@@ -1764,6 +1797,12 @@
   </si>
   <si>
     <t>Accordo di scioglimento di unione civile con negoziazione assistita</t>
+  </si>
+  <si>
+    <t>447000</t>
+  </si>
+  <si>
+    <t>Accordo di modifica delle condizioni di scioglimento dell'unione civile</t>
   </si>
   <si>
     <t>449999</t>
@@ -2152,7 +2191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G348"/>
+  <dimension ref="A1:G354"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5374,7 +5413,7 @@
         <v>335</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>9</v>
@@ -5388,10 +5427,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
@@ -5408,10 +5447,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
@@ -5428,10 +5467,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
@@ -5448,10 +5487,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
@@ -5468,10 +5507,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
@@ -5488,13 +5527,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>348</v>
+        <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>9</v>
@@ -5534,7 +5573,7 @@
         <v>353</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>9</v>
@@ -5548,10 +5587,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>320</v>
@@ -5568,13 +5607,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>9</v>
@@ -5588,10 +5627,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
@@ -5608,10 +5647,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
@@ -5628,10 +5667,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
@@ -5648,10 +5687,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
@@ -5668,10 +5707,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
@@ -5688,10 +5727,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
@@ -5708,10 +5747,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -5728,10 +5767,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
@@ -5748,13 +5787,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>376</v>
+        <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>9</v>
@@ -5794,7 +5833,7 @@
         <v>381</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>382</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>9</v>
@@ -5808,10 +5847,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
@@ -5823,15 +5862,15 @@
         <v>10</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -5843,15 +5882,15 @@
         <v>10</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
@@ -5863,15 +5902,15 @@
         <v>10</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
@@ -5883,15 +5922,15 @@
         <v>10</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
@@ -5903,15 +5942,15 @@
         <v>10</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
@@ -5923,18 +5962,18 @@
         <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>396</v>
+        <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>9</v>
@@ -5954,7 +5993,7 @@
         <v>398</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>9</v>
@@ -5968,13 +6007,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>9</v>
@@ -5988,10 +6027,10 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
@@ -6003,7 +6042,7 @@
         <v>10</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193">
@@ -6023,35 +6062,35 @@
         <v>10</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
@@ -6063,18 +6102,18 @@
         <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>412</v>
+        <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>9</v>
@@ -6083,7 +6122,7 @@
         <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="197">
@@ -6103,7 +6142,7 @@
         <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="198">
@@ -6114,7 +6153,7 @@
         <v>417</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>9</v>
@@ -6123,15 +6162,15 @@
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>320</v>
@@ -6143,15 +6182,15 @@
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>320</v>
@@ -6163,15 +6202,15 @@
         <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>320</v>
@@ -6183,15 +6222,15 @@
         <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>320</v>
@@ -6203,18 +6242,18 @@
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>7</v>
+        <v>428</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>9</v>
@@ -6223,15 +6262,15 @@
         <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>428</v>
+        <v>7</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
@@ -6243,15 +6282,15 @@
         <v>10</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -6268,10 +6307,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
@@ -6288,10 +6327,10 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
@@ -6308,10 +6347,10 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
@@ -6328,13 +6367,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>9</v>
@@ -6343,18 +6382,18 @@
         <v>10</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>9</v>
@@ -6363,15 +6402,15 @@
         <v>10</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
@@ -6383,21 +6422,21 @@
         <v>10</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>10</v>
@@ -6454,10 +6493,10 @@
         <v>451</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>9</v>
+        <v>452</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>10</v>
@@ -6468,13 +6507,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>9</v>
@@ -6488,13 +6527,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>9</v>
@@ -6508,10 +6547,10 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
@@ -6528,10 +6567,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
@@ -6543,15 +6582,15 @@
         <v>10</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
@@ -6563,18 +6602,18 @@
         <v>10</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>9</v>
@@ -6583,15 +6622,15 @@
         <v>10</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
@@ -6603,18 +6642,18 @@
         <v>10</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>415</v>
+        <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>9</v>
@@ -6623,18 +6662,18 @@
         <v>10</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>9</v>
@@ -6643,15 +6682,15 @@
         <v>10</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>7</v>
+        <v>410</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
@@ -6663,15 +6702,15 @@
         <v>10</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
@@ -6683,38 +6722,38 @@
         <v>10</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>470</v>
+        <v>9</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>9</v>
@@ -6723,27 +6762,27 @@
         <v>10</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>474</v>
+        <v>7</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>470</v>
+        <v>9</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230">
@@ -6774,10 +6813,10 @@
         <v>478</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>9</v>
+        <v>479</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
@@ -6788,10 +6827,10 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -6808,16 +6847,16 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>9</v>
+        <v>479</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>10</v>
@@ -6828,10 +6867,10 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
@@ -6848,10 +6887,10 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
@@ -6868,10 +6907,10 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
@@ -6888,10 +6927,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
@@ -6908,13 +6947,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>9</v>
@@ -6928,10 +6967,10 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
@@ -6948,10 +6987,10 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
@@ -6968,10 +7007,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
@@ -6988,10 +7027,10 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>320</v>
@@ -7008,13 +7047,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>9</v>
@@ -7028,10 +7067,10 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
@@ -7048,10 +7087,10 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
@@ -7063,18 +7102,18 @@
         <v>10</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>9</v>
@@ -7083,18 +7122,18 @@
         <v>10</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>9</v>
@@ -7103,15 +7142,15 @@
         <v>10</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
@@ -7123,15 +7162,15 @@
         <v>10</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
@@ -7148,13 +7187,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>515</v>
+        <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>9</v>
@@ -7203,7 +7242,7 @@
         <v>10</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="253">
@@ -7223,7 +7262,7 @@
         <v>10</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="254">
@@ -7234,7 +7273,7 @@
         <v>523</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>8</v>
+        <v>524</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>9</v>
@@ -7243,15 +7282,15 @@
         <v>10</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -7263,15 +7302,15 @@
         <v>10</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
@@ -7288,10 +7327,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
@@ -7308,10 +7347,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
@@ -7328,16 +7367,16 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>534</v>
+        <v>9</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>10</v>
@@ -7411,27 +7450,27 @@
         <v>541</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>402</v>
+        <v>542</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>9</v>
+        <v>543</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>403</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -7443,15 +7482,15 @@
         <v>10</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>403</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>407</v>
+        <v>547</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
@@ -7463,15 +7502,15 @@
         <v>10</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>403</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>409</v>
+        <v>549</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
@@ -7483,18 +7522,18 @@
         <v>10</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>403</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>414</v>
+        <v>551</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>415</v>
+        <v>320</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>9</v>
@@ -7503,18 +7542,18 @@
         <v>10</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>9</v>
@@ -7523,15 +7562,15 @@
         <v>10</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
@@ -7543,15 +7582,15 @@
         <v>10</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>549</v>
+        <v>410</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
@@ -7563,15 +7602,15 @@
         <v>10</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>551</v>
+        <v>412</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
@@ -7583,18 +7622,18 @@
         <v>10</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>553</v>
+        <v>417</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>8</v>
+        <v>418</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>9</v>
@@ -7603,18 +7642,18 @@
         <v>10</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>555</v>
+        <v>420</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>9</v>
@@ -7623,15 +7662,15 @@
         <v>10</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>557</v>
+        <v>7</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
@@ -7643,15 +7682,15 @@
         <v>10</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
@@ -7668,10 +7707,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
@@ -7683,15 +7722,15 @@
         <v>10</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
@@ -7703,15 +7742,15 @@
         <v>10</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
@@ -7723,15 +7762,15 @@
         <v>10</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
@@ -7743,18 +7782,18 @@
         <v>10</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>9</v>
@@ -7763,15 +7802,15 @@
         <v>10</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
@@ -7788,10 +7827,10 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
@@ -7803,15 +7842,15 @@
         <v>10</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -7823,15 +7862,15 @@
         <v>10</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
@@ -7843,18 +7882,18 @@
         <v>10</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>9</v>
@@ -7863,15 +7902,15 @@
         <v>10</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
@@ -7883,18 +7922,18 @@
         <v>10</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>9</v>
@@ -7908,10 +7947,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
@@ -7928,10 +7967,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>402</v>
+        <v>588</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
@@ -7943,15 +7982,15 @@
         <v>10</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>403</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>460</v>
+        <v>590</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -7963,15 +8002,15 @@
         <v>10</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>403</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>407</v>
+        <v>592</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
@@ -7983,18 +8022,18 @@
         <v>10</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>403</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>409</v>
+        <v>594</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>9</v>
@@ -8003,18 +8042,18 @@
         <v>10</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>403</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>414</v>
+        <v>596</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>415</v>
+        <v>336</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>9</v>
@@ -8023,18 +8062,18 @@
         <v>10</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>417</v>
+        <v>598</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>9</v>
@@ -8043,18 +8082,18 @@
         <v>10</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>403</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>593</v>
+        <v>405</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>594</v>
+        <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>9</v>
@@ -8063,15 +8102,15 @@
         <v>10</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
@@ -8083,15 +8122,15 @@
         <v>10</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>597</v>
+        <v>410</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -8103,15 +8142,15 @@
         <v>10</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>599</v>
+        <v>412</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
@@ -8123,18 +8162,18 @@
         <v>10</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>601</v>
+        <v>417</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>8</v>
+        <v>418</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>9</v>
@@ -8143,18 +8182,18 @@
         <v>10</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>603</v>
+        <v>420</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>9</v>
@@ -8163,18 +8202,18 @@
         <v>10</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>8</v>
+        <v>607</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>9</v>
@@ -8183,15 +8222,15 @@
         <v>10</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>607</v>
+        <v>7</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
@@ -8203,15 +8242,15 @@
         <v>10</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
@@ -8228,10 +8267,10 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
@@ -8248,10 +8287,10 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
@@ -8268,10 +8307,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
@@ -8288,10 +8327,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -8308,10 +8347,10 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
@@ -8328,10 +8367,10 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
@@ -8348,10 +8387,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
@@ -8368,10 +8407,10 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
@@ -8388,10 +8427,10 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
@@ -8408,10 +8447,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
@@ -8428,10 +8467,10 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
@@ -8443,15 +8482,15 @@
         <v>10</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
@@ -8463,15 +8502,15 @@
         <v>10</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
@@ -8483,15 +8522,15 @@
         <v>10</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
@@ -8503,15 +8542,15 @@
         <v>10</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
@@ -8523,15 +8562,15 @@
         <v>10</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
@@ -8543,15 +8582,15 @@
         <v>10</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
@@ -8568,10 +8607,10 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
@@ -8588,10 +8627,10 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
@@ -8608,10 +8647,10 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
@@ -8628,10 +8667,10 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
@@ -8648,10 +8687,10 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
@@ -8668,10 +8707,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
@@ -8688,10 +8727,10 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
@@ -8708,10 +8747,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
@@ -8728,10 +8767,10 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
@@ -8748,10 +8787,10 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
@@ -8768,10 +8807,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
@@ -8788,10 +8827,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
@@ -8808,10 +8847,10 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
@@ -8828,10 +8867,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
@@ -8848,10 +8887,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
@@ -8868,10 +8907,10 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
@@ -8888,10 +8927,10 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
@@ -8908,10 +8947,10 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
@@ -8928,10 +8967,10 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
@@ -8948,10 +8987,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
@@ -8968,13 +9007,13 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>396</v>
+        <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>9</v>
@@ -8988,10 +9027,10 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
@@ -9008,10 +9047,10 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>402</v>
+        <v>690</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
@@ -9023,15 +9062,15 @@
         <v>10</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>460</v>
+        <v>692</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
@@ -9043,15 +9082,15 @@
         <v>10</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>407</v>
+        <v>694</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>8</v>
@@ -9063,15 +9102,15 @@
         <v>10</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>409</v>
+        <v>696</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>8</v>
@@ -9083,18 +9122,18 @@
         <v>10</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>414</v>
+        <v>698</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>9</v>
@@ -9103,27 +9142,147 @@
         <v>10</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C348" s="2" t="s">
+      <c r="C353" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D348" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E348" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>403</v>
+      <c r="D354" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="724">
   <si>
     <t>ID</t>
   </si>
@@ -1016,6 +1016,15 @@
     <t>Trascrizione atto nascita su richiesta dell'interessato per art. 19</t>
   </si>
   <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita a seguito di acquisto cittadinanza per beneficio di legge (articolo 4 comma 1-bis)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1318</t>
   </si>
   <si>
@@ -1232,9 +1241,6 @@
     <t>Caso d'uso di servizio annotazione comunicazione da altri comuni</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>14500000</t>
   </si>
   <si>
@@ -1340,6 +1346,12 @@
     <t>Decesso in ospedale o casa di cura con documentazione da Struttura Sanitaria (decreto Nascita/Morte)</t>
   </si>
   <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>Dichiarazione di morte su avviso di pubblica autorita'</t>
+  </si>
+  <si>
     <t>2199</t>
   </si>
   <si>
@@ -1805,6 +1817,15 @@
     <t>Accordo di modifica delle condizioni di scioglimento dell'unione civile</t>
   </si>
   <si>
+    <t>448000</t>
+  </si>
+  <si>
+    <t>Trascrizione di sentenza straniera di scioglimento unione civile</t>
+  </si>
+  <si>
+    <t>2025-01-01 00:00:00.0</t>
+  </si>
+  <si>
     <t>449999</t>
   </si>
   <si>
@@ -1889,6 +1910,18 @@
     <t>Dichiarazione: Straniero o dell'apolide, del quale il padre o la madre o uno degli ascendenti in linea retta di secondo grado sono stati cittadini per nascita: acquisto assunzione di pubblico impiego alle dipendenze dello Stato</t>
   </si>
   <si>
+    <t>51111</t>
+  </si>
+  <si>
+    <t>Dichiarazione di volonta' d'acquisto della cittadinanza italiana di minore legge n. art. 4 legge 91/1992 (ordinaria)</t>
+  </si>
+  <si>
+    <t>51112</t>
+  </si>
+  <si>
+    <t>Dichiarazione di volonta' d'acquisto della cittadinanza italiana di minore art.1-ter legge n.74/2025 (transitoria valida solo fino al 31 maggio 2026)</t>
+  </si>
+  <si>
     <t>51201</t>
   </si>
   <si>
@@ -1937,6 +1970,12 @@
     <t>Dichiarazione: Donna che, avendo perduto, anteriormente al 1 gennaio 1948, la cittadinanza italiana per effetto di matrimonio con uno straniero o di mutamento di cittadinanza da parte del marito, intende riacquistarla</t>
   </si>
   <si>
+    <t>51307</t>
+  </si>
+  <si>
+    <t>Dichiarazione resa da cittadino italiano che, avendo perduto la cittadinanza italiana, intende riacquistarla</t>
+  </si>
+  <si>
     <t>51999</t>
   </si>
   <si>
@@ -2007,6 +2046,18 @@
   </si>
   <si>
     <t>Trascrizione: Trascrizione del decreto per matrimonio-unione civile-naturalizzazione-da consolato</t>
+  </si>
+  <si>
+    <t>52155</t>
+  </si>
+  <si>
+    <t>Acquisto di cittadinanza jure sanguinis per decreto di autorita' giudiziaria o amministrativa</t>
+  </si>
+  <si>
+    <t>52156</t>
+  </si>
+  <si>
+    <t>Esito di accertamento per articolo 4 comma 1-bis</t>
   </si>
   <si>
     <t>52211</t>
@@ -2191,7 +2242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G354"/>
+  <dimension ref="A1:G362"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5413,16 +5464,16 @@
         <v>335</v>
       </c>
       <c r="C161" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="162">
@@ -5433,7 +5484,7 @@
         <v>338</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>9</v>
@@ -5447,10 +5498,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
@@ -5467,10 +5518,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
@@ -5487,10 +5538,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
@@ -5507,10 +5558,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
@@ -5527,10 +5578,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
@@ -5547,13 +5598,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>351</v>
+        <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>9</v>
@@ -5593,7 +5644,7 @@
         <v>356</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>9</v>
@@ -5607,10 +5658,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>320</v>
@@ -5627,13 +5678,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>9</v>
@@ -5647,10 +5698,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
@@ -5667,10 +5718,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
@@ -5687,10 +5738,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
@@ -5707,10 +5758,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
@@ -5727,10 +5778,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
@@ -5747,10 +5798,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -5767,10 +5818,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
@@ -5787,10 +5838,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
@@ -5807,13 +5858,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>379</v>
+        <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>9</v>
@@ -5853,7 +5904,7 @@
         <v>384</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>385</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>9</v>
@@ -5867,10 +5918,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -5882,15 +5933,15 @@
         <v>10</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
@@ -5902,15 +5953,15 @@
         <v>10</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
@@ -5922,15 +5973,15 @@
         <v>10</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
@@ -5942,15 +5993,15 @@
         <v>10</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
@@ -5962,15 +6013,15 @@
         <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
@@ -5982,18 +6033,18 @@
         <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>399</v>
+        <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>9</v>
@@ -6013,7 +6064,7 @@
         <v>401</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>9</v>
@@ -6027,13 +6078,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>9</v>
@@ -6047,10 +6098,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
@@ -6062,7 +6113,7 @@
         <v>10</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194">
@@ -6082,7 +6133,7 @@
         <v>10</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="195">
@@ -6102,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="196">
@@ -6122,7 +6173,7 @@
         <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="197">
@@ -6133,7 +6184,7 @@
         <v>414</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>415</v>
+        <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>9</v>
@@ -6142,19 +6193,19 @@
         <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="D198" s="2" t="s">
         <v>9</v>
       </c>
@@ -6162,19 +6213,19 @@
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="D199" s="2" t="s">
         <v>9</v>
       </c>
@@ -6182,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="200">
@@ -6202,7 +6253,7 @@
         <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201">
@@ -6222,7 +6273,7 @@
         <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202">
@@ -6242,7 +6293,7 @@
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="203">
@@ -6262,7 +6313,7 @@
         <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204">
@@ -6270,10 +6321,10 @@
         <v>429</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>7</v>
+        <v>430</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>9</v>
@@ -6282,15 +6333,15 @@
         <v>10</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>431</v>
+        <v>7</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -6302,7 +6353,7 @@
         <v>10</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206">
@@ -6373,7 +6424,7 @@
         <v>439</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>336</v>
+        <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>9</v>
@@ -6393,7 +6444,7 @@
         <v>441</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>9</v>
@@ -6413,7 +6464,7 @@
         <v>443</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>9</v>
@@ -6433,7 +6484,7 @@
         <v>445</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>9</v>
@@ -6442,7 +6493,7 @@
         <v>10</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213">
@@ -6462,7 +6513,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214">
@@ -6493,10 +6544,10 @@
         <v>451</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>452</v>
+        <v>9</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>10</v>
@@ -6507,13 +6558,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C216" s="2" t="s">
-        <v>336</v>
+        <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>9</v>
@@ -6527,16 +6578,16 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="C217" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>10</v>
@@ -6553,7 +6604,7 @@
         <v>458</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>9</v>
@@ -6613,7 +6664,7 @@
         <v>464</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>9</v>
@@ -6650,10 +6701,10 @@
         <v>467</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>9</v>
@@ -6662,15 +6713,15 @@
         <v>10</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -6682,15 +6733,15 @@
         <v>10</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
@@ -6702,15 +6753,15 @@
         <v>10</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
@@ -6722,18 +6773,18 @@
         <v>10</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>418</v>
+        <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>9</v>
@@ -6742,18 +6793,18 @@
         <v>10</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>9</v>
@@ -6762,18 +6813,18 @@
         <v>10</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>9</v>
@@ -6782,18 +6833,18 @@
         <v>10</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>9</v>
@@ -6802,35 +6853,35 @@
         <v>10</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>14</v>
+        <v>336</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>478</v>
+        <v>7</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>479</v>
+        <v>9</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -6847,16 +6898,16 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>10</v>
@@ -6893,10 +6944,10 @@
         <v>487</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>9</v>
+        <v>483</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>10</v>
@@ -7033,7 +7084,7 @@
         <v>501</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>9</v>
@@ -7073,7 +7124,7 @@
         <v>505</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>9</v>
@@ -7113,7 +7164,7 @@
         <v>509</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>9</v>
@@ -7127,13 +7178,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>9</v>
@@ -7147,13 +7198,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>9</v>
@@ -7173,7 +7224,7 @@
         <v>513</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>9</v>
@@ -7182,7 +7233,7 @@
         <v>10</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250">
@@ -7202,7 +7253,7 @@
         <v>10</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251">
@@ -7273,7 +7324,7 @@
         <v>523</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>524</v>
+        <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>9</v>
@@ -7287,10 +7338,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
@@ -7307,14 +7358,14 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D256" s="2" t="s">
         <v>9</v>
       </c>
@@ -7322,7 +7373,7 @@
         <v>10</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="257">
@@ -7342,7 +7393,7 @@
         <v>10</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="258">
@@ -7453,10 +7504,10 @@
         <v>542</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>543</v>
+        <v>9</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>10</v>
@@ -7467,10 +7518,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
@@ -7487,16 +7538,16 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="C265" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>10</v>
@@ -7533,7 +7584,7 @@
         <v>551</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>9</v>
@@ -7542,7 +7593,7 @@
         <v>10</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -7550,7 +7601,7 @@
         <v>552</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>405</v>
+        <v>553</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
@@ -7562,18 +7613,18 @@
         <v>10</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>469</v>
+        <v>555</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>9</v>
@@ -7582,15 +7633,15 @@
         <v>10</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
@@ -7602,15 +7653,15 @@
         <v>10</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
@@ -7622,18 +7673,18 @@
         <v>10</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>418</v>
+        <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>9</v>
@@ -7642,18 +7693,18 @@
         <v>10</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>9</v>
@@ -7662,18 +7713,18 @@
         <v>10</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>9</v>
@@ -7682,18 +7733,18 @@
         <v>10</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>560</v>
+        <v>422</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>9</v>
@@ -7702,15 +7753,15 @@
         <v>10</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>14</v>
+        <v>336</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>562</v>
+        <v>7</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
@@ -7722,7 +7773,7 @@
         <v>10</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277">
@@ -7822,7 +7873,7 @@
         <v>10</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282">
@@ -7842,7 +7893,7 @@
         <v>10</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
@@ -7893,7 +7944,7 @@
         <v>580</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>9</v>
@@ -7933,7 +7984,7 @@
         <v>584</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>9</v>
@@ -7942,7 +7993,7 @@
         <v>10</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="288">
@@ -7962,7 +8013,7 @@
         <v>10</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="289">
@@ -8033,7 +8084,7 @@
         <v>594</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>9</v>
@@ -8053,7 +8104,7 @@
         <v>596</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>336</v>
+        <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>9</v>
@@ -8062,7 +8113,7 @@
         <v>10</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294">
@@ -8073,7 +8124,7 @@
         <v>598</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>9</v>
@@ -8090,10 +8141,10 @@
         <v>599</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>405</v>
+        <v>600</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>9</v>
@@ -8102,18 +8153,18 @@
         <v>10</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>469</v>
+        <v>602</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>8</v>
+        <v>603</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>9</v>
@@ -8122,15 +8173,15 @@
         <v>10</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>410</v>
+        <v>605</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -8142,15 +8193,15 @@
         <v>10</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
@@ -8162,18 +8213,18 @@
         <v>10</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>418</v>
+        <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>9</v>
@@ -8182,18 +8233,18 @@
         <v>10</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>9</v>
@@ -8202,18 +8253,18 @@
         <v>10</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>606</v>
+        <v>414</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>607</v>
+        <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>9</v>
@@ -8222,18 +8273,18 @@
         <v>10</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>9</v>
@@ -8242,18 +8293,18 @@
         <v>10</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>610</v>
+        <v>422</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>9</v>
@@ -8262,18 +8313,18 @@
         <v>10</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>14</v>
+        <v>336</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>8</v>
+        <v>614</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>9</v>
@@ -8282,15 +8333,15 @@
         <v>10</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>14</v>
+        <v>336</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>614</v>
+        <v>7</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
@@ -8302,15 +8353,15 @@
         <v>10</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
@@ -8327,10 +8378,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -8347,10 +8398,10 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
@@ -8367,10 +8418,10 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
@@ -8387,10 +8438,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
@@ -8407,10 +8458,10 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
@@ -8427,10 +8478,10 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
@@ -8447,10 +8498,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
@@ -8467,13 +8518,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>9</v>
@@ -8487,13 +8538,13 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>9</v>
@@ -8507,10 +8558,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
@@ -8527,10 +8578,10 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
@@ -8547,10 +8598,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
@@ -8567,10 +8618,10 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
@@ -8587,10 +8638,10 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
@@ -8602,15 +8653,15 @@
         <v>10</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
@@ -8622,15 +8673,15 @@
         <v>10</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
@@ -8642,15 +8693,15 @@
         <v>10</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
@@ -8662,18 +8713,18 @@
         <v>10</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>9</v>
@@ -8682,15 +8733,15 @@
         <v>10</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
@@ -8702,15 +8753,15 @@
         <v>10</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
@@ -8727,10 +8778,10 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
@@ -8747,10 +8798,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
@@ -8767,10 +8818,10 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
@@ -8787,10 +8838,10 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
@@ -8807,10 +8858,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
@@ -8827,10 +8878,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
@@ -8847,10 +8898,10 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
@@ -8867,10 +8918,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
@@ -8887,10 +8938,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
@@ -8907,10 +8958,10 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
@@ -8927,13 +8978,13 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>9</v>
@@ -8947,13 +8998,13 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>9</v>
@@ -8962,15 +9013,15 @@
         <v>10</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
@@ -8987,10 +9038,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
@@ -9007,10 +9058,10 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
@@ -9027,10 +9078,10 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
@@ -9047,10 +9098,10 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
@@ -9067,10 +9118,10 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
@@ -9087,10 +9138,10 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>8</v>
@@ -9107,10 +9158,10 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>8</v>
@@ -9127,13 +9178,13 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>399</v>
+        <v>8</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>9</v>
@@ -9147,10 +9198,10 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>8</v>
@@ -9167,10 +9218,10 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>405</v>
+        <v>703</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>8</v>
@@ -9182,15 +9233,15 @@
         <v>10</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>469</v>
+        <v>705</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>8</v>
@@ -9202,15 +9253,15 @@
         <v>10</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>410</v>
+        <v>707</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>8</v>
@@ -9222,15 +9273,15 @@
         <v>10</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>412</v>
+        <v>709</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>8</v>
@@ -9242,18 +9293,18 @@
         <v>10</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>417</v>
+        <v>711</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>418</v>
+        <v>8</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>9</v>
@@ -9262,27 +9313,187 @@
         <v>10</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="D361" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D354" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E354" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F354" s="2" t="s">
-        <v>406</v>
+      <c r="D362" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -1022,223 +1022,223 @@
     <t>Trascrizione di nascita a seguito di acquisto cittadinanza per beneficio di legge (articolo 4 comma 1-bis)</t>
   </si>
   <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>Trascrizione atto di nascita da struttura sanitaria</t>
+  </si>
+  <si>
+    <t>2024-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di dichiarazione giudiziale di maternita' richiesta dall'interessato</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di dichiarazione giudiziale di paternita' richiesta dall'interessato</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di dichiarazione giudiziale di paternita' o maternita' su richiesta dell'autorita' diplomatica o consolare</t>
+  </si>
+  <si>
+    <t>1324</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione richiesta dall'interessato della sentenza straniera di disconoscimento di paternita'</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di disconoscimento di paternita' su richiesta dell'autorita' diplomatica o consolare</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione del decreto prefettizio di cambiamento del nome e cognome</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>Trascrizione del decreto prefettizio o sentenza di cambiamento del nome e cognome su richiesta dell'autorita' pubblica o consolare</t>
+  </si>
+  <si>
+    <t>2024-11-26 19:04:34.0</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>Trascrizione decreto prefettizio cambio cognome multi intestatari</t>
+  </si>
+  <si>
+    <t>2024-11-26 19:05:04.0</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>Trascrizione del decreto prefettizio o sentenza di cambiamento del nome e cognome con figli</t>
+  </si>
+  <si>
+    <t>1335</t>
+  </si>
+  <si>
+    <t>Trascrizione del decreto prefettizio o sentenza di cambiamento del nome e cognome con figli su richiesta dell'autorita' pubblica o consolare</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione della sentenza di adozione di minore emessa dal Tribunale dei minori</t>
+  </si>
+  <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione della sentenza di adozione di minore in casi particolari emessa dal Tribunale dei minori</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione della sentenza di revoca della adozione di minore in casi particolari</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione della sentenza di adozione di maggiorenne emessa dal Tribunale</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trascrizione di nascita: Trascrizione della sentenza di revoca della adozione di maggiorenne </t>
+  </si>
+  <si>
+    <t>1351</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione provvedimento straniero di adozione</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione del provvedimento straniero di adozione di minore riconosciuto valido dal Tribunale dei minori convenzione Aja 29.5.1993</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta da un privato</t>
+  </si>
+  <si>
+    <t>1354</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta dall'autorita' diplomatica o consolare</t>
+  </si>
+  <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>Trascrizione sentenza tribunale dei minori che dichiara efficace il provvedimento straniero di adozione (fuori convenzione Aja)</t>
+  </si>
+  <si>
+    <t>2024-11-26 19:03:04.0</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>Trascrizione di provvedimento straniero di cambio sesso</t>
+  </si>
+  <si>
+    <t>2025-06-25 12:06:42.0</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Formazione dell'atto di nascita su autorizzazione tribunale in caso di omessa denuncia</t>
+  </si>
+  <si>
+    <t>1362</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di parte</t>
+  </si>
+  <si>
+    <t>1363</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di ufficio</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trascrizione di nascita: Scelta del cognome del figlio maggiorenne a seguito di accertamento o riconoscimento della paternita' successivamente al riconoscimento materno </t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Trascrizione della comunicazione scritta trasmessa dal direttore dell'istituto che accoglie un minore abbandonato</t>
+  </si>
+  <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di parte</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita: Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di ufficio</t>
+  </si>
+  <si>
+    <t>1381</t>
+  </si>
+  <si>
+    <t>Trascrizione atti multipli adozioni</t>
+  </si>
+  <si>
+    <t>2024-10-29 22:30:43.0</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>Trascrizione atti multipli adozioni nazionali</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>Caso d'uso di servizio trascrizioni nascita</t>
+  </si>
+  <si>
+    <t>14400000</t>
+  </si>
+  <si>
+    <t>Caso d'uso di servizio annotazione comunicazione da altri comuni</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>1318</t>
-  </si>
-  <si>
-    <t>Trascrizione atto di nascita da struttura sanitaria</t>
-  </si>
-  <si>
-    <t>2024-01-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>1321</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di dichiarazione giudiziale di maternita' richiesta dall'interessato</t>
-  </si>
-  <si>
-    <t>1322</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di dichiarazione giudiziale di paternita' richiesta dall'interessato</t>
-  </si>
-  <si>
-    <t>1323</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di dichiarazione giudiziale di paternita' o maternita' su richiesta dell'autorita' diplomatica o consolare</t>
-  </si>
-  <si>
-    <t>1324</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione richiesta dall'interessato della sentenza straniera di disconoscimento di paternita'</t>
-  </si>
-  <si>
-    <t>1325</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione della sentenza straniera di disconoscimento di paternita' su richiesta dell'autorita' diplomatica o consolare</t>
-  </si>
-  <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione del decreto prefettizio di cambiamento del nome e cognome</t>
-  </si>
-  <si>
-    <t>1332</t>
-  </si>
-  <si>
-    <t>Trascrizione del decreto prefettizio o sentenza di cambiamento del nome e cognome su richiesta dell'autorita' pubblica o consolare</t>
-  </si>
-  <si>
-    <t>2024-11-26 19:04:34.0</t>
-  </si>
-  <si>
-    <t>1333</t>
-  </si>
-  <si>
-    <t>Trascrizione decreto prefettizio cambio cognome multi intestatari</t>
-  </si>
-  <si>
-    <t>2024-11-26 19:05:04.0</t>
-  </si>
-  <si>
-    <t>1334</t>
-  </si>
-  <si>
-    <t>Trascrizione del decreto prefettizio o sentenza di cambiamento del nome e cognome con figli</t>
-  </si>
-  <si>
-    <t>1335</t>
-  </si>
-  <si>
-    <t>Trascrizione del decreto prefettizio o sentenza di cambiamento del nome e cognome con figli su richiesta dell'autorita' pubblica o consolare</t>
-  </si>
-  <si>
-    <t>1341</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione della sentenza di adozione di minore emessa dal Tribunale dei minori</t>
-  </si>
-  <si>
-    <t>1342</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione della sentenza di adozione di minore in casi particolari emessa dal Tribunale dei minori</t>
-  </si>
-  <si>
-    <t>1343</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione della sentenza di revoca della adozione di minore in casi particolari</t>
-  </si>
-  <si>
-    <t>1344</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione della sentenza di adozione di maggiorenne emessa dal Tribunale</t>
-  </si>
-  <si>
-    <t>1345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trascrizione di nascita: Trascrizione della sentenza di revoca della adozione di maggiorenne </t>
-  </si>
-  <si>
-    <t>1351</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione provvedimento straniero di adozione</t>
-  </si>
-  <si>
-    <t>1352</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione del provvedimento straniero di adozione di minore riconosciuto valido dal Tribunale dei minori convenzione Aja 29.5.1993</t>
-  </si>
-  <si>
-    <t>1353</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta da un privato</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta dall'autorita' diplomatica o consolare</t>
-  </si>
-  <si>
-    <t>1355</t>
-  </si>
-  <si>
-    <t>Trascrizione sentenza tribunale dei minori che dichiara efficace il provvedimento straniero di adozione (fuori convenzione Aja)</t>
-  </si>
-  <si>
-    <t>2024-11-26 19:03:04.0</t>
-  </si>
-  <si>
-    <t>1356</t>
-  </si>
-  <si>
-    <t>Trascrizione di provvedimento straniero di cambio sesso</t>
-  </si>
-  <si>
-    <t>2025-06-25 12:06:42.0</t>
-  </si>
-  <si>
-    <t>1361</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Formazione dell'atto di nascita su autorizzazione tribunale in caso di omessa denuncia</t>
-  </si>
-  <si>
-    <t>1362</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di parte</t>
-  </si>
-  <si>
-    <t>1363</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di ufficio</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trascrizione di nascita: Scelta del cognome del figlio maggiorenne a seguito di accertamento o riconoscimento della paternita' successivamente al riconoscimento materno </t>
-  </si>
-  <si>
-    <t>1365</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Trascrizione della comunicazione scritta trasmessa dal direttore dell'istituto che accoglie un minore abbandonato</t>
-  </si>
-  <si>
-    <t>1366</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di parte</t>
-  </si>
-  <si>
-    <t>1367</t>
-  </si>
-  <si>
-    <t>Trascrizione di nascita: Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di ufficio</t>
-  </si>
-  <si>
-    <t>1381</t>
-  </si>
-  <si>
-    <t>Trascrizione atti multipli adozioni</t>
-  </si>
-  <si>
-    <t>2024-10-29 22:30:43.0</t>
-  </si>
-  <si>
-    <t>1382</t>
-  </si>
-  <si>
-    <t>Trascrizione atti multipli adozioni nazionali</t>
-  </si>
-  <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>Caso d'uso di servizio trascrizioni nascita</t>
-  </si>
-  <si>
-    <t>14400000</t>
-  </si>
-  <si>
-    <t>Caso d'uso di servizio annotazione comunicazione da altri comuni</t>
   </si>
   <si>
     <t>14500000</t>
@@ -5473,18 +5473,18 @@
         <v>10</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>9</v>
@@ -5498,10 +5498,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
@@ -5518,10 +5518,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
@@ -5558,10 +5558,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
@@ -5618,13 +5618,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>9</v>
@@ -5638,13 +5638,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>9</v>
@@ -5658,10 +5658,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>320</v>
@@ -5678,10 +5678,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>320</v>
@@ -5698,10 +5698,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
@@ -5718,10 +5718,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
@@ -5758,10 +5758,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -5818,10 +5818,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
@@ -5838,10 +5838,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
@@ -5858,10 +5858,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
@@ -5878,13 +5878,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>9</v>
@@ -5898,13 +5898,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>9</v>
@@ -5918,10 +5918,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -5938,10 +5938,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
@@ -5978,10 +5978,10 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
@@ -6038,10 +6038,10 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
@@ -6058,13 +6058,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>9</v>
@@ -6078,13 +6078,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C192" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>9</v>
@@ -6098,10 +6098,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
@@ -6118,22 +6118,22 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="195">
@@ -6153,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="196">
@@ -6173,7 +6173,7 @@
         <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="197">
@@ -6193,7 +6193,7 @@
         <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="198">
@@ -6213,7 +6213,7 @@
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="199">
@@ -6233,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="200">
@@ -6253,7 +6253,7 @@
         <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="201">
@@ -6273,7 +6273,7 @@
         <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202">
@@ -6293,7 +6293,7 @@
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="203">
@@ -6313,7 +6313,7 @@
         <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="204">
@@ -6333,7 +6333,7 @@
         <v>10</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205">
@@ -6444,7 +6444,7 @@
         <v>441</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>9</v>
@@ -6464,7 +6464,7 @@
         <v>443</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>9</v>
@@ -6604,7 +6604,7 @@
         <v>458</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>9</v>
@@ -6741,19 +6741,19 @@
         <v>471</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="226">
@@ -6773,7 +6773,7 @@
         <v>10</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="227">
@@ -6793,7 +6793,7 @@
         <v>10</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="228">
@@ -6813,7 +6813,7 @@
         <v>10</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="229">
@@ -6833,7 +6833,7 @@
         <v>10</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="230">
@@ -6853,7 +6853,7 @@
         <v>10</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="231">
@@ -7633,7 +7633,7 @@
         <v>10</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="270">
@@ -7641,19 +7641,19 @@
         <v>556</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="271">
@@ -7673,7 +7673,7 @@
         <v>10</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="272">
@@ -7693,7 +7693,7 @@
         <v>10</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="273">
@@ -7713,7 +7713,7 @@
         <v>10</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="274">
@@ -7733,7 +7733,7 @@
         <v>10</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="275">
@@ -7753,7 +7753,7 @@
         <v>10</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="276">
@@ -8144,7 +8144,7 @@
         <v>600</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>9</v>
@@ -8201,19 +8201,19 @@
         <v>606</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F298" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="299">
@@ -8233,7 +8233,7 @@
         <v>10</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="300">
@@ -8253,7 +8253,7 @@
         <v>10</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="301">
@@ -8273,7 +8273,7 @@
         <v>10</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="302">
@@ -8293,7 +8293,7 @@
         <v>10</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="303">
@@ -8313,7 +8313,7 @@
         <v>10</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="304">
@@ -8333,7 +8333,7 @@
         <v>10</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="305">
@@ -8984,7 +8984,7 @@
         <v>679</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>9</v>
@@ -9013,7 +9013,7 @@
         <v>10</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="339">
@@ -9344,7 +9344,7 @@
         <v>715</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>9</v>
@@ -9381,19 +9381,19 @@
         <v>718</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F357" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D357" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F357" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="358">
@@ -9413,7 +9413,7 @@
         <v>10</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="359">
@@ -9433,7 +9433,7 @@
         <v>10</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="360">
@@ -9453,7 +9453,7 @@
         <v>10</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="361">
@@ -9473,7 +9473,7 @@
         <v>10</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="362">
@@ -9493,7 +9493,7 @@
         <v>10</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -1172,7 +1172,7 @@
     <t>1361</t>
   </si>
   <si>
-    <t>Trascrizione di nascita: Formazione dell'atto di nascita su autorizzazione tribunale in caso di omessa denuncia</t>
+    <t>Formazione dell'atto di nascita su autorizzazione tribunale in caso di omessa denuncia</t>
   </si>
   <si>
     <t>1362</t>
